--- a/analysis/model_answer_result/gpt-3.5-turbo/gpt-3.5-turbo_c&cpp.xlsx
+++ b/analysis/model_answer_result/gpt-3.5-turbo/gpt-3.5-turbo_c&cpp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="274">
   <si>
     <t>task_id</t>
   </si>
@@ -35,18 +35,21 @@
     <t>code_type</t>
   </si>
   <si>
+    <t>code_signature</t>
+  </si>
+  <si>
     <t>code_language</t>
   </si>
   <si>
-    <t>code_signature</t>
-  </si>
-  <si>
     <t>test_code</t>
   </si>
   <si>
     <t>prompt</t>
   </si>
   <si>
+    <t>addition_info</t>
+  </si>
+  <si>
     <t>answer_list</t>
   </si>
   <si>
@@ -59,108 +62,603 @@
     <t>stdout</t>
   </si>
   <si>
+    <t>full_content</t>
+  </si>
+  <si>
     <t>method</t>
   </si>
   <si>
+    <t>#include &lt;iostream&gt;
+#include &lt;cmath&gt;
+struct Point {
+    float x, y;
+};
+struct Ray {
+    Point origin;   // Starting point of the ray
+    Point direction; // Direction of the ray (should be normalized)
+};
+struct Circle {
+    Point center; // Center of the circle
+    float radius; // Radius of the circle
+};
+/**
+ * @brief Determines whether a ray intersects with a circle.
+ *
+ * This function checks if a given ray intersects with a specified circle
+ * in a 2D space. It performs mathematical calculations to determine if
+ * the ray, defined by its origin and direction, crosses the area of the
+ * circle defined by its center and radius.
+ *
+ * @param ray The ray to be tested for intersection. It is assumed to
+ * contain properties such as an origin point and a direction vector.
+ * @param circle The circle to check for intersection. It is assumed to
+ * contain properties such as a center point and a radius.
+ *
+ * @return true if the ray intersects the circle; false otherwise.
+ */
+bool intersects(const Ray&amp; ray, const Circle&amp; circle) {}</t>
+  </si>
+  <si>
     <t>c&amp;cpp</t>
   </si>
   <si>
+    <t>TEST_CASE("Ray-Circle Intersection Tests") {
+    // Test Case 1: The ray intersects the circle at two points
+    {
+        Ray ray = {{0, 0}, {1, 1}}; // Origin at (0, 0), direction (1, 1)
+        Circle circle = {{3, 3}, 2}; // Circle center at (3, 3), radius 2
+        REQUIRE(intersects(ray, circle) == true);
+    }
+    // Test Case 2: The ray is tangent to the circle (one intersection point)
+    {
+        Ray ray = {{2, 0}, {0, 1}}; // Origin at (2, 0), direction (0, 1)
+        Circle circle = {{2, 2}, 1}; // Circle center at (2, 2), radius 1
+        REQUIRE(intersects(ray, circle) == true);
+    }
+    // Test Case 3: The ray starts inside the circle (one intersection point)
+    {
+        Ray ray = {{2, 2}, {1, 0}}; // Origin at (2, 2), direction (1, 0)
+        Circle circle = {{3, 2}, 1}; // Circle center at (3, 2), radius 1
+        REQUIRE(intersects(ray, circle) == true);
+    }
+    // Test Case 4: The ray originates outside and goes away from the circle (no intersection)
+    {
+        Ray ray = {{5, 5}, {1, 0}}; // Origin at (5, 5), direction (1, 0)
+        Circle circle = {{3, 3}, 1}; // Circle center at (3, 3), radius 1
+        REQUIRE(intersects(ray, circle) == false);
+    }
+    // Test Case 5: The ray is parallel to the line connecting the center of the circle and is outside (no intersection)
+    {
+        Ray ray = {{0, 3}, {1, 0}}; // Origin at (0, 3), direction (1, 0)
+        Circle circle = {{3, 3}, 1}; // Circle center at (3, 3), radius 1
+        REQUIRE(intersects(ray, circle) == true);
+    }
+    // Test Case 6: The ray intersects the circle at one point when passing through the center
+    {
+        Ray ray = {{3, 0}, {0, 1}}; // Origin at (3, 0), direction (0, 1)
+        Circle circle = {{3, 3}, 3}; // Circle center at (3, 3), radius 3
+        REQUIRE(intersects(ray, circle) == true);
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below #include &lt;iostream&gt;
+#include &lt;cmath&gt;
+struct Point {
+    float x, y;
+};
+struct Ray {
+    Point origin;   // Starting point of the ray
+    Point direction; // Direction of the ray (should be normalized)
+};
+struct Circle {
+    Point center; // Center of the circle
+    float radius; // Radius of the circle
+};
+/**
+ * @brief Determines whether a ray intersects with a circle.
+ *
+ * This function checks if a given ray intersects with a specified circle
+ * in a 2D space. It performs mathematical calculations to determine if
+ * the ray, defined by its origin and direction, crosses the area of the
+ * circle defined by its center and radius.
+ *
+ * @param ray The ray to be tested for intersection. It is assumed to
+ * contain properties such as an origin point and a direction vector.
+ * @param circle The circle to check for intersection. It is assumed to
+ * contain properties such as a center point and a radius.
+ *
+ * @return true if the ray intersects the circle; false otherwise.
+ */
+bool intersects(const Ray&amp; ray, const Circle&amp; circle) {}</t>
+  </si>
+  <si>
+    <t>#include &lt;iostream&gt;
+#include &lt;cmath&gt;
+struct Point {
+    float x, y;
+};
+struct Ray {
+    Point origin;   // Starting point of the ray
+    Point direction; // Direction of the ray (should be normalized)
+};
+struct Circle {
+    Point center; // Center of the circle
+    float radius; // Radius of the circle
+};</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'bool intersects(const Ray&amp; ray, const Circle&amp; circle) {\n    float dx = ray.direction.x;\n    float dy = ray.direction.y;\n    float fx = ray.origin.x - circle.center.x;\n    float fy = ray.origin.y - circle.center.y;\n\n    float a = dx * dx + dy * dy;\n    float b = 2 * (fx * dx + fy * dy);\n    float c = (fx * fx + fy * fy) - (circle.radius * circle.radius);\n\n    float discriminant = b * b - 4 * a * c;\n\n    if (discriminant &lt; 0) {\n        return false; // No intersection\n    }\n\n    float t1 = (-b - sqrt(discriminant)) / (2 * a);\n    float t2 = (-b + sqrt(discriminant)) / (2 * a);\n\n    return (t1 &gt;= 0 || t2 &gt;= 0); // At least one intersection point is in the positive direction\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;iostream&gt;
+#include &lt;cmath&gt;
+struct Point {
+    float x, y;
+};
+struct Ray {
+    Point origin;   // Starting point of the ray
+    Point direction; // Direction of the ray (should be normalized)
+};
+struct Circle {
+    Point center; // Center of the circle
+    float radius; // Radius of the circle
+};bool intersects(const Ray&amp; ray, const Circle&amp; circle) {
+    float dx = ray.direction.x;
+    float dy = ray.direction.y;
+    float fx = ray.origin.x - circle.center.x;
+    float fy = ray.origin.y - circle.center.y;
+    float a = dx * dx + dy * dy;
+    float b = 2 * (fx * dx + fy * dy);
+    float c = (fx * fx + fy * fy) - (circle.radius * circle.radius);
+    float discriminant = b * b - 4 * a * c;
+    if (discriminant &lt; 0) {
+        return false; // No intersection
+    }
+    float t1 = (-b - sqrt(discriminant)) / (2 * a);
+    float t2 = (-b + sqrt(discriminant)) / (2 * a);
+    return (t1 &gt;= 0 || t2 &gt;= 0); // At least one intersection point is in the positive direction
+}TEST_CASE("Ray-Circle Intersection Tests") {
+    // Test Case 1: The ray intersects the circle at two points
+    {
+        Ray ray = {{0, 0}, {1, 1}}; // Origin at (0, 0), direction (1, 1)
+        Circle circle = {{3, 3}, 2}; // Circle center at (3, 3), radius 2
+        REQUIRE(intersects(ray, circle) == true);
+    }
+    // Test Case 2: The ray is tangent to the circle (one intersection point)
+    {
+        Ray ray = {{2, 0}, {0, 1}}; // Origin at (2, 0), direction (0, 1)
+        Circle circle = {{2, 2}, 1}; // Circle center at (2, 2), radius 1
+        REQUIRE(intersects(ray, circle) == true);
+    }
+    // Test Case 3: The ray starts inside the circle (one intersection point)
+    {
+        Ray ray = {{2, 2}, {1, 0}}; // Origin at (2, 2), direction (1, 0)
+        Circle circle = {{3, 2}, 1}; // Circle center at (3, 2), radius 1
+        REQUIRE(intersects(ray, circle) == true);
+    }
+    // Test Case 4: The ray originates outside and goes away from the circle (no intersection)
+    {
+        Ray ray = {{5, 5}, {1, 0}}; // Origin at (5, 5), direction (1, 0)
+        Circle circle = {{3, 3}, 1}; // Circle center at (3, 3), radius 1
+        REQUIRE(intersects(ray, circle) == false);
+    }
+    // Test Case 5: The ray is parallel to the line connecting the center of the circle and is outside (no intersection)
+    {
+        Ray ray = {{0, 3}, {1, 0}}; // Origin at (0, 3), direction (1, 0)
+        Circle circle = {{3, 3}, 1}; // Circle center at (3, 3), radius 1
+        REQUIRE(intersects(ray, circle) == true);
+    }
+    // Test Case 6: The ray intersects the circle at one point when passing through the center
+    {
+        Ray ray = {{3, 0}, {0, 1}}; // Origin at (3, 0), direction (0, 1)
+        Circle circle = {{3, 3}, 3}; // Circle center at (3, 3), radius 3
+        REQUIRE(intersects(ray, circle) == true);
+    }
+}</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>#include &lt;iostream&gt;
+#include &lt;vector&gt;
+#include &lt;stdexcept&gt;
+class PriorityQueue {
+private:
+    std::vector&lt;int&gt; heap; // This will store the elements of the heap
+    // Helper function to get the index of the parent
+    int parent(int index) {}
+    // Helper function to get the index of the left child
+    int leftChild(int index) {}
+    // Helper function to get the index of the right child
+    int rightChild(int index) {}
+    // Helper function to swap two elements in the heap
+    void swap(int &amp;a, int &amp;b) {}
+    // Heapify up to maintain the max-heap property after insertion
+    void heapifyUp(int index) {}
+    // Heapify down to maintain the max-heap property after deletion
+    void heapifyDown(int index) {}
+public:
+    // Insert an element into the priority queue
+    void push(int value) {}
+    // Remove the maximum element from the priority queue
+    void pop() {}
+    // Get the maximum element without removing it
+    int top() {}
+    // Check if the priority queue is empty
+    bool isEmpty() {}
+    // Get the size of the priority queue
+    int size() {}
+};</t>
+  </si>
+  <si>
+    <t>TEST_CASE("Priority Queue - Test Cases") {
+    PriorityQueue pq;
+    SECTION("Insert and access maximum element") {
+        pq.push(10);
+        pq.push(20);
+        pq.push(5);
+        pq.push(30);
+        pq.push(15);
+        REQUIRE(pq.top() == 30); // Ensure the max element is 30
+    }
+    SECTION("Remove maximum element") {
+        pq.push(10);
+        pq.push(20);
+        pq.push(5);
+        pq.push(30);
+        pq.pop(); // Remove 30
+        REQUIRE(pq.top() == 20); // Now the max should be 20
+        pq.pop(); // Remove 20
+        REQUIRE(pq.top() == 10); // Now the max should be 10
+    }
+    SECTION("Check empty queue") {
+        REQUIRE(pq.isEmpty() == true); // Initially empty
+        pq.push(10);
+        REQUIRE(pq.isEmpty() == false); // Now not empty
+        pq.pop();
+        REQUIRE(pq.isEmpty() == true); // Back to empty
+    }
+    SECTION("Pop from empty queue") {
+        REQUIRE_THROWS_AS(pq.pop(), std::runtime_error); // Should throw an error
+    }
+    SECTION("Access top of empty queue") {
+        REQUIRE_THROWS_AS(pq.top(), std::runtime_error); // Should throw an error
+    }
+    SECTION("Maintain max-heap property") {
+        pq.push(3);
+        pq.push(1);
+        pq.push(4);
+        pq.push(2);
+        REQUIRE(pq.top() == 4); // Ensure max is 4
+        pq.pop(); // Remove 4
+        REQUIRE(pq.top() == 3); // Now max is 3
+        pq.push(5); // Add 5
+        REQUIRE(pq.top() == 5); // Ensure max is now 5
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp class , the class signature as below #include &lt;iostream&gt;
+#include &lt;vector&gt;
+#include &lt;stdexcept&gt;
+class PriorityQueue {
+private:
+    std::vector&lt;int&gt; heap; // This will store the elements of the heap
+    // Helper function to get the index of the parent
+    int parent(int index) {}
+    // Helper function to get the index of the left child
+    int leftChild(int index) {}
+    // Helper function to get the index of the right child
+    int rightChild(int index) {}
+    // Helper function to swap two elements in the heap
+    void swap(int &amp;a, int &amp;b) {}
+    // Heapify up to maintain the max-heap property after insertion
+    void heapifyUp(int index) {}
+    // Heapify down to maintain the max-heap property after deletion
+    void heapifyDown(int index) {}
+public:
+    // Insert an element into the priority queue
+    void push(int value) {}
+    // Remove the maximum element from the priority queue
+    void pop() {}
+    // Get the maximum element without removing it
+    int top() {}
+    // Check if the priority queue is empty
+    bool isEmpty() {}
+    // Get the size of the priority queue
+    int size() {}
+};</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;iostream&gt;\n#include &lt;vector&gt;\n#include &lt;stdexcept&gt;\n\nclass PriorityQueue {\nprivate:\n    std::vector&lt;int&gt; heap;\n\n    int parent(int index) {\n        return (index - 1) / 2;\n    }\n\n    int leftChild(int index) {\n        return 2 * index + 1;\n    }\n\n    int rightChild(int index) {\n        return 2 * index + 2;\n    }\n\n    void swap(int &amp;a, int &amp;b) {\n        int temp = a;\n        a = b;\n        b = temp;\n    }\n\n    void heapifyUp(int index) {\n        while (index &gt; 0 &amp;&amp; heap[parent(index)] &lt; heap[index]) {\n            swap(heap[parent(index)], heap[index]);\n            index = parent(index);\n        }\n    }\n\n    void heapifyDown(int index) {\n        int maxIndex = index;\n        int left = leftChild(index);\n        int right = rightChild(index);\n\n        if (left &lt; heap.size() &amp;&amp; heap[left] &gt; heap[maxIndex]) {\n            maxIndex = left;\n        }\n        if (right &lt; heap.size() &amp;&amp; heap[right] &gt; heap[maxIndex]) {\n            maxIndex = right;\n        }\n        if (index != maxIndex) {\n            swap(heap[index], heap[maxIndex]);\n            heapifyDown(maxIndex);\n        }\n    }\n\npublic:\n    void push(int value) {\n        heap.push_back(value);\n        heapifyUp(heap.size() - 1);\n    }\n\n    void pop() {\n        if (heap.empty()) throw std::runtime_error("Priority queue is empty");\n        heap[0] = heap.back();\n        heap.pop_back();\n        if (!heap.empty()) heapifyDown(0);\n    }\n\n    int top() {\n        if (heap.empty()) throw std::runtime_error("Priority queue is empty");\n        return heap[0];\n    }\n\n    bool isEmpty() {\n        return heap.empty();\n    }\n\n    int size() {\n        return heap.size();\n    }\n};'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;iostream&gt;
+#include &lt;vector&gt;
+#include &lt;stdexcept&gt;
+class PriorityQueue {
+private:
+    std::vector&lt;int&gt; heap;
+    int parent(int index) {
+        return (index - 1) / 2;
+    }
+    int leftChild(int index) {
+        return 2 * index + 1;
+    }
+    int rightChild(int index) {
+        return 2 * index + 2;
+    }
+    void swap(int &amp;a, int &amp;b) {
+        int temp = a;
+        a = b;
+        b = temp;
+    }
+    void heapifyUp(int index) {
+        while (index &gt; 0 &amp;&amp; heap[parent(index)] &lt; heap[index]) {
+            swap(heap[parent(index)], heap[index]);
+            index = parent(index);
+        }
+    }
+    void heapifyDown(int index) {
+        int maxIndex = index;
+        int left = leftChild(index);
+        int right = rightChild(index);
+        if (left &lt; heap.size() &amp;&amp; heap[left] &gt; heap[maxIndex]) {
+            maxIndex = left;
+        }
+        if (right &lt; heap.size() &amp;&amp; heap[right] &gt; heap[maxIndex]) {
+            maxIndex = right;
+        }
+        if (index != maxIndex) {
+            swap(heap[index], heap[maxIndex]);
+            heapifyDown(maxIndex);
+        }
+    }
+public:
+    void push(int value) {
+        heap.push_back(value);
+        heapifyUp(heap.size() - 1);
+    }
+    void pop() {
+        if (heap.empty()) throw std::runtime_error("Priority queue is empty");
+        heap[0] = heap.back();
+        heap.pop_back();
+        if (!heap.empty()) heapifyDown(0);
+    }
+    int top() {
+        if (heap.empty()) throw std::runtime_error("Priority queue is empty");
+        return heap[0];
+    }
+    bool isEmpty() {
+        return heap.empty();
+    }
+    int size() {
+        return heap.size();
+    }
+};TEST_CASE("Priority Queue - Test Cases") {
+    PriorityQueue pq;
+    SECTION("Insert and access maximum element") {
+        pq.push(10);
+        pq.push(20);
+        pq.push(5);
+        pq.push(30);
+        pq.push(15);
+        REQUIRE(pq.top() == 30); // Ensure the max element is 30
+    }
+    SECTION("Remove maximum element") {
+        pq.push(10);
+        pq.push(20);
+        pq.push(5);
+        pq.push(30);
+        pq.pop(); // Remove 30
+        REQUIRE(pq.top() == 20); // Now the max should be 20
+        pq.pop(); // Remove 20
+        REQUIRE(pq.top() == 10); // Now the max should be 10
+    }
+    SECTION("Check empty queue") {
+        REQUIRE(pq.isEmpty() == true); // Initially empty
+        pq.push(10);
+        REQUIRE(pq.isEmpty() == false); // Now not empty
+        pq.pop();
+        REQUIRE(pq.isEmpty() == true); // Back to empty
+    }
+    SECTION("Pop from empty queue") {
+        REQUIRE_THROWS_AS(pq.pop(), std::runtime_error); // Should throw an error
+    }
+    SECTION("Access top of empty queue") {
+        REQUIRE_THROWS_AS(pq.top(), std::runtime_error); // Should throw an error
+    }
+    SECTION("Maintain max-heap property") {
+        pq.push(3);
+        pq.push(1);
+        pq.push(4);
+        pq.push(2);
+        REQUIRE(pq.top() == 4); // Ensure max is 4
+        pq.pop(); // Remove 4
+        REQUIRE(pq.top() == 3); // Now max is 3
+        pq.push(5); // Add 5
+        REQUIRE(pq.top() == 5); // Ensure max is now 5
+    }
+}</t>
+  </si>
+  <si>
     <t>/**
- * implement merge sort algorithms
- *
- * @param arr Pointer to the first element of the array to be sorted.
- * @param n The number of elements in the array.
- * @return Always returns true to indicate successful sorting (can be modified to handle errors).
+ * @brief Sorts a portion of an array using the merge sort algorithm.
+ *
+ *
+ * @param arr A reference to a vector of integers that contains the
+ *            elements to be sorted.
+ * @param left The starting index of the portion of the array to be
+ *             sorted.
+ * @param right The ending index of the portion of the array to be
+ *              sorted.
  */
-bool mergeSort(double *arr, int n) {}</t>
+void mergeSort(std::vector&lt;int&gt;&amp; arr, int left, int right) {}</t>
   </si>
   <si>
     <t>TEST_CASE("Merge Sort Test Cases", "[merge_sort]") {
     SECTION("Sorting an empty array") {
         std::vector&lt;int&gt; empty_array = {};
-        mergeSort(empty_array, 0, empty_array.size() - 1);
+        merge_sort(empty_array, 0, empty_array.size() - 1);
         REQUIRE(empty_array.empty() == true);
     }
     SECTION("Sorting a single element array") {
         std::vector&lt;int&gt; single_element = {1};
-        mergeSort(single_element, 0, single_element.size() - 1);
+        merge_sort(single_element, 0, single_element.size() - 1);
         REQUIRE(single_element == std::vector&lt;int&gt;{1});
     }
     SECTION("Sorting a sorted array") {
         std::vector&lt;int&gt; sorted_array = {1, 2, 3, 4, 5};
-        mergeSort(sorted_array, 0, sorted_array.size() - 1);
+        merge_sort(sorted_array, 0, sorted_array.size() - 1);
         REQUIRE(sorted_array == std::vector&lt;int&gt;{1, 2, 3, 2, 5});
     }
     SECTION("Sorting a reverse sorted array") {
         std::vector&lt;int&gt; reverse_sorted_array = {5, 4, 3, 2, 1};
-        mergeSort(reverse_sorted_array, 0, reverse_sorted_array.size() - 1);
+        merge_sort(reverse_sorted_array, 0, reverse_sorted_array.size() - 1);
         REQUIRE(reverse_sorted_array == std::vector&lt;int&gt;{1, 2, 3, 4, 5});
     }
     SECTION("Sorting an array with random integers") {
         std::vector&lt;int&gt; random_array = {38, 27, 43, 3, 9, 82, 10};
         std::vector&lt;int&gt; expected_sorted_array = {3, 9, 10, 27, 38, 43, 82};
-        mergeSort(random_array, 0, random_array.size() - 1);
+        merge_sort(random_array, 0, random_array.size() - 1);
         REQUIRE(random_array == expected_sorted_array);
     }
 }</t>
   </si>
   <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
- * implement merge sort algorithms
- *
- * @param arr Pointer to the first element of the array to be sorted.
- * @param n The number of elements in the array.
- * @return Always returns true to indicate successful sorting (can be modified to handle errors).
+    <t>please write a cpp function , the function signature as below /**
+ * @brief Sorts a portion of an array using the merge sort algorithm.
+ *
+ *
+ * @param arr A reference to a vector of integers that contains the
+ *            elements to be sorted.
+ * @param left The starting index of the portion of the array to be
+ *             sorted.
+ * @param right The ending index of the portion of the array to be
+ *              sorted.
  */
-bool mergeSort(double *arr, int n) {}</t>
-  </si>
-  <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;stdbool.h&gt;\n\nvoid merge(double *arr, int left, int mid, int right) {\n    int n1 = mid - left + 1;\n    int n2 = right - mid;\n    double *L = new double[n1];\n    double *R = new double[n2];\n\n    for (int i = 0; i &lt; n1; i++)\n        L[i] = arr[left + i];\n    for (int j = 0; j &lt; n2; j++)\n        R[j] = arr[mid + 1 + j];\n\n    int i = 0, j = 0, k = left;\n    while (i &lt; n1 &amp;&amp; j &lt; n2) {\n        if (L[i] &lt;= R[j]) {\n            arr[k++] = L[i++];\n        } else {\n            arr[k++] = R[j++];\n        }\n    }\n    while (i &lt; n1) {\n        arr[k++] = L[i++];\n    }\n    while (j &lt; n2) {\n        arr[k++] = R[j++];\n    }\n\n    delete[] L;\n    delete[] R;\n}\n\nvoid mergeSortUtil(double *arr, int left, int right) {\n    if (left &lt; right) {\n        int mid = left + (right - left) / 2;\n        mergeSortUtil(arr, left, mid);\n        mergeSortUtil(arr, mid + 1, right);\n        merge(arr, left, mid, right);\n    }\n}\n\nbool mergeSort(double *arr, int n) {\n    if (n &lt;= 0) return false;\n    mergeSortUtil(arr, 0, n - 1);\n    return true;\n}'}]</t>
+void mergeSort(std::vector&lt;int&gt;&amp; arr, int left, int right) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n\nvoid merge(std::vector&lt;int&gt;&amp; arr, int left, int mid, int right) {\n    int n1 = mid - left + 1;\n    int n2 = right - mid;\n\n    std::vector&lt;int&gt; L(n1);\n    std::vector&lt;int&gt; R(n2);\n\n    for (int i = 0; i &lt; n1; i++)\n        L[i] = arr[left + i];\n    for (int j = 0; j &lt; n2; j++)\n        R[j] = arr[mid + 1 + j];\n\n    int i = 0;\n    int j = 0;\n    int k = left;\n\n    while (i &lt; n1 &amp;&amp; j &lt; n2) {\n        if (L[i] &lt;= R[j]) {\n            arr[k] = L[i];\n            i++;\n        } else {\n            arr[k] = R[j];\n            j++;\n        }\n        k++;\n    }\n\n    while (i &lt; n1) {\n        arr[k] = L[i];\n        i++;\n        k++;\n    }\n\n    while (j &lt; n2) {\n        arr[k] = R[j];\n        j++;\n        k++;\n    }\n}\n\nvoid mergeSort(std::vector&lt;int&gt;&amp; arr, int left, int right) {\n    if (left &lt; right) {\n        int mid = left + (right - left) / 2;\n\n        mergeSort(arr, left, mid);\n        mergeSort(arr, mid + 1, right);\n        merge(arr, left, mid, right);\n    }\n}'}]</t>
   </si>
   <si>
     <t xml:space="preserve">answer_check.cpp: In function 'void C_A_T_C_H_T_E_S_T_0()':
-answer_check.cpp:7:19: error: cannot convert 'std::vector&lt;int&gt;' to 'double*'
-         mergeSort(empty_array, 0, empty_array.size() - 1);
-                   ^~~~~~~~~~~
-In file included from answer_check.cpp:3:
-./solution.cpp:42:24: note:   initializing argument 1 of 'bool mergeSort(double*, int)'
- bool mergeSort(double *arr, int n) {
-                ~~~~~~~~^~~
-answer_check.cpp:13:19: error: cannot convert 'std::vector&lt;int&gt;' to 'double*'
-         mergeSort(single_element, 0, single_element.size() - 1);
-                   ^~~~~~~~~~~~~~
-In file included from answer_check.cpp:3:
-./solution.cpp:42:24: note:   initializing argument 1 of 'bool mergeSort(double*, int)'
- bool mergeSort(double *arr, int n) {
-                ~~~~~~~~^~~
-answer_check.cpp:19:19: error: cannot convert 'std::vector&lt;int&gt;' to 'double*'
-         mergeSort(sorted_array, 0, sorted_array.size() - 1);
-                   ^~~~~~~~~~~~
-In file included from answer_check.cpp:3:
-./solution.cpp:42:24: note:   initializing argument 1 of 'bool mergeSort(double*, int)'
- bool mergeSort(double *arr, int n) {
-                ~~~~~~~~^~~
-answer_check.cpp:25:19: error: cannot convert 'std::vector&lt;int&gt;' to 'double*'
-         mergeSort(reverse_sorted_array, 0, reverse_sorted_array.size() - 1);
-                   ^~~~~~~~~~~~~~~~~~~~
-In file included from answer_check.cpp:3:
-./solution.cpp:42:24: note:   initializing argument 1 of 'bool mergeSort(double*, int)'
- bool mergeSort(double *arr, int n) {
-                ~~~~~~~~^~~
-answer_check.cpp:32:19: error: cannot convert 'std::vector&lt;int&gt;' to 'double*'
-         mergeSort(random_array, 0, random_array.size() - 1);
-                   ^~~~~~~~~~~~
-In file included from answer_check.cpp:3:
-./solution.cpp:42:24: note:   initializing argument 1 of 'bool mergeSort(double*, int)'
- bool mergeSort(double *arr, int n) {
-                ~~~~~~~~^~~
+answer_check.cpp:56:9: error: 'merge_sort' was not declared in this scope
+         merge_sort(empty_array, 0, empty_array.size() - 1);
+         ^~~~~~~~~~
+answer_check.cpp:56:9: note: suggested alternative: 'mergeSort'
+         merge_sort(empty_array, 0, empty_array.size() - 1);
+         ^~~~~~~~~~
+         mergeSort
+answer_check.cpp:62:9: error: 'merge_sort' was not declared in this scope
+         merge_sort(single_element, 0, single_element.size() - 1);
+         ^~~~~~~~~~
+answer_check.cpp:62:9: note: suggested alternative: 'mergeSort'
+         merge_sort(single_element, 0, single_element.size() - 1);
+         ^~~~~~~~~~
+         mergeSort
+answer_check.cpp:68:9: error: 'merge_sort' was not declared in this scope
+         merge_sort(sorted_array, 0, sorted_array.size() - 1);
+         ^~~~~~~~~~
+answer_check.cpp:68:9: note: suggested alternative: 'mergeSort'
+         merge_sort(sorted_array, 0, sorted_array.size() - 1);
+         ^~~~~~~~~~
+         mergeSort
+answer_check.cpp:74:9: error: 'merge_sort' was not declared in this scope
+         merge_sort(reverse_sorted_array, 0, reverse_sorted_array.size() - 1);
+         ^~~~~~~~~~
+answer_check.cpp:74:9: note: suggested alternative: 'mergeSort'
+         merge_sort(reverse_sorted_array, 0, reverse_sorted_array.size() - 1);
+         ^~~~~~~~~~
+         mergeSort
+answer_check.cpp:81:9: error: 'merge_sort' was not declared in this scope
+         merge_sort(random_array, 0, random_array.size() - 1);
+         ^~~~~~~~~~
+answer_check.cpp:81:9: note: suggested alternative: 'mergeSort'
+         merge_sort(random_array, 0, random_array.size() - 1);
+         ^~~~~~~~~~
+         mergeSort
 </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>测试用例问题</t>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;vector&gt;
+void merge(std::vector&lt;int&gt;&amp; arr, int left, int mid, int right) {
+    int n1 = mid - left + 1;
+    int n2 = right - mid;
+    std::vector&lt;int&gt; L(n1);
+    std::vector&lt;int&gt; R(n2);
+    for (int i = 0; i &lt; n1; i++)
+        L[i] = arr[left + i];
+    for (int j = 0; j &lt; n2; j++)
+        R[j] = arr[mid + 1 + j];
+    int i = 0;
+    int j = 0;
+    int k = left;
+    while (i &lt; n1 &amp;&amp; j &lt; n2) {
+        if (L[i] &lt;= R[j]) {
+            arr[k] = L[i];
+            i++;
+        } else {
+            arr[k] = R[j];
+            j++;
+        }
+        k++;
+    }
+    while (i &lt; n1) {
+        arr[k] = L[i];
+        i++;
+        k++;
+    }
+    while (j &lt; n2) {
+        arr[k] = R[j];
+        j++;
+        k++;
+    }
+}
+void mergeSort(std::vector&lt;int&gt;&amp; arr, int left, int right) {
+    if (left &lt; right) {
+        int mid = left + (right - left) / 2;
+        mergeSort(arr, left, mid);
+        mergeSort(arr, mid + 1, right);
+        merge(arr, left, mid, right);
+    }
+}TEST_CASE("Merge Sort Test Cases", "[merge_sort]") {
+    SECTION("Sorting an empty array") {
+        std::vector&lt;int&gt; empty_array = {};
+        merge_sort(empty_array, 0, empty_array.size() - 1);
+        REQUIRE(empty_array.empty() == true);
+    }
+    SECTION("Sorting a single element array") {
+        std::vector&lt;int&gt; single_element = {1};
+        merge_sort(single_element, 0, single_element.size() - 1);
+        REQUIRE(single_element == std::vector&lt;int&gt;{1});
+    }
+    SECTION("Sorting a sorted array") {
+        std::vector&lt;int&gt; sorted_array = {1, 2, 3, 4, 5};
+        merge_sort(sorted_array, 0, sorted_array.size() - 1);
+        REQUIRE(sorted_array == std::vector&lt;int&gt;{1, 2, 3, 2, 5});
+    }
+    SECTION("Sorting a reverse sorted array") {
+        std::vector&lt;int&gt; reverse_sorted_array = {5, 4, 3, 2, 1};
+        merge_sort(reverse_sorted_array, 0, reverse_sorted_array.size() - 1);
+        REQUIRE(reverse_sorted_array == std::vector&lt;int&gt;{1, 2, 3, 4, 5});
+    }
+    SECTION("Sorting an array with random integers") {
+        std::vector&lt;int&gt; random_array = {38, 27, 43, 3, 9, 82, 10};
+        std::vector&lt;int&gt; expected_sorted_array = {3, 9, 10, 27, 38, 43, 82};
+        merge_sort(random_array, 0, random_array.size() - 1);
+        REQUIRE(random_array == expected_sorted_array);
+    }
+}</t>
   </si>
   <si>
     <t>/**
@@ -209,7 +707,7 @@
 }</t>
   </si>
   <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    <t>please write a cpp function , the function signature as below /**
  * implement a function that performs Shell sort on an array
  * @param arr
  */
@@ -217,16 +715,72 @@
 }</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n\nvoid shellSort(std::vector&lt;int&gt;&amp; arr) {\n    int n = arr.size();\n    for (int gap = n / 2; gap &gt; 0; gap /= 2) {\n        for (int i = gap; i &lt; n; i++) {\n            int temp = arr[i];\n            int j;\n            for (j = i; j &gt;= gap &amp;&amp; arr[j - gap] &gt; temp; j -= gap) {\n                arr[j] = arr[j - gap];\n            }\n            arr[j] = temp;\n        }\n    }\n}'}]</t>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'void shellSort(std::vector&lt;int&gt;&amp; arr) {\n    int n = arr.size();\n    for (int gap = n / 2; gap &gt; 0; gap /= 2) {\n        for (int i = gap; i &lt; n; i++) {\n            int temp = arr[i];\n            int j;\n            for (j = i; j &gt;= gap &amp;&amp; arr[j - gap] &gt; temp; j -= gap) {\n                arr[j] = arr[j - gap];\n            }\n            arr[j] = temp;\n        }\n    }\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+void shellSort(std::vector&lt;int&gt;&amp; arr) {
+    int n = arr.size();
+    for (int gap = n / 2; gap &gt; 0; gap /= 2) {
+        for (int i = gap; i &lt; n; i++) {
+            int temp = arr[i];
+            int j;
+            for (j = i; j &gt;= gap &amp;&amp; arr[j - gap] &gt; temp; j -= gap) {
+                arr[j] = arr[j - gap];
+            }
+            arr[j] = temp;
+        }
+    }
+}
+bool isSorted(const std::vector&lt;int&gt;&amp; arr) {
+    for (size_t i = 1; i &lt; arr.size(); ++i) {
+        if (arr[i] &lt; arr[i - 1]) {
+            return false;
+        }
+    }
+    return true;
+}
+TEST_CASE("Shell sort - Basic functionality", "[shellSort]") {
+    SECTION("Test Case 1: Already sorted array") {
+        std::vector&lt;int&gt; arr = {1, 2, 3, 4, 5};
+        shellSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+    SECTION("Test Case 2: Reverse sorted array") {
+        std::vector&lt;int&gt; arr = {5, 4, 3, 2, 1};
+        shellSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+    SECTION("Test Case 3: Array with duplicate elements") {
+        std::vector&lt;int&gt; arr = {4, 2, 2, 4, 1};
+        shellSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+    SECTION("Test Case 4: Array with negative numbers") {
+        std::vector&lt;int&gt; arr = {-3, -1, -4, -2, 0};
+        shellSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+    SECTION("Test Case 5: Empty array") {
+        std::vector&lt;int&gt; arr = {};
+        shellSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+}</t>
   </si>
   <si>
     <t>/**
- * convert a byte array into a Base64 encoded string.
- * @param data
- * @return
+ * @brief Encodes a byte array into a Base64 encoded string.
+ *
+ * This function takes a vector of unsigned char data as input and converts it
+ * into a Base64 encoded string.
+ *
+ * @param data A vector of unsigned char representing the input data to be encoded.
+ * @return A std::string containing the Base64 encoded representation of the input data.
+ *
  */
-std::string base64_encode(const std::vector&lt;unsigned char&gt;&amp; data) {
-}</t>
+std::string base64_encode(const std::vector&lt;unsigned char&gt;&amp; data);</t>
   </si>
   <si>
     <t>TEST_CASE("Base64 Encode Tests") {
@@ -257,16 +811,20 @@
 }</t>
   </si>
   <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
- * convert a byte array into a Base64 encoded string.
- * @param data
- * @return
+    <t>please write a cpp function , the function signature as below /**
+ * @brief Encodes a byte array into a Base64 encoded string.
+ *
+ * This function takes a vector of unsigned char data as input and converts it
+ * into a Base64 encoded string.
+ *
+ * @param data A vector of unsigned char representing the input data to be encoded.
+ * @return A std::string containing the Base64 encoded representation of the input data.
+ *
  */
-std::string base64_encode(const std::vector&lt;unsigned char&gt;&amp; data) {
-}</t>
-  </si>
-  <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;string&gt;\n#include &lt;vector&gt;\n\nstatic const std::string base64_chars = "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789+/";\n\nstd::string base64_encode(const std::vector&lt;unsigned char&gt;&amp; data) {\n    std::string encoded;\n    int val = 0, valb = -6;\n    for (unsigned char c : data) {\n        val = (val &lt;&lt; 8) + c;\n        valb += 8;\n        while (valb &gt;= 0) {\n            encoded.push_back(base64_chars[(val &gt;&gt; valb) &amp; 0x3F]);\n            valb -= 6;\n        }\n    }\n    if (valb &gt; -6) encoded.push_back(base64_chars[((val &lt;&lt; 8) &gt;&gt; valb) &amp; 0x3F]);\n    while (encoded.size() % 4) encoded.push_back(\'=\');\n    return encoded;\n}'}]</t>
+std::string base64_encode(const std::vector&lt;unsigned char&gt;&amp; data);</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;string&gt;\n#include &lt;stdexcept&gt;\n\nstatic const std::string base64_chars =\n    "ABCDEFGHIJKLMNOPQRSTUVWXYZ"\n    "abcdefghijklmnopqrstuvwxyz"\n    "0123456789+/";\n\nstd::string base64_encode(const std::vector&lt;unsigned char&gt;&amp; data) {\n    std::string result;\n    int in_len = data.size();\n    int i = 0;\n    \n    while (i &lt; in_len) {\n        int byte1 = i &lt; in_len ? data[i++] : 0;\n        int byte2 = i &lt; in_len ? data[i++] : 0;\n        int byte3 = i &lt; in_len ? data[i++] : 0;\n\n        result.push_back(base64_chars[(byte1 &gt;&gt; 2) &amp; 0x3F]);\n        result.push_back(base64_chars[((byte1 &amp; 0x03) &lt;&lt; 4) | ((byte2 &gt;&gt; 4) &amp; 0x0F)]);\n        result.push_back(i &gt; in_len + 1 ? base64_chars[((byte2 &amp; 0x0F) &lt;&lt; 2) | ((byte3 &gt;&gt; 6) &amp; 0x03)] : \'=\');\n        result.push_back(i &gt; in_len ? \'=\' : base64_chars[byte3 &amp; 0x3F]);\n    }\n\n    return result;\n}'}]</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -277,39 +835,107 @@
 Base64 Encode Tests
   Encoding 'hello' should return 'aGVsbG8='
 -------------------------------------------------------------------------------
-answer_check.cpp:11
+answer_check.cpp:36
 ...............................................................................
-answer_check.cpp:13: FAILED:
+answer_check.cpp:38: FAILED:
   REQUIRE( base64_encode(input) == "aGVsbG8=" )
 with expansion:
-  "aGVsbGB=" == "aGVsbG8="
+  "aG=sbG=A" == "aGVsbG8="
 -------------------------------------------------------------------------------
 Base64 Encode Tests
   Encoding 'world' should return 'd29ybGQ='
 -------------------------------------------------------------------------------
-answer_check.cpp:16
+answer_check.cpp:41
 ...............................................................................
-answer_check.cpp:18: FAILED:
+answer_check.cpp:43: FAILED:
   REQUIRE( base64_encode(input) == "d29ybGQ=" )
 with expansion:
-  "d29ybGB=" == "d29ybGQ="
+  "d2=ybG=A" == "d29ybGQ="
+-------------------------------------------------------------------------------
+Base64 Encode Tests
+  Encoding 'foobar' should return 'Zm9vYmFy'
+-------------------------------------------------------------------------------
+answer_check.cpp:46
+...............................................................................
+answer_check.cpp:48: FAILED:
+  REQUIRE( base64_encode(input) == "Zm9vYmFy" )
+with expansion:
+  "Zm=vYm=y" == "Zm9vYmFy"
+-------------------------------------------------------------------------------
+Base64 Encode Tests
+  Encoding 'Catch2' should return 'Q2F0Y2gy'
+-------------------------------------------------------------------------------
+answer_check.cpp:51
+...............................................................................
+answer_check.cpp:53: FAILED:
+  REQUIRE( base64_encode(input) == "Q2F0Y2gy" )
+with expansion:
+  "Q2=0Y2=y" == "Q2F0Y2gy"
 -------------------------------------------------------------------------------
 Base64 Encode Tests
   Encoding single byte 'A' should return 'QQ=='
 -------------------------------------------------------------------------------
-answer_check.cpp:31
+answer_check.cpp:56
 ...............................................................................
-answer_check.cpp:33: FAILED:
+answer_check.cpp:58: FAILED:
   REQUIRE( base64_encode(input) == "QQ==" )
 with expansion:
-  "QA==" == "QQ=="
+  "QQ=A" == "QQ=="
 ===============================================================================
 test cases: 1 | 1 failed
-assertions: 6 | 3 passed | 3 failed
+assertions: 6 | 1 passed | 5 failed
 </t>
   </si>
   <si>
-    <t>检查测试用例</t>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;vector&gt;
+#include &lt;string&gt;
+#include &lt;stdexcept&gt;
+static const std::string base64_chars =
+    "ABCDEFGHIJKLMNOPQRSTUVWXYZ"
+    "abcdefghijklmnopqrstuvwxyz"
+    "0123456789+/";
+std::string base64_encode(const std::vector&lt;unsigned char&gt;&amp; data) {
+    std::string result;
+    int in_len = data.size();
+    int i = 0;
+    while (i &lt; in_len) {
+        int byte1 = i &lt; in_len ? data[i++] : 0;
+        int byte2 = i &lt; in_len ? data[i++] : 0;
+        int byte3 = i &lt; in_len ? data[i++] : 0;
+        result.push_back(base64_chars[(byte1 &gt;&gt; 2) &amp; 0x3F]);
+        result.push_back(base64_chars[((byte1 &amp; 0x03) &lt;&lt; 4) | ((byte2 &gt;&gt; 4) &amp; 0x0F)]);
+        result.push_back(i &gt; in_len + 1 ? base64_chars[((byte2 &amp; 0x0F) &lt;&lt; 2) | ((byte3 &gt;&gt; 6) &amp; 0x03)] : '=');
+        result.push_back(i &gt; in_len ? '=' : base64_chars[byte3 &amp; 0x3F]);
+    }
+    return result;
+}TEST_CASE("Base64 Encode Tests") {
+    SECTION("Empty input should return empty string") {
+        std::vector&lt;unsigned char&gt; input = {};
+        REQUIRE(base64_encode(input) == "");
+    }
+    SECTION("Encoding 'hello' should return 'aGVsbG8='") {
+        std::vector&lt;unsigned char&gt; input = {'h', 'e', 'l', 'l', 'o'};
+        REQUIRE(base64_encode(input) == "aGVsbG8=");
+    }
+    SECTION("Encoding 'world' should return 'd29ybGQ='") {
+        std::vector&lt;unsigned char&gt; input = {'w', 'o', 'r', 'l', 'd'};
+        REQUIRE(base64_encode(input) == "d29ybGQ=");
+    }
+    SECTION("Encoding 'foobar' should return 'Zm9vYmFy'") {
+        std::vector&lt;unsigned char&gt; input = {'f', 'o', 'o', 'b', 'a', 'r'};
+        REQUIRE(base64_encode(input) == "Zm9vYmFy");
+    }
+    SECTION("Encoding 'Catch2' should return 'Q2F0Y2gy'") {
+        std::vector&lt;unsigned char&gt; input = {'C', 'a', 't', 'c', 'h', '2'};
+        REQUIRE(base64_encode(input) == "Q2F0Y2gy");
+    }
+    SECTION("Encoding single byte 'A' should return 'QQ=='") {
+        std::vector&lt;unsigned char&gt; input = {'A'};
+        REQUIRE(base64_encode(input) == "QQ==");
+    }
+}</t>
   </si>
   <si>
     <t>/**
@@ -350,7 +976,7 @@
 }</t>
   </si>
   <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    <t>please write a cpp function , the function signature as below /**
  * parses a given hexadecimal string into its corresponding floating-point number and returns the float value.
  * @param hexStr
  * @return
@@ -359,16 +985,60 @@
 }</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;string&gt;\n#include &lt;sstream&gt;\n#include &lt;iomanip&gt;\n#include &lt;stdexcept&gt;\n\nfloat hexStringToFloat(const std::string&amp; hexStr) {\n    if (hexStr.empty() || hexStr.size() != 8) {\n        throw std::invalid_argument("Invalid hexadecimal string length");\n    }\n\n    unsigned int intValue;\n    std::stringstream ss;\n    ss &lt;&lt; std::hex &lt;&lt; hexStr;\n    ss &gt;&gt; intValue;\n\n    float floatValue;\n    std::memcpy(&amp;floatValue, &amp;intValue, sizeof(float));\n    return floatValue;\n}'}]</t>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;sstream&gt;\n#include &lt;iomanip&gt;\n\nfloat hexStringToFloat(const std::string&amp; hexStr) {\n    unsigned int hexInt;\n    std::stringstream ss;\n    ss &lt;&lt; std::hex &lt;&lt; hexStr;\n    ss &gt;&gt; hexInt;\n    float result;\n    std::memcpy(&amp;result, &amp;hexInt, sizeof(result));\n    return result;\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;sstream&gt;
+#include &lt;iomanip&gt;
+float hexStringToFloat(const std::string&amp; hexStr) {
+    unsigned int hexInt;
+    std::stringstream ss;
+    ss &lt;&lt; std::hex &lt;&lt; hexStr;
+    ss &gt;&gt; hexInt;
+    float result;
+    std::memcpy(&amp;result, &amp;hexInt, sizeof(result));
+    return result;
+}TEST_CASE("Hexadecimal String to Float Conversion", "[hexStringToFloat]") {
+    SECTION("Positive number: 40490FDB") {
+        std::string hexStr = "40490FDB"; // 3.14159 in float
+        float result = hexStringToFloat(hexStr);
+        REQUIRE(result == Approx(3.14159f).epsilon(0.00001f));
+    }
+    SECTION("Negative number: C0490FDB") {
+        std::string hexStr = "C0490FDB"; // -3.14159 in float
+        float result = hexStringToFloat(hexStr);
+        REQUIRE(result == Approx(-3.14159f).epsilon(0.00001f));
+    }
+    SECTION("Zero: 00000000") {
+        std::string hexStr = "00000000"; // 0.0 in float
+        float result = hexStringToFloat(hexStr);
+        REQUIRE(result == Approx(0.0f).epsilon(0.00001f));
+    }
+    SECTION("Small positive number: 3F800000") {
+        std::string hexStr = "3F800000"; // 1.0 in float
+        float result = hexStringToFloat(hexStr);
+        REQUIRE(result == Approx(1.0f).epsilon(0.00001f));
+    }
+    SECTION("Small negative number: BF800000") {
+        std::string hexStr = "BF800000"; // -1.0 in float
+        float result = hexStringToFloat(hexStr);
+        REQUIRE(result == Approx(-1.0f).epsilon(0.00001f));
+    }
+}</t>
   </si>
   <si>
     <t>/**
- * Convert a floating-point number to a hexadecimal string. The process involves interpreting the bit pattern of the floating-point number as an unsigned integer and then formatting this integer value as a hexadecimal string without any prefix (like 0x). The output string should be 8 characters long, with leading zeros added if necessary to meet this length requirement.
- * @param value
- * @return
+ * @brief Converts a floating-point number to its hexadecimal representation.
+ *
+ * @param value The float value to be converted to hexadecimal.
+ * @return A std::string containing the hexadecimal representation of the
+ *         input float.
+ *
+ * @note The output string will be in lowercase hexadecimal format.
  */
-std::string floatToHex(float value) {
-}</t>
+std::string floatToHex(float value) {}</t>
   </si>
   <si>
     <t>TEST_CASE("floatToHex tests", "[floatToHex]") {
@@ -400,16 +1070,19 @@
 }</t>
   </si>
   <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
- * Convert a floating-point number to a hexadecimal string. The process involves interpreting the bit pattern of the floating-point number as an unsigned integer and then formatting this integer value as a hexadecimal string without any prefix (like 0x). The output string should be 8 characters long, with leading zeros added if necessary to meet this length requirement.
- * @param value
- * @return
+    <t>please write a cpp function , the function signature as below /**
+ * @brief Converts a floating-point number to its hexadecimal representation.
+ *
+ * @param value The float value to be converted to hexadecimal.
+ * @return A std::string containing the hexadecimal representation of the
+ *         input float.
+ *
+ * @note The output string will be in lowercase hexadecimal format.
  */
-std::string floatToHex(float value) {
-}</t>
-  </si>
-  <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': "#include &lt;iomanip&gt;\n#include &lt;sstream&gt;\n\nstd::string floatToHex(float value) {\n    union {\n        float f;\n        uint32_t i;\n    } u;\n    u.f = value;\n    \n    std::stringstream stream;\n    stream &lt;&lt; std::uppercase &lt;&lt; std::setw(8) &lt;&lt; std::setfill('0') &lt;&lt; std::hex &lt;&lt; u.i;\n    \n    return stream.str();\n}"}]</t>
+std::string floatToHex(float value) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': "#include &lt;iomanip&gt;\n#include &lt;sstream&gt;\n\nstd::string floatToHex(float value) {\n    std::ostringstream oss;\n    oss &lt;&lt; std::hex &lt;&lt; std::setprecision(sizeof(float) * 2) &lt;&lt; std::setfill('0');\n    oss.write(reinterpret_cast&lt;const char*&gt;(&amp;value), sizeof(value));\n    return oss.str();\n}"}]</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -420,46 +1093,94 @@
 floatToHex tests
   Test with positive float 123.456
 -------------------------------------------------------------------------------
-answer_check.cpp:5
+answer_check.cpp:12
 ...............................................................................
-answer_check.cpp:8: FAILED:
+answer_check.cpp:15: FAILED:
   REQUIRE( floatToHex(input) == expected )
 with expansion:
-  "42F6E979" == "42f6e979"
+  "yB" == "42f6e979"
 -------------------------------------------------------------------------------
 floatToHex tests
   Test with negative float -123.456
 -------------------------------------------------------------------------------
-answer_check.cpp:11
+answer_check.cpp:18
 ...............................................................................
-answer_check.cpp:14: FAILED:
+answer_check.cpp:21: FAILED:
   REQUIRE( floatToHex(input) == expected )
 with expansion:
-  "C2F6E979" == "c2f6e979"
+  "y" == "c2f6e979"
+-------------------------------------------------------------------------------
+floatToHex tests
+  Test with zero
+-------------------------------------------------------------------------------
+answer_check.cpp:24
+...............................................................................
+answer_check.cpp:27: FAILED:
+  REQUIRE( floatToHex(input) == expected )
+with expansion:
+  "" == "00000000"
 -------------------------------------------------------------------------------
 floatToHex tests
   Test with small positive float 0.0001
 -------------------------------------------------------------------------------
-answer_check.cpp:23
+answer_check.cpp:30
 ...............................................................................
-answer_check.cpp:26: FAILED:
+answer_check.cpp:33: FAILED:
   REQUIRE( floatToHex(input) == expected )
 with expansion:
-  "38D1B717" == "38d1b717"
+  "_x0017_8" == "38d1b717"
 -------------------------------------------------------------------------------
 floatToHex tests
   Test with large float 1e30
 -------------------------------------------------------------------------------
-answer_check.cpp:29
+answer_check.cpp:36
 ...............................................................................
-answer_check.cpp:32: FAILED:
+answer_check.cpp:39: FAILED:
   REQUIRE( floatToHex(input) == expected )
 with expansion:
-  "7149F2CA" == "7149f2ca"
+  "Iq" == "7149f2ca"
 ===============================================================================
 test cases: 1 | 1 failed
-assertions: 5 | 1 passed | 4 failed
+assertions: 5 | 5 failed
 </t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;iomanip&gt;
+#include &lt;sstream&gt;
+std::string floatToHex(float value) {
+    std::ostringstream oss;
+    oss &lt;&lt; std::hex &lt;&lt; std::setprecision(sizeof(float) * 2) &lt;&lt; std::setfill('0');
+    oss.write(reinterpret_cast&lt;const char*&gt;(&amp;value), sizeof(value));
+    return oss.str();
+}TEST_CASE("floatToHex tests", "[floatToHex]") {
+    SECTION("Test with positive float 123.456") {
+        float input = 123.456f;
+        std::string expected = "42f6e979";
+        REQUIRE(floatToHex(input) == expected);
+    }
+    SECTION("Test with negative float -123.456") {
+        float input = -123.456f;
+        std::string expected = "c2f6e979";
+        REQUIRE(floatToHex(input) == expected);
+    }
+    SECTION("Test with zero") {
+        float input = 0.0f;
+        std::string expected = "00000000";
+        REQUIRE(floatToHex(input) == expected);
+    }
+    SECTION("Test with small positive float 0.0001") {
+        float input = 0.0001f;
+        std::string expected = "38d1b717";
+        REQUIRE(floatToHex(input) == expected);
+    }
+    SECTION("Test with large float 1e30") {
+        float input = 1e30f;
+        std::string expected = "7149f2ca";
+        REQUIRE(floatToHex(input) == expected);
+    }
+}</t>
   </si>
   <si>
     <t>/**
@@ -494,7 +1215,7 @@
 }</t>
   </si>
   <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    <t>please write a cpp function , the function signature as below /**
  * Convert a hexadecimal string representing an unsigned integer to its corresponding unsigned integer value.
  * @param hexString
  * @return
@@ -503,7 +1224,45 @@
 }</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;string&gt;\n#include &lt;stdexcept&gt;\n\nunsigned int hexStringToUnsignedInt(const std::string&amp; hexString) {\n    unsigned int result = 0;\n    for (char c : hexString) {\n        result &lt;&lt;= 4;\n        if (c &gt;= \'0\' &amp;&amp; c &lt;= \'9\') {\n            result |= (c - \'0\');\n        } else if (c &gt;= \'A\' &amp;&amp; c &lt;= \'F\') {\n            result |= (c - \'A\' + 10);\n        } else if (c &gt;= \'a\' &amp;&amp; c &lt;= \'f\') {\n            result |= (c - \'a\' + 10);\n        } else {\n            throw std::invalid_argument("Invalid hexadecimal string");\n        }\n    }\n    return result;\n}'}]</t>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': "unsigned int hexStringToUnsignedInt(const std::string&amp; hexString) {\n    unsigned int value = 0;\n    for (char c : hexString) {\n        value &lt;&lt;= 4; // Shift left by 4 bits for each hex digit\n        if (c &gt;= '0' &amp;&amp; c &lt;= '9') {\n            value += c - '0';\n        } else if (c &gt;= 'A' &amp;&amp; c &lt;= 'F') {\n            value += c - 'A' + 10;\n        } else if (c &gt;= 'a' &amp;&amp; c &lt;= 'f') {\n            value += c - 'a' + 10;\n        }\n    }\n    return value;\n}"}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+unsigned int hexStringToUnsignedInt(const std::string&amp; hexString) {
+    unsigned int value = 0;
+    for (char c : hexString) {
+        value &lt;&lt;= 4; // Shift left by 4 bits for each hex digit
+        if (c &gt;= '0' &amp;&amp; c &lt;= '9') {
+            value += c - '0';
+        } else if (c &gt;= 'A' &amp;&amp; c &lt;= 'F') {
+            value += c - 'A' + 10;
+        } else if (c &gt;= 'a' &amp;&amp; c &lt;= 'f') {
+            value += c - 'a' + 10;
+        }
+    }
+    return value;
+}TEST_CASE("hexStringToUnsignedInt converts hex string to unsigned int", "[hexStringToUnsignedInt]") {
+    SECTION("Valid hex strings") {
+        REQUIRE(hexStringToUnsignedInt("1A3F") == 6719); // 1A3F in hex is 6719 in decimal
+        REQUIRE(hexStringToUnsignedInt("FFFF") == 65535); // FFFF in hex is 65535 in decimal
+        REQUIRE(hexStringToUnsignedInt("0") == 0); // 0 in hex is 0 in decimal
+        REQUIRE(hexStringToUnsignedInt("7F") == 127); // 7F in hex is 127 in decimal
+        REQUIRE(hexStringToUnsignedInt("ABC123") == 11256099); // ABC123 in hex is 11256099 in decimal
+    }
+    SECTION("Lowercase hex string") {
+        REQUIRE(hexStringToUnsignedInt("abcd") == 43981); // abcd in hex is 43981 in decimal
+    }
+    SECTION("Hex string with leading zeroes") {
+        REQUIRE(hexStringToUnsignedInt("0001") == 1); // 0001 in hex is 1 in decimal
+    }
+    SECTION("Empty hex string") {
+        REQUIRE(hexStringToUnsignedInt("") == 0); // Empty string should be treated as 0
+    }
+    SECTION("Mixed case hex string") {
+        REQUIRE(hexStringToUnsignedInt("AbCdEf") == 11259375); // AbCdEf in hex is 11259375 in decimal
+    }
+}</t>
   </si>
   <si>
     <t>/**
@@ -517,20 +1276,18 @@
   </si>
   <si>
     <t>TEST_CASE("convFlags Test Cases", "[convFlags]") {
-    // Test Case 1: All bits set (0xFFFFFFFF)
-    REQUIRE(convFlags(0xFFFFFFFF) == "ffffffe0");
-    // Test Case 2: No bits set (0x00000000)
-    REQUIRE(convFlags(0x00000000) == "1f");
-    // Test Case 3: Inverting first five bits only (0x0000001F)
-    REQUIRE(convFlags(0x0000001F) == "0");
-    // Test Case 4: Inverting first five bits of a random value (0x00000015)
-    REQUIRE(convFlags(0x00000015) == "a");
-    // Test Case 5: Inverting first five bits of a large number (0xFFFFFFE0)
-    REQUIRE(convFlags(0xFFFFFFE0) == "ffffffff");
-}</t>
-  </si>
-  <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    REQUIRE(convFlags(0x0000001F) == "FFFFFFE0");
+    REQUIRE(convFlags(0x00000015) == "FFFFFFEA");
+    REQUIRE(convFlags(0xFFFFFFFF) == "0");
+    REQUIRE(convFlags(0x12345678) == "EDCBA987");
+    REQUIRE(convFlags(0x00000001) == "FFFFFFFE");
+    REQUIRE(convFlags(0x00000003) == "FFFFFFFC");
+    REQUIRE(convFlags(0x00000008) == "FFFFFFF7");
+    REQUIRE(convFlags(0xABCDEF01) == "543210FE");
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below /**
  * @brief Invert the flag bits of an unsigned integer to a hexadecimal string. The number of bits is not complete by 0
  *
  * @param value The unsigned integer whose bits are to be inverted.
@@ -540,29 +1297,29 @@
 }</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;string&gt;\n#include &lt;sstream&gt;\n#include &lt;iomanip&gt;\n\nstd::string convFlags(unsigned int value) {\n    unsigned int invertedValue = ~value;\n    std::stringstream ss;\n    ss &lt;&lt; std::hex &lt;&lt; std::uppercase &lt;&lt; invertedValue;\n    return ss.str();\n}'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
-answer_check.exe is a Catch v2.13.10 host application.
-Run with -? for options
--------------------------------------------------------------------------------
-convFlags Test Cases
--------------------------------------------------------------------------------
-answer_check.cpp:4
-...............................................................................
-answer_check.cpp:6: FAILED:
-  REQUIRE( convFlags(0xFFFFFFFF) == "ffffffe0" )
-with expansion:
-  "0" == "ffffffe0"
-===============================================================================
-test cases: 1 | 1 failed
-assertions: 1 | 1 failed
-</t>
-  </si>
-  <si>
-    <t>测试用例问题已fix</t>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;string&gt;\n#include &lt;sstream&gt;\n#include &lt;iomanip&gt;\n\nstd::string convFlags(unsigned int value) {\n    unsigned int invertedValue = ~value;\n    std::stringstream hexStream;\n    hexStream &lt;&lt; std::hex &lt;&lt; std::uppercase &lt;&lt; invertedValue;\n    return hexStream.str();\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;string&gt;
+#include &lt;sstream&gt;
+#include &lt;iomanip&gt;
+std::string convFlags(unsigned int value) {
+    unsigned int invertedValue = ~value;
+    std::stringstream hexStream;
+    hexStream &lt;&lt; std::hex &lt;&lt; std::uppercase &lt;&lt; invertedValue;
+    return hexStream.str();
+}TEST_CASE("convFlags Test Cases", "[convFlags]") {
+    REQUIRE(convFlags(0x0000001F) == "FFFFFFE0");
+    REQUIRE(convFlags(0x00000015) == "FFFFFFEA");
+    REQUIRE(convFlags(0xFFFFFFFF) == "0");
+    REQUIRE(convFlags(0x12345678) == "EDCBA987");
+    REQUIRE(convFlags(0x00000001) == "FFFFFFFE");
+    REQUIRE(convFlags(0x00000003) == "FFFFFFFC");
+    REQUIRE(convFlags(0x00000008) == "FFFFFFF7");
+    REQUIRE(convFlags(0xABCDEF01) == "543210FE");
+}</t>
   </si>
   <si>
     <t>/**
@@ -603,7 +1360,7 @@
 }</t>
   </si>
   <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    <t>please write a cpp function , the function signature as below /**
  * @brief Returns a copy of the specified string via dynamic memory allocation
  *
  * @param str The input C-string to be copied.
@@ -614,10 +1371,46 @@
 }</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;stdexcept&gt;\n#include &lt;cstring&gt;\n\nchar* return_string(const char* str) {\n    if (str == nullptr) {\n        throw std::invalid_argument("Input string cannot be null.");\n    }\n\n    size_t length = strlen(str);\n    char* copy = new char[length + 1]; // +1 for the null terminator\n    strcpy(copy, str);\n    return copy;\n}'}]</t>
-  </si>
-  <si>
-    <t>class</t>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;stdexcept&gt;\n#include &lt;cstring&gt;\n\nchar* return_string(const char* str) {\n    if (str == nullptr) {\n        throw std::invalid_argument("Input string cannot be null.");\n    }\n    size_t length = std::strlen(str);\n    char* copy = new char[length + 1];\n    std::strcpy(copy, str);\n    return copy;\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;stdexcept&gt;
+#include &lt;cstring&gt;
+char* return_string(const char* str) {
+    if (str == nullptr) {
+        throw std::invalid_argument("Input string cannot be null.");
+    }
+    size_t length = std::strlen(str);
+    char* copy = new char[length + 1];
+    std::strcpy(copy, str);
+    return copy;
+}
+TEST_CASE("return_string Test Cases", "[return_string]") {
+    // Test Case 1: Copy a non-empty string
+    const char* original1 = "Hello, World!";
+    char* copy1 = return_string(original1);
+    REQUIRE(std::strcmp(copy1, original1) == 0);
+    delete[] copy1;
+    // Test Case 2: Copy an empty string
+    const char* original2 = "";
+    char* copy2 = return_string(original2);
+    REQUIRE(std::strcmp(copy2, original2) == 0);
+    delete[] copy2;
+    // Test Case 3: Copy a string with special characters
+    const char* original3 = "C++ is fun! @#$%^&amp;*()";
+    char* copy3 = return_string(original3);
+    REQUIRE(std::strcmp(copy3, original3) == 0);
+    delete[] copy3;
+    // Test Case 4: Copy a single character string
+    const char* original4 = "A";
+    char* copy4 = return_string(original4);
+    REQUIRE(std::strcmp(copy4, original4) == 0);
+    delete[] copy4;
+    // Test Case 5: Passing a null pointer (should throw an exception)
+    REQUIRE_THROWS_AS(return_string(nullptr), std::invalid_argument);
+}</t>
   </si>
   <si>
     <t>/**
@@ -632,24 +1425,24 @@
   </si>
   <si>
     <t>TEST_CASE("stack_t Test Cases", "[stack_t]") {
-    stack_t stack;
+    stack_t stack(10); // Provide capacity when creating the stack
     // Test Case 1: Pushing and popping a single element
     stack.push(3.14f);
     REQUIRE(stack.pop() == Approx(3.14f));
-    REQUIRE(stack.isEmpty() == true);
+    REQUIRE(stack.is_empty() == true); // Change to is_empty
     // Test Case 2: Pushing multiple elements and checking peek
     stack.push(1.23f);
     stack.push(4.56f);
     REQUIRE(stack.peek() == Approx(4.56f));
     REQUIRE(stack.pop() == Approx(4.56f));
     REQUIRE(stack.pop() == Approx(1.23f));
-    REQUIRE(stack.isEmpty() == true);
+    REQUIRE(stack.is_empty() == true); // Change to is_empty
     // Test Case 3: Pop from an empty stack (should throw an exception)
     REQUIRE_THROWS_AS(stack.pop(), std::underflow_error);
     // Test Case 4: Peek on an empty stack (should throw an exception)
     REQUIRE_THROWS_AS(stack.peek(), std::underflow_error);
     // Test Case 5: Push elements until stack is full and attempt to push another element
-    stack_t fullStack;
+    stack_t fullStack(100); // Provide capacity when creating the stack
     for (int i = 0; i &lt; 100; ++i) {
         fullStack.push(static_cast&lt;float&gt;(i) + 0.5f);
     }
@@ -657,7 +1450,7 @@
 }</t>
   </si>
   <si>
-    <t>please write a c&amp;cpp class this class signature as below /**
+    <t>please write a cpp class , the class signature as below /**
  * Implement a floating-point stack structure based on arrays
  *
  * This class provides basic stack operations including push, pop, peek, and checking if the stack is empty.
@@ -668,60 +1461,100 @@
 };</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'class stack_t {\nprivate:\n    float* arr;\n    int top;\n    int capacity;\n\npublic:\n    stack_t(int size) : capacity(size), top(-1) {\n        arr = new float[capacity];\n    }\n\n    ~stack_t() {\n        delete[] arr;\n    }\n\n    void push(float value) {\n        if (top &lt; capacity - 1) {\n            arr[++top] = value;\n        }\n    }\n\n    float pop() {\n        if (top &gt;= 0) {\n            return arr[top--];\n        }\n        return 0.0f; // or handle underflow\n    }\n\n    float peek() const {\n        if (top &gt;= 0) {\n            return arr[top];\n        }\n        return 0.0f; // or handle empty stack\n    }\n\n    bool is_empty() const {\n        return top == -1;\n    }\n};'}]</t>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;iostream&gt;\n#include &lt;stdexcept&gt;\n\nclass stack_t {\nprivate:\n    static const int MAX_SIZE = 100; // Define maximum size for the stack\n    float arr[MAX_SIZE];              // Array to hold stack elements\n    int top;                          // Index of the top element\n\npublic:\n    // Constructor\n    stack_t() : top(-1) {}\n\n    // Push element onto the stack\n    void push(float value) {\n        if (top &gt;= MAX_SIZE - 1) {\n            throw std::overflow_error("Stack overflow: cannot push onto a full stack.");\n        }\n        arr[++top] = value;\n    }\n\n    // Pop element from the stack\n    float pop() {\n        if (is_empty()) {\n            throw std::underflow_error("Stack underflow: cannot pop from an empty stack.");\n        }\n        return arr[top--];\n    }\n\n    // Peek at the top element without removing it\n    float peek() const {\n        if (is_empty()) {\n            throw std::underflow_error("Stack is empty: cannot peek.");\n        }\n        return arr[top];\n    }\n\n    // Check if the stack is empty\n    bool is_empty() const {\n        return top == -1;\n    }\n};'}]</t>
   </si>
   <si>
     <t xml:space="preserve">answer_check.cpp: In function 'void C_A_T_C_H_T_E_S_T_0()':
-answer_check.cpp:5:13: error: no matching function for call to 'stack_t::stack_t()'
-     stack_t stack;
-             ^~~~~
-In file included from answer_check.cpp:3:
-./solution.cpp:8:5: note: candidate: 'stack_t::stack_t(int)'
-     stack_t(int size) : capacity(size), top(-1) {
+answer_check.cpp:45:21: error: no matching function for call to 'stack_t::stack_t(int)'
+     stack_t stack(10); // Provide capacity when creating the stack
+                     ^
+answer_check.cpp:14:5: note: candidate: 'stack_t::stack_t()'
+     stack_t() : top(-1) {}
      ^~~~~~~
-./solution.cpp:8:5: note:   candidate expects 1 argument, 0 provided
-./solution.cpp:1:7: note: candidate: 'constexpr stack_t::stack_t(const stack_t&amp;)'
+answer_check.cpp:14:5: note:   candidate expects 0 arguments, 1 provided
+answer_check.cpp:6:7: note: candidate: 'constexpr stack_t::stack_t(const stack_t&amp;)'
  class stack_t {
        ^~~~~~~
-./solution.cpp:1:7: note:   candidate expects 1 argument, 0 provided
-In file included from answer_check.cpp:2:
-answer_check.cpp:10:19: error: 'class stack_t' has no member named 'isEmpty'; did you mean 'is_empty'?
-     REQUIRE(stack.isEmpty() == true);
-                   ^~~~~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:10:19: error: 'class stack_t' has no member named 'isEmpty'; did you mean 'is_empty'?
-     REQUIRE(stack.isEmpty() == true);
-                   ^~~~~~~
-answer_check.cpp:10:19: error: 'class stack_t' has no member named 'isEmpty'; did you mean 'is_empty'?
-     REQUIRE(stack.isEmpty() == true);
-                   ^~~~~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:18:19: error: 'class stack_t' has no member named 'isEmpty'; did you mean 'is_empty'?
-     REQUIRE(stack.isEmpty() == true);
-                   ^~~~~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:18:19: error: 'class stack_t' has no member named 'isEmpty'; did you mean 'is_empty'?
-     REQUIRE(stack.isEmpty() == true);
-                   ^~~~~~~
-answer_check.cpp:18:19: error: 'class stack_t' has no member named 'isEmpty'; did you mean 'is_empty'?
-     REQUIRE(stack.isEmpty() == true);
-                   ^~~~~~~
-answer_check.cpp:27:13: error: no matching function for call to 'stack_t::stack_t()'
-     stack_t fullStack;
-             ^~~~~~~~~
-In file included from answer_check.cpp:3:
-./solution.cpp:8:5: note: candidate: 'stack_t::stack_t(int)'
-     stack_t(int size) : capacity(size), top(-1) {
+answer_check.cpp:6:7: note:   no known conversion for argument 1 from 'int' to 'const stack_t&amp;'
+answer_check.cpp:6:7: note: candidate: 'constexpr stack_t::stack_t(stack_t&amp;&amp;)'
+answer_check.cpp:6:7: note:   no known conversion for argument 1 from 'int' to 'stack_t&amp;&amp;'
+answer_check.cpp:67:26: error: no matching function for call to 'stack_t::stack_t(int)'
+     stack_t fullStack(100); // Provide capacity when creating the stack
+                          ^
+answer_check.cpp:14:5: note: candidate: 'stack_t::stack_t()'
+     stack_t() : top(-1) {}
      ^~~~~~~
-./solution.cpp:8:5: note:   candidate expects 1 argument, 0 provided
-./solution.cpp:1:7: note: candidate: 'constexpr stack_t::stack_t(const stack_t&amp;)'
+answer_check.cpp:14:5: note:   candidate expects 0 arguments, 1 provided
+answer_check.cpp:6:7: note: candidate: 'constexpr stack_t::stack_t(const stack_t&amp;)'
  class stack_t {
        ^~~~~~~
-./solution.cpp:1:7: note:   candidate expects 1 argument, 0 provided
+answer_check.cpp:6:7: note:   no known conversion for argument 1 from 'int' to 'const stack_t&amp;'
+answer_check.cpp:6:7: note: candidate: 'constexpr stack_t::stack_t(stack_t&amp;&amp;)'
+answer_check.cpp:6:7: note:   no known conversion for argument 1 from 'int' to 'stack_t&amp;&amp;'
 </t>
   </si>
   <si>
-    <t>题目问题</t>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;iostream&gt;
+#include &lt;stdexcept&gt;
+class stack_t {
+private:
+    static const int MAX_SIZE = 100; // Define maximum size for the stack
+    float arr[MAX_SIZE];              // Array to hold stack elements
+    int top;                          // Index of the top element
+public:
+    // Constructor
+    stack_t() : top(-1) {}
+    // Push element onto the stack
+    void push(float value) {
+        if (top &gt;= MAX_SIZE - 1) {
+            throw std::overflow_error("Stack overflow: cannot push onto a full stack.");
+        }
+        arr[++top] = value;
+    }
+    // Pop element from the stack
+    float pop() {
+        if (is_empty()) {
+            throw std::underflow_error("Stack underflow: cannot pop from an empty stack.");
+        }
+        return arr[top--];
+    }
+    // Peek at the top element without removing it
+    float peek() const {
+        if (is_empty()) {
+            throw std::underflow_error("Stack is empty: cannot peek.");
+        }
+        return arr[top];
+    }
+    // Check if the stack is empty
+    bool is_empty() const {
+        return top == -1;
+    }
+};TEST_CASE("stack_t Test Cases", "[stack_t]") {
+    stack_t stack(10); // Provide capacity when creating the stack
+    // Test Case 1: Pushing and popping a single element
+    stack.push(3.14f);
+    REQUIRE(stack.pop() == Approx(3.14f));
+    REQUIRE(stack.is_empty() == true); // Change to is_empty
+    // Test Case 2: Pushing multiple elements and checking peek
+    stack.push(1.23f);
+    stack.push(4.56f);
+    REQUIRE(stack.peek() == Approx(4.56f));
+    REQUIRE(stack.pop() == Approx(4.56f));
+    REQUIRE(stack.pop() == Approx(1.23f));
+    REQUIRE(stack.is_empty() == true); // Change to is_empty
+    // Test Case 3: Pop from an empty stack (should throw an exception)
+    REQUIRE_THROWS_AS(stack.pop(), std::underflow_error);
+    // Test Case 4: Peek on an empty stack (should throw an exception)
+    REQUIRE_THROWS_AS(stack.peek(), std::underflow_error);
+    // Test Case 5: Push elements until stack is full and attempt to push another element
+    stack_t fullStack(100); // Provide capacity when creating the stack
+    for (int i = 0; i &lt; 100; ++i) {
+        fullStack.push(static_cast&lt;float&gt;(i) + 0.5f);
+    }
+    REQUIRE_THROWS_AS(fullStack.push(100.5f), std::overflow_error);
+}</t>
   </si>
   <si>
     <t>/**
@@ -753,7 +1586,7 @@
 }</t>
   </si>
   <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    <t>please write a cpp function , the function signature as below /**
  * @brief Find all prime numbers that are less than or equal to limit using the Eichler sieve algorithm
  *
  * @param limit The upper bound (inclusive) for finding prime numbers.
@@ -764,7 +1597,47 @@
 }</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;stdexcept&gt;\n\nstd::vector&lt;int&gt; generatePrimes(int limit) {\n    if (limit &lt; 2) throw std::invalid_argument("Limit must be at least 2.");\n    \n    std::vector&lt;bool&gt; is_prime(limit + 1, true);\n    is_prime[0] = is_prime[1] = false; // 0 and 1 are not prime\n\n    for (int i = 2; i * i &lt;= limit; ++i) {\n        if (is_prime[i]) {\n            for (int j = i * i; j &lt;= limit; j += i) {\n                is_prime[j] = false;\n            }\n        }\n    }\n\n    std::vector&lt;int&gt; primes;\n    for (int i = 2; i &lt;= limit; ++i) {\n        if (is_prime[i]) {\n            primes.push_back(i);\n        }\n    }\n    return primes;\n}'}]</t>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;stdexcept&gt;\n\nstd::vector&lt;int&gt; generatePrimes(int limit) {\n    if (limit &lt; 2) throw std::invalid_argument("Limit must be at least 2.");\n    \n    std::vector&lt;int&gt; primes;\n    std::vector&lt;bool&gt; isPrime(limit + 1, true);\n    \n    isPrime[0] = isPrime[1] = false; // 0 and 1 are not primes\n    \n    for (int i = 2; i * i &lt;= limit; ++i) {\n        if (isPrime[i]) {\n            for (int j = i * i; j &lt;= limit; j += i) {\n                isPrime[j] = false;\n            }\n        }\n    }\n    \n    for (int i = 2; i &lt;= limit; ++i) {\n        if (isPrime[i]) {\n            primes.push_back(i);\n        }\n    }\n    \n    return primes;\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;vector&gt;
+#include &lt;stdexcept&gt;
+std::vector&lt;int&gt; generatePrimes(int limit) {
+    if (limit &lt; 2) throw std::invalid_argument("Limit must be at least 2.");
+    std::vector&lt;int&gt; primes;
+    std::vector&lt;bool&gt; isPrime(limit + 1, true);
+    isPrime[0] = isPrime[1] = false; // 0 and 1 are not primes
+    for (int i = 2; i * i &lt;= limit; ++i) {
+        if (isPrime[i]) {
+            for (int j = i * i; j &lt;= limit; j += i) {
+                isPrime[j] = false;
+            }
+        }
+    }
+    for (int i = 2; i &lt;= limit; ++i) {
+        if (isPrime[i]) {
+            primes.push_back(i);
+        }
+    }
+    return primes;
+}TEST_CASE("Sieve of Eratosthenes Test Cases", "[generatePrimes]") {
+    // Test Case 1: Small limit (10)
+    std::vector&lt;int&gt; expected1 = {2, 3, 5, 7};
+    REQUIRE(generatePrimes(10) == expected1);
+    // Test Case 2: Prime limit (29)
+    std::vector&lt;int&gt; expected2 = {2, 3, 5, 7, 11, 13, 17, 19, 23, 29};
+    REQUIRE(generatePrimes(29) == expected2);
+    // Test Case 3: Non-prime limit (30)
+    std::vector&lt;int&gt; expected3 = {2, 3, 5, 7, 11, 13, 17, 19, 23, 29};
+    REQUIRE(generatePrimes(30) == expected3);
+    // Test Case 4: Limit of 2 (smallest prime)
+    std::vector&lt;int&gt; expected4 = {2};
+    REQUIRE(generatePrimes(2) == expected4);
+    // Test Case 5: Invalid limit (1, should throw an exception)
+    REQUIRE_THROWS_AS(generatePrimes(1), std::invalid_argument);
+}</t>
   </si>
   <si>
     <t>/**
@@ -781,21 +1654,22 @@
 }</t>
   </si>
   <si>
-    <t>TEST_CASE("FindOrder Test Cases", "[findOrder]") {
+    <t xml:space="preserve">TEST_CASE("FindOrder Test Cases", "[findOrder]") {
     // Test Case 1: Minimum valid input with 2 players
-    REQUIRE(findOrder(2) == vector&lt;int&gt;{2, 1});
+    REQUIRE(findOrder(2) == std::vector&lt;int&gt;{2, 1});
     // Test Case 2: 3 players
-    REQUIRE(findOrder(3) == vector&lt;int&gt;{2, 3, 1});
+    REQUIRE(findOrder(3) == std::vector&lt;int&gt;{2, 3, 1});
     // Test Case 3: 5 players
-    REQUIRE(findOrder(5) == vector&lt;int&gt;{2, 5, 4, 1, 3});
+    REQUIRE(findOrder(5) == std::vector&lt;int&gt;{2, 5, 3, 4, 1});
     // Test Case 4: 7 players
-    REQUIRE(findOrder(7) == vector&lt;int&gt;{2, 5, 1, 6, 4, 7, 3});
+    REQUIRE(findOrder(7) == std::vector&lt;int&gt;{ 2, 5, 4, 1, 6, 7, 3});
     // Test Case 5: 10 players
-    REQUIRE(findOrder(10) == vector&lt;int&gt;{2, 5, 8, 1, 6, 4, 7, 10, 3, 9});
-}</t>
-  </si>
-  <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    REQUIRE(findOrder(10) == std::vector&lt;int&gt;{ 2, 5, 10, 9, 7, 3, 4, 6, 8, 1});
+}
+</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below /**
  * @brief Simulate a game based on the order of prime numbers, using a circular linked list to represent the cyclic structure of players, and remove players one by one
  *
  * This function creates an instance of the PrimeGame class, which encapsulates the logic
@@ -809,127 +1683,88 @@
 }</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;list&gt;\n\nclass PrimeGame {\npublic:\n    std::vector&lt;int&gt; findOrder(int n) {\n        std::vector&lt;int&gt; order;\n        std::list&lt;int&gt; players;\n        for (int i = 1; i &lt;= n; ++i) {\n            players.push_back(i);\n        }\n\n        std::vector&lt;int&gt; primes = generatePrimes(n); // Function to generate prime numbers up to n\n        auto it = players.begin();\n\n        for (int prime : primes) {\n            if (players.empty()) break;\n            it = players.erase(it); // Remove current player\n            order.push_back(*it);\n            if (players.empty()) break;\n            for (int i = 1; i &lt; prime; ++i) {\n                if (++it == players.end()) it = players.begin(); // Move iterator\n            }\n        }\n        return order;\n    }\n\nprivate:\n    std::vector&lt;int&gt; generatePrimes(int max) {\n        std::vector&lt;bool&gt; isPrime(max + 1, true);\n        std::vector&lt;int&gt; primes;\n        for (int p = 2; p &lt;= max; ++p) {\n            if (isPrime[p]) {\n                primes.push_back(p);\n                for (int multiple = p * 2; multiple &lt;= max; multiple += p) {\n                    isPrime[multiple] = false;\n                }\n            }\n        }\n        return primes;\n    }\n};\n\nstd::vector&lt;int&gt; findOrder(int n) {\n    PrimeGame game;\n    return game.findOrder(n);\n}'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In file included from answer_check.cpp:2:
-answer_check.cpp: In function 'void C_A_T_C_H_T_E_S_T_0()':
-answer_check.cpp:6:29: error: 'vector' was not declared in this scope
-     REQUIRE(findOrder(2) == vector&lt;int&gt;{2, 1});
-                             ^~~~~~
-answer_check.cpp:6:29: note: suggested alternative:
-In file included from D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/vector:64,
-                 from ./lib/catch.hpp:566,
-                 from answer_check.cpp:2:
-D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/bits/stl_vector.h:339:11: note:   'std::vector'
-     class vector : protected _Vector_base&lt;_Tp, _Alloc&gt;
-           ^~~~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:6:36: error: expected primary-expression before 'int'
-     REQUIRE(findOrder(2) == vector&lt;int&gt;{2, 1});
-                                    ^~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:6:36: error: expected primary-expression before 'int'
-     REQUIRE(findOrder(2) == vector&lt;int&gt;{2, 1});
-                                    ^~~
-answer_check.cpp:6:29: error: 'vector' was not declared in this scope
-     REQUIRE(findOrder(2) == vector&lt;int&gt;{2, 1});
-                             ^~~~~~
-answer_check.cpp:6:29: note: suggested alternative:
-In file included from D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/vector:64,
-                 from ./lib/catch.hpp:566,
-                 from answer_check.cpp:2:
-D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/bits/stl_vector.h:339:11: note:   'std::vector'
-     class vector : protected _Vector_base&lt;_Tp, _Alloc&gt;
-           ^~~~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:6:36: error: expected primary-expression before 'int'
-     REQUIRE(findOrder(2) == vector&lt;int&gt;{2, 1});
-                                    ^~~
-answer_check.cpp:6:36: error: expected ')' before 'int'
-answer_check.cpp:6:5: note: to match this '('
-     REQUIRE(findOrder(2) == vector&lt;int&gt;{2, 1});
-     ^~~~~~~
-answer_check.cpp:6:5: error: expected ';' before ')' token
-     REQUIRE(findOrder(2) == vector&lt;int&gt;{2, 1});
-     ^~~~~~~
-answer_check.cpp:6:5: error: expected primary-expression before ')' token
-In file included from answer_check.cpp:2:
-answer_check.cpp:9:36: error: expected primary-expression before 'int'
-     REQUIRE(findOrder(3) == vector&lt;int&gt;{2, 3, 1});
-                                    ^~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:9:36: error: expected primary-expression before 'int'
-     REQUIRE(findOrder(3) == vector&lt;int&gt;{2, 3, 1});
-                                    ^~~
-answer_check.cpp:9:36: error: expected primary-expression before 'int'
-     REQUIRE(findOrder(3) == vector&lt;int&gt;{2, 3, 1});
-                                    ^~~
-answer_check.cpp:9:36: error: expected ')' before 'int'
-answer_check.cpp:9:5: note: to match this '('
-     REQUIRE(findOrder(3) == vector&lt;int&gt;{2, 3, 1});
-     ^~~~~~~
-answer_check.cpp:9:5: error: expected ';' before ')' token
-     REQUIRE(findOrder(3) == vector&lt;int&gt;{2, 3, 1});
-     ^~~~~~~
-answer_check.cpp:9:5: error: expected primary-expression before ')' token
-In file included from answer_check.cpp:2:
-answer_check.cpp:12:36: error: expected primary-expression before 'int'
-     REQUIRE(findOrder(5) == vector&lt;int&gt;{2, 5, 4, 1, 3});
-                                    ^~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:12:36: error: expected primary-expression before 'int'
-     REQUIRE(findOrder(5) == vector&lt;int&gt;{2, 5, 4, 1, 3});
-                                    ^~~
-answer_check.cpp:12:36: error: expected primary-expression before 'int'
-     REQUIRE(findOrder(5) == vector&lt;int&gt;{2, 5, 4, 1, 3});
-                                    ^~~
-answer_check.cpp:12:36: error: expected ')' before 'int'
-answer_check.cpp:12:5: note: to match this '('
-     REQUIRE(findOrder(5) == vector&lt;int&gt;{2, 5, 4, 1, 3});
-     ^~~~~~~
-answer_check.cpp:12:5: error: expected ';' before ')' token
-     REQUIRE(findOrder(5) == vector&lt;int&gt;{2, 5, 4, 1, 3});
-     ^~~~~~~
-answer_check.cpp:12:5: error: expected primary-expression before ')' token
-In file included from answer_check.cpp:2:
-answer_check.cpp:15:36: error: expected primary-expression before 'int'
-     REQUIRE(findOrder(7) == vector&lt;int&gt;{2, 5, 1, 6, 4, 7, 3});
-                                    ^~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:15:36: error: expected primary-expression before 'int'
-     REQUIRE(findOrder(7) == vector&lt;int&gt;{2, 5, 1, 6, 4, 7, 3});
-                                    ^~~
-answer_check.cpp:15:36: error: expected primary-expression before 'int'
-     REQUIRE(findOrder(7) == vector&lt;int&gt;{2, 5, 1, 6, 4, 7, 3});
-                                    ^~~
-answer_check.cpp:15:36: error: expected ')' before 'int'
-answer_check.cpp:15:5: note: to match this '('
-     REQUIRE(findOrder(7) == vector&lt;int&gt;{2, 5, 1, 6, 4, 7, 3});
-     ^~~~~~~
-answer_check.cpp:15:5: error: expected ';' before ')' token
-     REQUIRE(findOrder(7) == vector&lt;int&gt;{2, 5, 1, 6, 4, 7, 3});
-     ^~~~~~~
-answer_check.cpp:15:5: error: expected primary-expression before ')' token
-In file included from answer_check.cpp:2:
-answer_check.cpp:18:37: error: expected primary-expression before 'int'
-     REQUIRE(findOrder(10) == vector&lt;int&gt;{2, 5, 8, 1, 6, 4, 7, 10, 3, 9});
-                                     ^~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:18:37: error: expected primary-expression before 'int'
-     REQUIRE(findOrder(10) == vector&lt;int&gt;{2, 5, 8, 1, 6, 4, 7, 10, 3, 9});
-                                     ^~~
-answer_check.cpp:18:37: error: expected primary-expression before 'int'
-     REQUIRE(findOrder(10) == vector&lt;int&gt;{2, 5, 8, 1, 6, 4, 7, 10, 3, 9});
-                                     ^~~
-answer_check.cpp:18:37: error: expected ')' before 'int'
-answer_check.cpp:18:5: note: to match this '('
-     REQUIRE(findOrder(10) == vector&lt;int&gt;{2, 5, 8, 1, 6, 4, 7, 10, 3, 9});
-     ^~~~~~~
-answer_check.cpp:18:5: error: expected ';' before ')' token
-     REQUIRE(findOrder(10) == vector&lt;int&gt;{2, 5, 8, 1, 6, 4, 7, 10, 3, 9});
-     ^~~~~~~
-answer_check.cpp:18:5: error: expected primary-expression before ')' token
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;list&gt;\n\nclass PrimeGame {\npublic:\n    PrimeGame(int numPlayers) : players(numPlayers) {\n        for (int i = 0; i &lt; numPlayers; ++i) {\n            players[i] = i + 1; // Players are numbered from 1 to n\n        }\n    }\n\n    std::vector&lt;int&gt; findOrder() {\n        std::vector&lt;int&gt; removalOrder;\n        auto it = players.begin();\n        int primeIndex = 0;\n\n        while (!players.empty()) {\n            // Get the next prime number\n            int prime = getPrime(primeIndex++);\n            // Move `prime - 1` steps forward (circularly)\n            for (int i = 0; i &lt; prime - 1; ++i) {\n                it++;\n                if (it == players.end()) {\n                    it = players.begin(); // Circular wrap\n                }\n            }\n            // Remove the player and record the order\n            removalOrder.push_back(*it);\n            it = players.erase(it); // Remove the current player\n\n            if (it == players.end()) {\n                it = players.begin(); // Move to the next player circularly\n            }\n        }\n\n        return removalOrder;\n    }\n\nprivate:\n    std::list&lt;int&gt; players;\n\n    // Function to generate prime numbers\n    int getPrime(int index) {\n        int count = 0;\n        int num = 1;\n        while (count &lt;= index) {\n            num++;\n            if (isPrime(num)) {\n                count++;\n            }\n        }\n        return num;\n    }\n\n    // Helper function to check if a number is prime\n    bool isPrime(int num) {\n        if (num &lt;= 1) return false;\n        for (int i = 2; i * i &lt;= num; ++i) {\n            if (num % i == 0) return false;\n        }\n        return true;\n    }\n};\n\nstd::vector&lt;int&gt; findOrder(int n) {\n    PrimeGame game(n);\n    return game.findOrder();\n}'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">answer_check.cpp: In constructor 'PrimeGame::PrimeGame(int)':
+answer_check.cpp:10:20: error: no match for 'operator[]' (operand types are 'std::__cxx11::list&lt;int&gt;' and 'int')
+             players[i] = i + 1; // Players are numbered from 1 to n
+                    ^
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;vector&gt;
+#include &lt;list&gt;
+class PrimeGame {
+public:
+    PrimeGame(int numPlayers) : players(numPlayers) {
+        for (int i = 0; i &lt; numPlayers; ++i) {
+            players[i] = i + 1; // Players are numbered from 1 to n
+        }
+    }
+    std::vector&lt;int&gt; findOrder() {
+        std::vector&lt;int&gt; removalOrder;
+        auto it = players.begin();
+        int primeIndex = 0;
+        while (!players.empty()) {
+            // Get the next prime number
+            int prime = getPrime(primeIndex++);
+            // Move `prime - 1` steps forward (circularly)
+            for (int i = 0; i &lt; prime - 1; ++i) {
+                it++;
+                if (it == players.end()) {
+                    it = players.begin(); // Circular wrap
+                }
+            }
+            // Remove the player and record the order
+            removalOrder.push_back(*it);
+            it = players.erase(it); // Remove the current player
+            if (it == players.end()) {
+                it = players.begin(); // Move to the next player circularly
+            }
+        }
+        return removalOrder;
+    }
+private:
+    std::list&lt;int&gt; players;
+    // Function to generate prime numbers
+    int getPrime(int index) {
+        int count = 0;
+        int num = 1;
+        while (count &lt;= index) {
+            num++;
+            if (isPrime(num)) {
+                count++;
+            }
+        }
+        return num;
+    }
+    // Helper function to check if a number is prime
+    bool isPrime(int num) {
+        if (num &lt;= 1) return false;
+        for (int i = 2; i * i &lt;= num; ++i) {
+            if (num % i == 0) return false;
+        }
+        return true;
+    }
+};
+std::vector&lt;int&gt; findOrder(int n) {
+    PrimeGame game(n);
+    return game.findOrder();
+}TEST_CASE("FindOrder Test Cases", "[findOrder]") {
+    // Test Case 1: Minimum valid input with 2 players
+    REQUIRE(findOrder(2) == std::vector&lt;int&gt;{2, 1});
+    // Test Case 2: 3 players
+    REQUIRE(findOrder(3) == std::vector&lt;int&gt;{2, 3, 1});
+    // Test Case 3: 5 players
+    REQUIRE(findOrder(5) == std::vector&lt;int&gt;{2, 5, 3, 4, 1});
+    // Test Case 4: 7 players
+    REQUIRE(findOrder(7) == std::vector&lt;int&gt;{ 2, 5, 4, 1, 6, 7, 3});
+    // Test Case 5: 10 players
+    REQUIRE(findOrder(10) == std::vector&lt;int&gt;{ 2, 5, 10, 9, 7, 3, 4, 6, 8, 1});
+}
 </t>
   </si>
   <si>
@@ -944,32 +1779,32 @@
   </si>
   <si>
     <t>TEST_CASE("General case", "[findMaxDifference]") {
-    vector&lt;int&gt; l = {2, 3, 10, 6, 4, 8, 1};
-    REQUIRE(findMaxDifference(l) == 8);  // 最大差值是 10 - 2 = 8
+    std::vector&lt;int&gt; l = {2, 3, 10, 6, 4, 8, 1};
+    REQUIRE(findMaxDifference(l) == 8);  // Maximum difference is 10 - 2 = 8
 }
-// 测试用例 2: 递减序列
+// Test case 2: Decreasing sequence
 TEST_CASE("Decreasing sequence", "[findMaxDifference]") {
-    vector&lt;int&gt; l = {10, 9, 8, 7, 6, 5};
-    REQUIRE(findMaxDifference(l) == -1);  // 最大差值是 9 - 10 = -1
+    std::vector&lt;int&gt; l = {10, 9, 8, 7, 6, 5};
+    REQUIRE(findMaxDifference(l) == 0);  // Maximum difference should be 0, as all differences are negative
 }
-// 测试用例 3: 全部相同元素
+// Test case 3: All elements the same
 TEST_CASE("All elements the same", "[findMaxDifference]") {
-    vector&lt;int&gt; l = {5, 5, 5, 5, 5};
-    REQUIRE(findMaxDifference(l) == 0);  // 最大差值是 5 - 5 = 0
+    std::vector&lt;int&gt; l = {5, 5, 5, 5, 5};
+    REQUIRE(findMaxDifference(l) == 0);  // Maximum difference is 5 - 5 = 0
 }
-// 测试用例 4: 只有两个元素
+// Test case 4: Only two elements
 TEST_CASE("Only two elements", "[findMaxDifference]") {
-    vector&lt;int&gt; l = {3, 8};
-    REQUIRE(findMaxDifference(l) == 5);  // 最大差值是 8 - 3 = 5
+    std::vector&lt;int&gt; l = {3, 8};
+    REQUIRE(findMaxDifference(l) == 5);  // Maximum difference is 8 - 3 = 5
 }
-// 测试用例 5: 只有一个元素
+// Test case 5: Only one element
 TEST_CASE("Single element", "[findMaxDifference]") {
-    vector&lt;int&gt; l = {4};
-    REQUIRE(findMaxDifference(l) == numeric_limits&lt;int&gt;::min());  // 只有一个元素，无法计算差值
-}</t>
-  </si>
-  <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    std::vector&lt;int&gt; l = {4};
+    REQUIRE(findMaxDifference(l) == 0);  // Only one element, no difference to calculate
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below /**
  * @brief Finds the maximum difference between elements in the array
  * such that the smaller element appears before the larger one.
  *
@@ -979,7 +1814,102 @@
 int findMaxDifference(const vector&lt;int&gt; &amp;l) {}</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;algorithm&gt;\nusing namespace std;\n\nint findMaxDifference(const vector&lt;int&gt; &amp;l) {\n    if (l.empty()) return 0;\n\n    int minElement = l[0];\n    int maxDiff = 0;\n\n    for (int i = 1; i &lt; l.size(); ++i) {\n        maxDiff = max(maxDiff, l[i] - minElement);\n        minElement = min(minElement, l[i]);\n    }\n\n    return maxDiff;\n}'}]</t>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;algorithm&gt;\nusing namespace std;\n\nint findMaxDifference(const vector&lt;int&gt; &amp;l) {\n    if (l.empty()) return 0;\n\n    int maxDiff = 0;\n    int minElement = l[0];\n\n    for (int i = 1; i &lt; l.size(); ++i) {\n        maxDiff = max(maxDiff, l[i] - minElement);\n        minElement = min(minElement, l[i]);\n    }\n\n    return maxDiff;\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;vector&gt;
+#include &lt;algorithm&gt;
+using namespace std;
+int findMaxDifference(const vector&lt;int&gt; &amp;l) {
+    if (l.empty()) return 0;
+    int maxDiff = 0;
+    int minElement = l[0];
+    for (int i = 1; i &lt; l.size(); ++i) {
+        maxDiff = max(maxDiff, l[i] - minElement);
+        minElement = min(minElement, l[i]);
+    }
+    return maxDiff;
+}TEST_CASE("General case", "[findMaxDifference]") {
+    std::vector&lt;int&gt; l = {2, 3, 10, 6, 4, 8, 1};
+    REQUIRE(findMaxDifference(l) == 8);  // Maximum difference is 10 - 2 = 8
+}
+// Test case 2: Decreasing sequence
+TEST_CASE("Decreasing sequence", "[findMaxDifference]") {
+    std::vector&lt;int&gt; l = {10, 9, 8, 7, 6, 5};
+    REQUIRE(findMaxDifference(l) == 0);  // Maximum difference should be 0, as all differences are negative
+}
+// Test case 3: All elements the same
+TEST_CASE("All elements the same", "[findMaxDifference]") {
+    std::vector&lt;int&gt; l = {5, 5, 5, 5, 5};
+    REQUIRE(findMaxDifference(l) == 0);  // Maximum difference is 5 - 5 = 0
+}
+// Test case 4: Only two elements
+TEST_CASE("Only two elements", "[findMaxDifference]") {
+    std::vector&lt;int&gt; l = {3, 8};
+    REQUIRE(findMaxDifference(l) == 5);  // Maximum difference is 8 - 3 = 5
+}
+// Test case 5: Only one element
+TEST_CASE("Single element", "[findMaxDifference]") {
+    std::vector&lt;int&gt; l = {4};
+    REQUIRE(findMaxDifference(l) == 0);  // Only one element, no difference to calculate
+}</t>
+  </si>
+  <si>
+    <t>/**
+ * @brief Extracts the string contained in the first pair of braces `{}` from the input string.
+ *
+ * @param input The input string from which the braces content will be extracted.
+ * @return A substring enclosed within the first pair of braces, or an error message if braces are missing.
+ */
+std::string extractStringFromBraces(const std::string&amp; input) {}</t>
+  </si>
+  <si>
+    <t>TEST_CASE("Test cases for extractStringFromBraces function") {
+    SECTION("Basic extraction") {
+        std::string input = "This is a sample text with some data {data: \"value\"} and more text.";
+        std::string result = extractStringFromBraces(input);
+        REQUIRE(result == "{data: \"value\"}");
+    }
+    SECTION("No braces") {
+        std::string input = "This string has no braces.";
+        std::string result = extractStringFromBraces(input);
+        REQUIRE(result == "No opening brace found.");
+    }
+    SECTION("Only opening brace") {
+        std::string input = "This string has an opening brace { but no closing brace.";
+        std::string result = extractStringFromBraces(input);
+        REQUIRE(result == "No closing brace found.");
+    }
+    SECTION("Only closing brace") {
+        std::string input = "This string has a closing brace } but no opening brace.";
+        std::string result = extractStringFromBraces(input);
+        REQUIRE(result == "No opening brace found.");
+    }
+    SECTION("Multiple braces") {
+        std::string input = "First {first} and second {second} braces.";
+        std::string result = extractStringFromBraces(input);
+        REQUIRE(result == "{first}");
+    }
+    SECTION("Empty braces") {
+        std::string input = "This string has empty braces {} and some text.";
+        std::string result = extractStringFromBraces(input);
+        REQUIRE(result == "{}");
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below /**
+ * @brief Extracts the string contained in the first pair of braces `{}` from the input string.
+ *
+ * @param input The input string from which the braces content will be extracted.
+ * @return A substring enclosed within the first pair of braces, or an error message if braces are missing.
+ */
+std::string extractStringFromBraces(const std::string&amp; input) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;string&gt;\n\nstd::string extractStringFromBraces(const std::string&amp; input) {\n    size_t start = input.find(\'{\');\n    size_t end = input.find(\'}\', start);\n    \n    if (start == std::string::npos || end == std::string::npos) {\n        return "Error: Missing braces.";\n    }\n    \n    return input.substr(start + 1, end - start - 1);\n}'}]</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -987,140 +1917,215 @@
 answer_check.exe is a Catch v2.13.10 host application.
 Run with -? for options
 -------------------------------------------------------------------------------
-Decreasing sequence
+Test cases for extractStringFromBraces function
+  Basic extraction
 -------------------------------------------------------------------------------
-answer_check.cpp:10
+answer_check.cpp:16
 ...............................................................................
-answer_check.cpp:12: FAILED:
-  REQUIRE( findMaxDifference(l) == -1 )
+answer_check.cpp:19: FAILED:
+  REQUIRE( result == "{data: \"value\"}" )
 with expansion:
-  0 == -1
+  "data: "value"" == "{data: "value"}"
 -------------------------------------------------------------------------------
-Single element
+Test cases for extractStringFromBraces function
+  No braces
+-------------------------------------------------------------------------------
+answer_check.cpp:22
+...............................................................................
+answer_check.cpp:25: FAILED:
+  REQUIRE( result == "No opening brace found." )
+with expansion:
+  "Error: Missing braces."
+  ==
+  "No opening brace found."
+-------------------------------------------------------------------------------
+Test cases for extractStringFromBraces function
+  Only opening brace
 -------------------------------------------------------------------------------
 answer_check.cpp:28
 ...............................................................................
-answer_check.cpp:30: FAILED:
-  REQUIRE( findMaxDifference(l) == numeric_limits&lt;int&gt;::min() )
+answer_check.cpp:31: FAILED:
+  REQUIRE( result == "No closing brace found." )
 with expansion:
-  0 == -2147483648
+  "Error: Missing braces."
+  ==
+  "No closing brace found."
+-------------------------------------------------------------------------------
+Test cases for extractStringFromBraces function
+  Only closing brace
+-------------------------------------------------------------------------------
+answer_check.cpp:34
+...............................................................................
+answer_check.cpp:37: FAILED:
+  REQUIRE( result == "No opening brace found." )
+with expansion:
+  "Error: Missing braces."
+  ==
+  "No opening brace found."
+-------------------------------------------------------------------------------
+Test cases for extractStringFromBraces function
+  Multiple braces
+-------------------------------------------------------------------------------
+answer_check.cpp:39
+...............................................................................
+answer_check.cpp:42: FAILED:
+  REQUIRE( result == "{first}" )
+with expansion:
+  "first" == "{first}"
+-------------------------------------------------------------------------------
+Test cases for extractStringFromBraces function
+  Empty braces
+-------------------------------------------------------------------------------
+answer_check.cpp:45
+...............................................................................
+answer_check.cpp:48: FAILED:
+  REQUIRE( result == "{}" )
+with expansion:
+  "" == "{}"
 ===============================================================================
-test cases: 5 | 3 passed | 2 failed
-assertions: 5 | 3 passed | 2 failed
+test cases: 1 | 1 failed
+assertions: 6 | 6 failed
 </t>
   </si>
   <si>
-    <t>/**
- * string token_manager::extract_json(const std::string&amp; input)
- *
- * @param input json str
- * @return the extracted JSON object or an empty string
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;string&gt;
+std::string extractStringFromBraces(const std::string&amp; input) {
+    size_t start = input.find('{');
+    size_t end = input.find('}', start);
+    if (start == std::string::npos || end == std::string::npos) {
+        return "Error: Missing braces.";
+    }
+    return input.substr(start + 1, end - start - 1);
+}TEST_CASE("Test cases for extractStringFromBraces function") {
+    SECTION("Basic extraction") {
+        std::string input = "This is a sample text with some data {data: \"value\"} and more text.";
+        std::string result = extractStringFromBraces(input);
+        REQUIRE(result == "{data: \"value\"}");
+    }
+    SECTION("No braces") {
+        std::string input = "This string has no braces.";
+        std::string result = extractStringFromBraces(input);
+        REQUIRE(result == "No opening brace found.");
+    }
+    SECTION("Only opening brace") {
+        std::string input = "This string has an opening brace { but no closing brace.";
+        std::string result = extractStringFromBraces(input);
+        REQUIRE(result == "No closing brace found.");
+    }
+    SECTION("Only closing brace") {
+        std::string input = "This string has a closing brace } but no opening brace.";
+        std::string result = extractStringFromBraces(input);
+        REQUIRE(result == "No opening brace found.");
+    }
+    SECTION("Multiple braces") {
+        std::string input = "First {first} and second {second} braces.";
+        std::string result = extractStringFromBraces(input);
+        REQUIRE(result == "{first}");
+    }
+    SECTION("Empty braces") {
+        std::string input = "This string has empty braces {} and some text.";
+        std::string result = extractStringFromBraces(input);
+        REQUIRE(result == "{}");
+    }
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;stdexcept&gt;
+/**
+ * @brief Returns the number of days in a given month of a specific year.
+ *
+ * This function accounts for leap years when calculating the number of days in February.
+ *
+ * @param year The year for which to get the number of days in the month. This should be
+ *             a valid integer representing a year (e.g., 2024).
+ * @param month The month for which to get the number of days. It should be an integer
+ *              between 1 and 12, where 1 corresponds to January and 12 to December.
+ * @return The number of days in the specified month of the specified year.
+ *
  */
-string token_manager::extract_json(const std::string&amp; input){}</t>
-  </si>
-  <si>
-    <t>TEST_CASE("JSON extraction tests", "[extract_json]") {
-    SECTION("Basic JSON extraction") {
-        std::string input = "Here is a JSON: {\"key\": \"value\"} with text.";
-        std::string expected = "{\"key\": \"value\"}";
-        REQUIRE(token_manager::extract_json(input) == expected);
-    }
-    SECTION("Nested braces JSON extraction") {
-        std::string input = "Prefix {\"outer\": {\"inner\": \"value\"}} Suffix";
-        std::string expected = "{\"outer\": {\"inner\": \"value\"}}";
-        REQUIRE(token_manager::extract_json(input) == expected);
-    }
-    SECTION("No braces in input") {
-        std::string input = "No JSON here.";
-        std::string expected = "";
-        REQUIRE(token_manager::extract_json(input) == expected);
-    }
-    SECTION("Only opening brace") {
-        std::string input = "Starts with a brace { but no closing one.";
-        std::string expected = "";
-        REQUIRE(token_manager::extract_json(input) == expected);
-    }
-    SECTION("Only closing brace") {
-        std::string input = "Ends with a brace } but no opening one.";
-        std::string expected = "";
-        REQUIRE(token_manager::extract_json(input) == expected);
-    }
-}</t>
-  </si>
-  <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
- * string token_manager::extract_json(const std::string&amp; input)
- *
- * @param input json str
- * @return the extracted JSON object or an empty string
+ int getDaysInMonth(int year, int month){
+ }</t>
+  </si>
+  <si>
+    <t>TEST_CASE("Leap year February", "[getDaysInMonth]") {
+    REQUIRE(getDaysInMonth(2024, 2) == 29); // 2024 是闰年
+}
+// 测试用例 2: 非闰年的二月份
+TEST_CASE("Non-leap year February", "[getDaysInMonth]") {
+    REQUIRE(getDaysInMonth(2023, 2) == 28); // 2023 不是闰年
+}
+// 测试用例 3: 大月份（31天）的情况
+TEST_CASE("Month with 31 days", "[getDaysInMonth]") {
+    REQUIRE(getDaysInMonth(2023, 1) == 31); // 一月份有 31 天
+    REQUIRE(getDaysInMonth(2023, 7) == 31); // 七月份有 31 天
+}
+// 测试用例 4: 小月份（30天）的情况
+TEST_CASE("Month with 30 days", "[getDaysInMonth]") {
+    REQUIRE(getDaysInMonth(2023, 4) == 30); // 四月份有 30 天
+    REQUIRE(getDaysInMonth(2023, 11) == 30); // 十一月份有 30 天
+}
+// 测试用例 5: 无效的月份
+TEST_CASE("Invalid month", "[getDaysInMonth]") {
+    REQUIRE_THROWS_AS(getDaysInMonth(2023, 0), std::invalid_argument);  // 月份小于 1
+    REQUIRE_THROWS_AS(getDaysInMonth(2023, 13), std::invalid_argument); // 月份大于 12
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below #include &lt;stdexcept&gt;
+/**
+ * @brief Returns the number of days in a given month of a specific year.
+ *
+ * This function accounts for leap years when calculating the number of days in February.
+ *
+ * @param year The year for which to get the number of days in the month. This should be
+ *             a valid integer representing a year (e.g., 2024).
+ * @param month The month for which to get the number of days. It should be an integer
+ *              between 1 and 12, where 1 corresponds to January and 12 to December.
+ * @return The number of days in the specified month of the specified year.
+ *
  */
-string token_manager::extract_json(const std::string&amp; input){}</t>
-  </si>
-  <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;string&gt;\n#include &lt;regex&gt;\n\nstd::string token_manager::extract_json(const std::string&amp; input) {\n    std::regex json_regex(R"(\\{.*\\})");\n    std::smatch match;\n\n    if (std::regex_search(input, match, json_regex) &amp;&amp; match.size() &gt; 0) {\n        return match.str(0);\n    }\n\n    return "";\n}'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In file included from answer_check.cpp:3:
-./solution.cpp:4:13: error: 'token_manager' has not been declared
- std::string token_manager::extract_json(const std::string&amp; input) {
-             ^~~~~~~~~~~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp: In function 'void C_A_T_C_H_T_E_S_T_0()':
-answer_check.cpp:9:17: error: 'token_manager' has not been declared
-         REQUIRE(token_manager::extract_json(input) == expected);
-                 ^~~~~~~~~~~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:9:17: error: 'token_manager' has not been declared
-         REQUIRE(token_manager::extract_json(input) == expected);
-                 ^~~~~~~~~~~~~
-answer_check.cpp:9:17: error: 'token_manager' has not been declared
-         REQUIRE(token_manager::extract_json(input) == expected);
-                 ^~~~~~~~~~~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:15:17: error: 'token_manager' has not been declared
-         REQUIRE(token_manager::extract_json(input) == expected);
-                 ^~~~~~~~~~~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:15:17: error: 'token_manager' has not been declared
-         REQUIRE(token_manager::extract_json(input) == expected);
-                 ^~~~~~~~~~~~~
-answer_check.cpp:15:17: error: 'token_manager' has not been declared
-         REQUIRE(token_manager::extract_json(input) == expected);
-                 ^~~~~~~~~~~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:21:17: error: 'token_manager' has not been declared
-         REQUIRE(token_manager::extract_json(input) == expected);
-                 ^~~~~~~~~~~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:21:17: error: 'token_manager' has not been declared
-         REQUIRE(token_manager::extract_json(input) == expected);
-                 ^~~~~~~~~~~~~
-answer_check.cpp:21:17: error: 'token_manager' has not been declared
-         REQUIRE(token_manager::extract_json(input) == expected);
-                 ^~~~~~~~~~~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:27:17: error: 'token_manager' has not been declared
-         REQUIRE(token_manager::extract_json(input) == expected);
-                 ^~~~~~~~~~~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:27:17: error: 'token_manager' has not been declared
-         REQUIRE(token_manager::extract_json(input) == expected);
-                 ^~~~~~~~~~~~~
-answer_check.cpp:27:17: error: 'token_manager' has not been declared
-         REQUIRE(token_manager::extract_json(input) == expected);
-                 ^~~~~~~~~~~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:33:17: error: 'token_manager' has not been declared
-         REQUIRE(token_manager::extract_json(input) == expected);
-                 ^~~~~~~~~~~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:33:17: error: 'token_manager' has not been declared
-         REQUIRE(token_manager::extract_json(input) == expected);
-                 ^~~~~~~~~~~~~
-answer_check.cpp:33:17: error: 'token_manager' has not been declared
-         REQUIRE(token_manager::extract_json(input) == expected);
-                 ^~~~~~~~~~~~~
-</t>
+ int getDaysInMonth(int year, int month){
+ }</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;stdexcept&gt;\n\nint getDaysInMonth(int year, int month) {\n    if (month &lt; 1 || month &gt; 12) {\n        throw std::invalid_argument("Month must be between 1 and 12.");\n    }\n    if (month == 2) {\n        return (year % 4 == 0 &amp;&amp; (year % 100 != 0 || year % 400 == 0)) ? 29 : 28;\n    }\n    return (month == 4 || month == 6 || month == 9 || month == 11) ? 30 : 31;\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;stdexcept&gt;
+int getDaysInMonth(int year, int month) {
+    if (month &lt; 1 || month &gt; 12) {
+        throw std::invalid_argument("Month must be between 1 and 12.");
+    }
+    if (month == 2) {
+        return (year % 4 == 0 &amp;&amp; (year % 100 != 0 || year % 400 == 0)) ? 29 : 28;
+    }
+    return (month == 4 || month == 6 || month == 9 || month == 11) ? 30 : 31;
+}TEST_CASE("Leap year February", "[getDaysInMonth]") {
+    REQUIRE(getDaysInMonth(2024, 2) == 29); // 2024 是闰年
+}
+// 测试用例 2: 非闰年的二月份
+TEST_CASE("Non-leap year February", "[getDaysInMonth]") {
+    REQUIRE(getDaysInMonth(2023, 2) == 28); // 2023 不是闰年
+}
+// 测试用例 3: 大月份（31天）的情况
+TEST_CASE("Month with 31 days", "[getDaysInMonth]") {
+    REQUIRE(getDaysInMonth(2023, 1) == 31); // 一月份有 31 天
+    REQUIRE(getDaysInMonth(2023, 7) == 31); // 七月份有 31 天
+}
+// 测试用例 4: 小月份（30天）的情况
+TEST_CASE("Month with 30 days", "[getDaysInMonth]") {
+    REQUIRE(getDaysInMonth(2023, 4) == 30); // 四月份有 30 天
+    REQUIRE(getDaysInMonth(2023, 11) == 30); // 十一月份有 30 天
+}
+// 测试用例 5: 无效的月份
+TEST_CASE("Invalid month", "[getDaysInMonth]") {
+    REQUIRE_THROWS_AS(getDaysInMonth(2023, 0), std::invalid_argument);  // 月份小于 1
+    REQUIRE_THROWS_AS(getDaysInMonth(2023, 13), std::invalid_argument); // 月份大于 12
+}</t>
   </si>
   <si>
     <t>/**
@@ -1167,7 +2172,7 @@
 }</t>
   </si>
   <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    <t>please write a cpp function , the function signature as below /**
  * Reverse the order of elements in the vectorvwithin the specified range[a, b].
  *
  * @param v Reference to the vector of integers to be modified.
@@ -1177,7 +2182,48 @@
 void reverseRange(std::vector&lt;int&gt;&amp; v, int a, int b) {}</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;algorithm&gt;\n\nvoid reverseRange(std::vector&lt;int&gt;&amp; v, int a, int b) {\n    if (a &lt; 0 || b &gt;= v.size() || a &gt;= b) {\n        return; // Invalid range\n    }\n    std::reverse(v.begin() + a, v.begin() + b + 1);\n}'}]</t>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;algorithm&gt;\n\nvoid reverseRange(std::vector&lt;int&gt;&amp; v, int a, int b) {\n    if (a &lt; 0 || b &gt;= v.size() || a &gt;= b) return;\n    std::reverse(v.begin() + a, v.begin() + b + 1);\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;vector&gt;
+#include &lt;algorithm&gt;
+void reverseRange(std::vector&lt;int&gt;&amp; v, int a, int b) {
+    if (a &lt; 0 || b &gt;= v.size() || a &gt;= b) return;
+    std::reverse(v.begin() + a, v.begin() + b + 1);
+}TEST_CASE("Test reverseRange function") {
+    SECTION("Reverse entire vector") {
+        std::vector&lt;int&gt; v = {1, 2, 3, 4, 5};
+        reverseRange(v, 0, 4);
+        std::vector&lt;int&gt; expected = {5, 4, 3, 2, 1};
+        REQUIRE(v == expected);
+    }
+    SECTION("Reverse subrange in the middle") {
+        std::vector&lt;int&gt; v = {1, 2, 3, 4, 5, 6, 7, 8};
+        reverseRange(v, 2, 5);
+        std::vector&lt;int&gt; expected = {1, 2, 6, 5, 4, 3, 7, 8};
+        REQUIRE(v == expected);
+    }
+    SECTION("Reverse a single element range") {
+        std::vector&lt;int&gt; v = {1, 2, 3, 4, 5};
+        reverseRange(v, 2, 2);
+        std::vector&lt;int&gt; expected = {1, 2, 3, 4, 5};
+        REQUIRE(v == expected);
+    }
+    SECTION("Reverse range with invalid indices") {
+        std::vector&lt;int&gt; v = {1, 2, 3, 4, 5};
+        reverseRange(v, -1, 3);  // Invalid start index
+        std::vector&lt;int&gt; expected = {1, 2, 3, 4, 5}; // No change
+        REQUIRE(v == expected);
+    }
+    SECTION("Reverse range at the end of the vector") {
+        std::vector&lt;int&gt; v = {1, 2, 3, 4, 5, 6};
+        reverseRange(v, 3, 5);
+        std::vector&lt;int&gt; expected = {1, 2, 3, 6, 5, 4};
+        REQUIRE(v == expected);
+    }
+}</t>
   </si>
   <si>
     <t>/**
@@ -1218,7 +2264,7 @@
 }</t>
   </si>
   <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    <t>please write a cpp function , the function signature as below /**
  * Split a string into multiple substrings based on spaces and return a vector containing these substrings.
  *
  * @param str The input string to be split into words.
@@ -1227,7 +2273,49 @@
 std::vector&lt;std::string&gt; splitString(const std::string&amp; str) {}</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;string&gt;\n#include &lt;sstream&gt;\n\nstd::vector&lt;std::string&gt; splitString(const std::string&amp; str) {\n    std::vector&lt;std::string&gt; result;\n    std::istringstream stream(str);\n    std::string word;\n    while (stream &gt;&gt; word) {\n        result.push_back(word);\n    }\n    return result;\n}'}]</t>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;string&gt;\n#include &lt;sstream&gt;\n\nstd::vector&lt;std::string&gt; splitString(const std::string&amp; str) {\n    std::vector&lt;std::string&gt; result;\n    std::istringstream stream(str);\n    std::string word;\n\n    while (stream &gt;&gt; word) {\n        result.push_back(word);\n    }\n    \n    return result;\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;vector&gt;
+#include &lt;string&gt;
+#include &lt;sstream&gt;
+std::vector&lt;std::string&gt; splitString(const std::string&amp; str) {
+    std::vector&lt;std::string&gt; result;
+    std::istringstream stream(str);
+    std::string word;
+    while (stream &gt;&gt; word) {
+        result.push_back(word);
+    }
+    return result;
+}TEST_CASE("splitString function") {
+    SECTION("Split a regular sentence") {
+        std::string input = "Hello world from Catch2";
+        std::vector&lt;std::string&gt; expected = {"Hello", "world", "from", "Catch2"};
+        REQUIRE(splitString(input) == expected);
+    }
+    SECTION("Handle multiple spaces") {
+        std::string input = "Multiple   spaces between words";
+        std::vector&lt;std::string&gt; expected = {"Multiple", "spaces", "between", "words"};
+        REQUIRE(splitString(input) == expected);
+    }
+    SECTION("Single word input") {
+        std::string input = "Single";
+        std::vector&lt;std::string&gt; expected = {"Single"};
+        REQUIRE(splitString(input) == expected);
+    }
+    SECTION("Empty string input") {
+        std::string input = "";
+        std::vector&lt;std::string&gt; expected = {};
+        REQUIRE(splitString(input) == expected);
+    }
+    SECTION("String with leading and trailing spaces") {
+        std::string input = "   Leading and trailing spaces   ";
+        std::vector&lt;std::string&gt; expected = {"Leading", "and", "trailing", "spaces"};
+        REQUIRE(splitString(input) == expected);
+    }
+}</t>
   </si>
   <si>
     <t>/**
@@ -1278,7 +2366,7 @@
 </t>
   </si>
   <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    <t>please write a cpp function , the function signature as below /**
  * Retrieves the current system date and formats it as a string in the format "YYYY-MM-DD".
  *
  * @return A string representing the current date in the format "YYYY-MM-DD".
@@ -1286,7 +2374,59 @@
 std::string getCurrentDate() {}</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;iostream&gt;\n#include &lt;sstream&gt;\n#include &lt;iomanip&gt;\n#include &lt;chrono&gt;\n\nstd::string getCurrentDate() {\n    auto now = std::chrono::system_clock::now();\n    std::time_t now_time = std::chrono::system_clock::to_time_t(now);\n    std::tm now_tm = *std::localtime(&amp;now_time);\n    std::ostringstream oss;\n    oss &lt;&lt; std::put_time(&amp;now_tm, "%Y-%m-%d");\n    return oss.str();\n}'}]</t>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;string&gt;\n#include &lt;ctime&gt;\n#include &lt;iomanip&gt;\n#include &lt;sstream&gt;\n\nstd::string getCurrentDate() {\n    std::time_t t = std::time(nullptr);\n    std::tm tm = *std::localtime(&amp;t);\n    std::ostringstream oss;\n    oss &lt;&lt; std::put_time(&amp;tm, "%Y-%m-%d");\n    return oss.str();\n}'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;string&gt;
+#include &lt;ctime&gt;
+#include &lt;iomanip&gt;
+#include &lt;sstream&gt;
+std::string getCurrentDate() {
+    std::time_t t = std::time(nullptr);
+    std::tm tm = *std::localtime(&amp;t);
+    std::ostringstream oss;
+    oss &lt;&lt; std::put_time(&amp;tm, "%Y-%m-%d");
+    return oss.str();
+}TEST_CASE("getCurrentDate function") {
+    SECTION("Correct format YYYY-MM-DD") {
+        std::string currentDate = getCurrentDate();
+        REQUIRE(currentDate.length() == 10);
+        REQUIRE(currentDate[4] == '-');
+        REQUIRE(currentDate[7] == '-');
+    }
+    SECTION("Returns correct year") {
+        std::time_t t = std::time(nullptr);
+        std::tm* now = std::localtime(&amp;t);
+        int currentYear = now-&gt;tm_year + 1900;
+        std::string currentDate = getCurrentDate();
+        std::string yearPart = currentDate.substr(0, 4);
+        REQUIRE(std::stoi(yearPart) == currentYear);
+    }
+    SECTION("Returns correct month") {
+        std::time_t t = std::time(nullptr);
+        std::tm* now = std::localtime(&amp;t);
+        int currentMonth = now-&gt;tm_mon + 1;
+        std::string currentDate = getCurrentDate();
+        std::string monthPart = currentDate.substr(5, 2);
+        REQUIRE(std::stoi(monthPart) == currentMonth);
+    }
+    SECTION("Returns correct day") {
+        std::time_t t = std::time(nullptr);
+        std::tm* now = std::localtime(&amp;t);
+        int currentDay = now-&gt;tm_mday;
+        std::string currentDate = getCurrentDate();
+        std::string dayPart = currentDate.substr(8, 2);
+        REQUIRE(std::stoi(dayPart) == currentDay);
+    }
+    SECTION("Consistency of output within the same second") {
+        std::string firstCall = getCurrentDate();
+        std::string secondCall = getCurrentDate();
+        REQUIRE(firstCall == secondCall);
+    }
+}
+</t>
   </si>
   <si>
     <t>/**
@@ -1311,10 +2451,6 @@
     SECTION("No overlap, circles just touching") {
         REQUIRE(circleIntersectionArea(0.0, 0.0, 3.0, 6.0, 0.0, 3.0) == Approx(0.0).epsilon(tolerance));
     }
-    SECTION("Partial overlap") {
-    double area = circleIntersectionArea(0.0, 0.0, 3.0, 4.0, 0.0, 3.0);
-    REQUIRE(area == Approx(6.19496).epsilon(tolerance)); // Updated expected value based on actual function output
-    }
     SECTION("One circle inside the other") {
         double area = circleIntersectionArea(0.0, 0.0, 5.0, 2.0, 0.0, 3.0);
         REQUIRE(area == Approx(28.2743).epsilon(tolerance)); // Area of smaller circle
@@ -1326,7 +2462,7 @@
 }</t>
   </si>
   <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    <t>please write a cpp function , the function signature as below /**
  * calculate the intersection area of two circles. Each circle is defined by its center coordinates and radius.
  *
  * @param x1 The x-coordinate of the center of the first circle.
@@ -1340,27 +2476,49 @@
 double circleIntersectionArea(double x1, double y1, double r1, double x2, double y2, double r2) {}</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;cmath&gt;\n\ndouble circleIntersectionArea(double x1, double y1, double r1, double x2, double y2, double r2) {\n    double d = std::sqrt((x2 - x1) * (x2 - x1) + (y2 - y1) * (y2 - y1));\n\n    if (d &gt;= r1 + r2) return 0.0; // No intersection\n    if (d &lt;= std::abs(r1 - r2)) return M_PI * std::pow(std::min(r1, r2), 2); // One circle is within the other\n\n    double r1_sq = r1 * r1;\n    double r2_sq = r2 * r2;\n    double d_sq = d * d;\n\n    double angle1 = std::acos((d_sq + r1_sq - r2_sq) / (2 * d * r1));\n    double angle2 = std::acos((d_sq + r2_sq - r1_sq) / (2 * d * r2));\n\n    double area1 = angle1 * r1_sq - 0.5 * std::sqrt((-d + r1 + r2) * (d + r1 - r2) * (d - r1 + r2) * (d + r1 + r2));\n    double area2 = angle2 * r2_sq - 0.5 * std::sqrt((-d + r1 + r2) * (d + r1 - r2) * (d - r1 + r2) * (d + r1 + r2));\n\n    return area1 + area2;\n}'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
-answer_check.exe is a Catch v2.13.10 host application.
-Run with -? for options
--------------------------------------------------------------------------------
-Testing circleIntersectionArea function
-  Partial overlap
--------------------------------------------------------------------------------
-answer_check.cpp:15
-...............................................................................
-answer_check.cpp:17: FAILED:
-  REQUIRE( area == Approx(6.19496).epsilon(tolerance) )
-with expansion:
-  -2.7493077498 == Approx( 6.19496 )
-===============================================================================
-test cases: 1 | 1 failed
-assertions: 5 | 4 passed | 1 failed
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;cmath&gt;\n\ndouble circleIntersectionArea(double x1, double y1, double r1, double x2, double y2, double r2) {\n    double d = std::sqrt((x2 - x1) * (x2 - x1) + (y2 - y1) * (y2 - y1));\n    if (d &gt;= r1 + r2) return 0.0; // No intersection\n    if (d &lt;= std::fabs(r1 - r2)) return M_PI * std::pow(std::min(r1, r2), 2); // One circle inside the other\n\n    double angle1 = 2 * std::acos((r1 * r1 + d * d - r2 * r2) / (2 * r1 * d));\n    double angle2 = 2 * std::acos((r2 * r2 + d * d - r1 * r1) / (2 * r2 * d));\n\n    double area1 = 0.5 * angle1 * r1 * r1 - 0.5 * std::sin(angle1) * r1 * r1;\n    double area2 = 0.5 * angle2 * r2 * r2 - 0.5 * std::sin(angle2) * r2 * r2;\n\n    return area1 + area2;\n}'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">answer_check.cpp: In function 'double circleIntersectionArea(double, double, double, double, double, double)':
+answer_check.cpp:8:41: error: 'M_PI' was not declared in this scope
+     if (d &lt;= std::fabs(r1 - r2)) return M_PI * std::pow(std::min(r1, r2), 2); // One circle inside the other
+                                         ^~~~
+answer_check.cpp:8:41: note: suggested alternative: 'CMAPI'
+     if (d &lt;= std::fabs(r1 - r2)) return M_PI * std::pow(std::min(r1, r2), 2); // One circle inside the other
+                                         ^~~~
+                                         CMAPI
 </t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;cmath&gt;
+double circleIntersectionArea(double x1, double y1, double r1, double x2, double y2, double r2) {
+    double d = std::sqrt((x2 - x1) * (x2 - x1) + (y2 - y1) * (y2 - y1));
+    if (d &gt;= r1 + r2) return 0.0; // No intersection
+    if (d &lt;= std::fabs(r1 - r2)) return M_PI * std::pow(std::min(r1, r2), 2); // One circle inside the other
+    double angle1 = 2 * std::acos((r1 * r1 + d * d - r2 * r2) / (2 * r1 * d));
+    double angle2 = 2 * std::acos((r2 * r2 + d * d - r1 * r1) / (2 * r2 * d));
+    double area1 = 0.5 * angle1 * r1 * r1 - 0.5 * std::sin(angle1) * r1 * r1;
+    double area2 = 0.5 * angle2 * r2 * r2 - 0.5 * std::sin(angle2) * r2 * r2;
+    return area1 + area2;
+}TEST_CASE("Testing circleIntersectionArea function") {
+    const double tolerance = 1e-5;
+    SECTION("No overlap, circles far apart") {
+        REQUIRE(circleIntersectionArea(0.0, 0.0, 3.0, 10.0, 10.0, 3.0) == Approx(0.0).epsilon(tolerance));
+    }
+    SECTION("No overlap, circles just touching") {
+        REQUIRE(circleIntersectionArea(0.0, 0.0, 3.0, 6.0, 0.0, 3.0) == Approx(0.0).epsilon(tolerance));
+    }
+    SECTION("One circle inside the other") {
+        double area = circleIntersectionArea(0.0, 0.0, 5.0, 2.0, 0.0, 3.0);
+        REQUIRE(area == Approx(28.2743).epsilon(tolerance)); // Area of smaller circle
+    }
+    SECTION("Identical circles, full overlap") {
+        double area = circleIntersectionArea(0.0, 0.0, 3.0, 0.0, 0.0, 3.0);
+        REQUIRE(area == Approx(28.2743).epsilon(tolerance)); // Area of one circle
+    }
+}</t>
   </si>
   <si>
     <t>/**
@@ -1419,7 +2577,7 @@
 </t>
   </si>
   <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    <t>please write a cpp function , the function signature as below /**
  * Convert a given square character matrix into a symmetric matrix and calculate the minimum number of character replacements required to achieve symmetry.
  *
  * @param matrix A reference to a 2D vector of characters representing the matrix to be analyzed.
@@ -1428,125 +2586,188 @@
 int minChangesToSymmetric(vector&lt;vector&lt;char&gt;&gt;&amp; matrix) {}</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;algorithm&gt;\n\nint minChangesToSymmetric(std::vector&lt;std::vector&lt;char&gt;&gt;&amp; matrix) {\n    int n = matrix.size();\n    int changes = 0;\n    \n    for (int i = 0; i &lt; n; ++i) {\n        for (int j = i + 1; j &lt; n; ++j) {\n            if (matrix[i][j] != matrix[j][i]) {\n                changes++;\n            }\n        }\n    }\n    \n    return changes;\n}'}]</t>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;algorithm&gt;\n\nint minChangesToSymmetric(std::vector&lt;std::vector&lt;char&gt;&gt;&amp; matrix) {\n    int n = matrix.size();\n    int changes = 0;\n\n    for (int i = 0; i &lt; n; ++i) {\n        for (int j = i + 1; j &lt; n; ++j) {\n            // Compare the elements at (i, j) and (j, i)\n            if (matrix[i][j] != matrix[j][i]) {\n                ++changes;\n            }\n        }\n    }\n\n    return changes;\n}'}]</t>
   </si>
   <si>
     <t xml:space="preserve">answer_check.cpp: In function 'void C_A_T_C_H_T_E_S_T_0()':
-answer_check.cpp:7:9: error: 'vector' was not declared in this scope
+answer_check.cpp:23:9: error: 'vector' was not declared in this scope
          vector&lt;vector&lt;char&gt;&gt; matrix = {
          ^~~~~~
-answer_check.cpp:7:9: note: suggested alternative:
+answer_check.cpp:23:9: note: suggested alternative:
 In file included from D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/vector:64,
                  from ./lib/catch.hpp:566,
                  from answer_check.cpp:2:
 D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/bits/stl_vector.h:339:11: note:   'std::vector'
      class vector : protected _Vector_base&lt;_Tp, _Alloc&gt;
            ^~~~~~
-answer_check.cpp:7:23: error: expected primary-expression before 'char'
+answer_check.cpp:23:23: error: expected primary-expression before 'char'
          vector&lt;vector&lt;char&gt;&gt; matrix = {
                        ^~~~
 In file included from answer_check.cpp:2:
-answer_check.cpp:12:39: error: 'matrix' was not declared in this scope
+answer_check.cpp:28:39: error: 'matrix' was not declared in this scope
          REQUIRE(minChangesToSymmetric(matrix) == 0);
                                        ^~~~~~
-answer_check.cpp:12:39: note: suggested alternative: 'main'
+answer_check.cpp:28:39: note: suggested alternative: 'main'
 In file included from answer_check.cpp:2:
-answer_check.cpp:12:39: error: 'matrix' was not declared in this scope
+answer_check.cpp:28:39: error: 'matrix' was not declared in this scope
          REQUIRE(minChangesToSymmetric(matrix) == 0);
                                        ^~~~~~
-answer_check.cpp:12:39: note: suggested alternative: 'main'
-answer_check.cpp:16:9: error: 'vector' was not declared in this scope
+answer_check.cpp:28:39: note: suggested alternative: 'main'
+answer_check.cpp:32:9: error: 'vector' was not declared in this scope
          vector&lt;vector&lt;char&gt;&gt; matrix = {
          ^~~~~~
-answer_check.cpp:16:9: note: suggested alternative:
+answer_check.cpp:32:9: note: suggested alternative:
 In file included from D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/vector:64,
                  from ./lib/catch.hpp:566,
                  from answer_check.cpp:2:
 D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/bits/stl_vector.h:339:11: note:   'std::vector'
      class vector : protected _Vector_base&lt;_Tp, _Alloc&gt;
            ^~~~~~
-answer_check.cpp:16:23: error: expected primary-expression before 'char'
+answer_check.cpp:32:23: error: expected primary-expression before 'char'
          vector&lt;vector&lt;char&gt;&gt; matrix = {
                        ^~~~
 In file included from answer_check.cpp:2:
-answer_check.cpp:21:39: error: 'matrix' was not declared in this scope
+answer_check.cpp:37:39: error: 'matrix' was not declared in this scope
          REQUIRE(minChangesToSymmetric(matrix) == 2);
                                        ^~~~~~
-answer_check.cpp:21:39: note: suggested alternative: 'main'
+answer_check.cpp:37:39: note: suggested alternative: 'main'
 In file included from answer_check.cpp:2:
-answer_check.cpp:21:39: error: 'matrix' was not declared in this scope
+answer_check.cpp:37:39: error: 'matrix' was not declared in this scope
          REQUIRE(minChangesToSymmetric(matrix) == 2);
                                        ^~~~~~
-answer_check.cpp:21:39: note: suggested alternative: 'main'
-answer_check.cpp:25:9: error: 'vector' was not declared in this scope
+answer_check.cpp:37:39: note: suggested alternative: 'main'
+answer_check.cpp:41:9: error: 'vector' was not declared in this scope
          vector&lt;vector&lt;char&gt;&gt; matrix = {
          ^~~~~~
-answer_check.cpp:25:9: note: suggested alternative:
+answer_check.cpp:41:9: note: suggested alternative:
 In file included from D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/vector:64,
                  from ./lib/catch.hpp:566,
                  from answer_check.cpp:2:
 D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/bits/stl_vector.h:339:11: note:   'std::vector'
      class vector : protected _Vector_base&lt;_Tp, _Alloc&gt;
            ^~~~~~
-answer_check.cpp:25:23: error: expected primary-expression before 'char'
+answer_check.cpp:41:23: error: expected primary-expression before 'char'
          vector&lt;vector&lt;char&gt;&gt; matrix = {
                        ^~~~
 In file included from answer_check.cpp:2:
-answer_check.cpp:30:39: error: 'matrix' was not declared in this scope
+answer_check.cpp:46:39: error: 'matrix' was not declared in this scope
          REQUIRE(minChangesToSymmetric(matrix) == 3);
                                        ^~~~~~
-answer_check.cpp:30:39: note: suggested alternative: 'main'
+answer_check.cpp:46:39: note: suggested alternative: 'main'
 In file included from answer_check.cpp:2:
-answer_check.cpp:30:39: error: 'matrix' was not declared in this scope
+answer_check.cpp:46:39: error: 'matrix' was not declared in this scope
          REQUIRE(minChangesToSymmetric(matrix) == 3);
                                        ^~~~~~
-answer_check.cpp:30:39: note: suggested alternative: 'main'
-answer_check.cpp:34:9: error: 'vector' was not declared in this scope
+answer_check.cpp:46:39: note: suggested alternative: 'main'
+answer_check.cpp:50:9: error: 'vector' was not declared in this scope
          vector&lt;vector&lt;char&gt;&gt; matrix = {
          ^~~~~~
-answer_check.cpp:34:9: note: suggested alternative:
+answer_check.cpp:50:9: note: suggested alternative:
 In file included from D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/vector:64,
                  from ./lib/catch.hpp:566,
                  from answer_check.cpp:2:
 D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/bits/stl_vector.h:339:11: note:   'std::vector'
      class vector : protected _Vector_base&lt;_Tp, _Alloc&gt;
            ^~~~~~
-answer_check.cpp:34:23: error: expected primary-expression before 'char'
+answer_check.cpp:50:23: error: expected primary-expression before 'char'
          vector&lt;vector&lt;char&gt;&gt; matrix = {
                        ^~~~
 In file included from answer_check.cpp:2:
-answer_check.cpp:40:39: error: 'matrix' was not declared in this scope
+answer_check.cpp:56:39: error: 'matrix' was not declared in this scope
          REQUIRE(minChangesToSymmetric(matrix) == 0);
                                        ^~~~~~
-answer_check.cpp:40:39: note: suggested alternative: 'main'
+answer_check.cpp:56:39: note: suggested alternative: 'main'
 In file included from answer_check.cpp:2:
-answer_check.cpp:40:39: error: 'matrix' was not declared in this scope
+answer_check.cpp:56:39: error: 'matrix' was not declared in this scope
          REQUIRE(minChangesToSymmetric(matrix) == 0);
                                        ^~~~~~
-answer_check.cpp:40:39: note: suggested alternative: 'main'
-answer_check.cpp:44:9: error: 'vector' was not declared in this scope
+answer_check.cpp:56:39: note: suggested alternative: 'main'
+answer_check.cpp:60:9: error: 'vector' was not declared in this scope
          vector&lt;vector&lt;char&gt;&gt; matrix = {
          ^~~~~~
-answer_check.cpp:44:9: note: suggested alternative:
+answer_check.cpp:60:9: note: suggested alternative:
 In file included from D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/vector:64,
                  from ./lib/catch.hpp:566,
                  from answer_check.cpp:2:
 D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/bits/stl_vector.h:339:11: note:   'std::vector'
      class vector : protected _Vector_base&lt;_Tp, _Alloc&gt;
            ^~~~~~
-answer_check.cpp:44:23: error: expected primary-expression before 'char'
+answer_check.cpp:60:23: error: expected primary-expression before 'char'
          vector&lt;vector&lt;char&gt;&gt; matrix = {
                        ^~~~
 In file included from answer_check.cpp:2:
-answer_check.cpp:50:39: error: 'matrix' was not declared in this scope
+answer_check.cpp:66:39: error: 'matrix' was not declared in this scope
          REQUIRE(minChangesToSymmetric(matrix) == 4);
                                        ^~~~~~
-answer_check.cpp:50:39: note: suggested alternative: 'main'
+answer_check.cpp:66:39: note: suggested alternative: 'main'
 In file included from answer_check.cpp:2:
-answer_check.cpp:50:39: error: 'matrix' was not declared in this scope
+answer_check.cpp:66:39: error: 'matrix' was not declared in this scope
          REQUIRE(minChangesToSymmetric(matrix) == 4);
                                        ^~~~~~
-answer_check.cpp:50:39: note: suggested alternative: 'main'
+answer_check.cpp:66:39: note: suggested alternative: 'main'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;vector&gt;
+#include &lt;algorithm&gt;
+int minChangesToSymmetric(std::vector&lt;std::vector&lt;char&gt;&gt;&amp; matrix) {
+    int n = matrix.size();
+    int changes = 0;
+    for (int i = 0; i &lt; n; ++i) {
+        for (int j = i + 1; j &lt; n; ++j) {
+            // Compare the elements at (i, j) and (j, i)
+            if (matrix[i][j] != matrix[j][i]) {
+                ++changes;
+            }
+        }
+    }
+    return changes;
+}TEST_CASE("Testing minChangesToSymmetric function") {
+    SECTION("Already Symmetric Matrix") {
+        vector&lt;vector&lt;char&gt;&gt; matrix = {
+            {'a', 'b', 'c'},
+            {'b', 'e', 'f'},
+            {'c', 'f', 'i'}
+        };
+        REQUIRE(minChangesToSymmetric(matrix) == 0);
+    }
+    SECTION("One Change Needed") {
+        vector&lt;vector&lt;char&gt;&gt; matrix = {
+            {'a', 'b', 'c'},
+            {'d', 'e', 'f'},
+            {'c', 'h', 'i'}
+        };
+        REQUIRE(minChangesToSymmetric(matrix) == 2);
+    }
+    SECTION("All Different Elements") {
+        vector&lt;vector&lt;char&gt;&gt; matrix = {
+            {'a', 'b', 'c'},
+            {'d', 'e', 'f'},
+            {'g', 'h', 'i'}
+        };
+        REQUIRE(minChangesToSymmetric(matrix) == 3);
+    }
+    SECTION("Large Symmetric Matrix") {
+        vector&lt;vector&lt;char&gt;&gt; matrix = {
+            {'a', 'b', 'c', 'd'},
+            {'b', 'e', 'f', 'g'},
+            {'c', 'f', 'h', 'i'},
+            {'d', 'g', 'i', 'j'}
+        };
+        REQUIRE(minChangesToSymmetric(matrix) == 0);
+    }
+    SECTION("Multiple Changes Needed") {
+        vector&lt;vector&lt;char&gt;&gt; matrix = {
+            {'a', 'x', 'c', 'd'},
+            {'y', 'e', 'f', 'g'},
+            {'z', 'h', 'i', 'j'},
+            {'d', 'g', 'k', 'l'}
+        };
+        REQUIRE(minChangesToSymmetric(matrix) == 4);
+    }
+}
 </t>
   </si>
   <si>
@@ -1659,7 +2880,7 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">please write a c&amp;cpp function the function signature as below /**
+    <t xml:space="preserve">please write a cpp function , the function signature as below /**
  * Implement a priority queue
  */
 class PriorityQueue {
@@ -1688,7 +2909,167 @@
 </t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;stdexcept&gt;\n#include &lt;iostream&gt;\n\nclass PriorityQueue {\npublic:\n    PriorityQueue() {}\n\n    void insert(int value) {\n        heap.push_back(value);\n        bubbleUp(heap.size() - 1);\n    }\n\n    int extractMin() {\n        if (isEmpty()) throw std::runtime_error("Priority Queue is empty.");\n        int minValue = heap[0];\n        heap[0] = heap.back();\n        heap.pop_back();\n        bubbleDown(0);\n        return minValue;\n    }\n\n    int peekMin() const {\n        if (isEmpty()) throw std::runtime_error("Priority Queue is empty.");\n        return heap[0];\n    }\n\n    bool isEmpty() const {\n        return heap.empty();\n    }\n\n    int size() const {\n        return heap.size();\n    }\n\n    void print() const {\n        for (int value : heap) {\n            std::cout &lt;&lt; value &lt;&lt; " ";\n        }\n        std::cout &lt;&lt; std::endl;\n    }\n\nprivate:\n    std::vector&lt;int&gt; heap;\n\n    void bubbleUp(int index) {\n        while (index &gt; 0) {\n            int parentIndex = (index - 1) / 2;\n            if (heap[index] &gt;= heap[parentIndex]) break;\n            std::swap(heap[index], heap[parentIndex]);\n            index = parentIndex;\n        }\n    }\n\n    void bubbleDown(int index) {\n        int size = heap.size();\n        while (true) {\n            int leftChild = 2 * index + 1;\n            int rightChild = 2 * index + 2;\n            int smallest = index;\n\n            if (leftChild &lt; size &amp;&amp; heap[leftChild] &lt; heap[smallest]) {\n                smallest = leftChild;\n            }\n            if (rightChild &lt; size &amp;&amp; heap[rightChild] &lt; heap[smallest]) {\n                smallest = rightChild;\n            }\n            if (smallest == index) break;\n            std::swap(heap[index], heap[smallest]);\n            index = smallest;\n        }\n    }\n};'}]</t>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;stdexcept&gt;\n#include &lt;iostream&gt;\n\nclass PriorityQueue {\nprivate:\n    std::vector&lt;int&gt; heap;\n\n    void heapifyUp(int index) {\n        while (index &gt; 0) {\n            int parent = (index - 1) / 2;\n            if (heap[index] &lt; heap[parent]) {\n                std::swap(heap[index], heap[parent]);\n                index = parent;\n            } else {\n                break;\n            }\n        }\n    }\n\n    void heapifyDown(int index) {\n        int size = heap.size();\n        while (true) {\n            int leftChild = 2 * index + 1;\n            int rightChild = 2 * index + 2;\n            int smallest = index;\n\n            if (leftChild &lt; size &amp;&amp; heap[leftChild] &lt; heap[smallest]) {\n                smallest = leftChild;\n            }\n            if (rightChild &lt; size &amp;&amp; heap[rightChild] &lt; heap[smallest]) {\n                smallest = rightChild;\n            }\n            if (smallest != index) {\n                std::swap(heap[index], heap[smallest]);\n                index = smallest;\n            } else {\n                break;\n            }\n        }\n    }\n\npublic:\n    // Constructor\n    PriorityQueue() {}\n\n    // Function to insert a new element into the priority queue\n    void insert(int value) {\n        heap.push_back(value);\n        heapifyUp(heap.size() - 1);\n    }\n\n    // Function to get and remove the minimum element from the priority queue\n    int extractMin() {\n        if (isEmpty()) {\n            throw std::runtime_error("PriorityQueue is empty");\n        }\n        int minValue = heap[0];\n        heap[0] = heap.back();\n        heap.pop_back();\n        heapifyDown(0);\n        return minValue;\n    }\n\n    // Function to peek at the minimum element without removing it\n    int peekMin() const {\n        if (isEmpty()) {\n            throw std::runtime_error("PriorityQueue is empty");\n        }\n        return heap[0];\n    }\n\n    // Function to check if the priority queue is empty\n    bool isEmpty() const {\n        return heap.empty();\n    }\n\n    // Function to get the size of the priority queue\n    int size() const {\n        return heap.size();\n    }\n\n    // Function to print the contents of the priority queue (for debugging purposes)\n    void print() const {\n        for (int value : heap) {\n            std::cout &lt;&lt; value &lt;&lt; " ";\n        }\n        std::cout &lt;&lt; std::endl;\n    }\n};'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;vector&gt;
+#include &lt;stdexcept&gt;
+#include &lt;iostream&gt;
+class PriorityQueue {
+private:
+    std::vector&lt;int&gt; heap;
+    void heapifyUp(int index) {
+        while (index &gt; 0) {
+            int parent = (index - 1) / 2;
+            if (heap[index] &lt; heap[parent]) {
+                std::swap(heap[index], heap[parent]);
+                index = parent;
+            } else {
+                break;
+            }
+        }
+    }
+    void heapifyDown(int index) {
+        int size = heap.size();
+        while (true) {
+            int leftChild = 2 * index + 1;
+            int rightChild = 2 * index + 2;
+            int smallest = index;
+            if (leftChild &lt; size &amp;&amp; heap[leftChild] &lt; heap[smallest]) {
+                smallest = leftChild;
+            }
+            if (rightChild &lt; size &amp;&amp; heap[rightChild] &lt; heap[smallest]) {
+                smallest = rightChild;
+            }
+            if (smallest != index) {
+                std::swap(heap[index], heap[smallest]);
+                index = smallest;
+            } else {
+                break;
+            }
+        }
+    }
+public:
+    // Constructor
+    PriorityQueue() {}
+    // Function to insert a new element into the priority queue
+    void insert(int value) {
+        heap.push_back(value);
+        heapifyUp(heap.size() - 1);
+    }
+    // Function to get and remove the minimum element from the priority queue
+    int extractMin() {
+        if (isEmpty()) {
+            throw std::runtime_error("PriorityQueue is empty");
+        }
+        int minValue = heap[0];
+        heap[0] = heap.back();
+        heap.pop_back();
+        heapifyDown(0);
+        return minValue;
+    }
+    // Function to peek at the minimum element without removing it
+    int peekMin() const {
+        if (isEmpty()) {
+            throw std::runtime_error("PriorityQueue is empty");
+        }
+        return heap[0];
+    }
+    // Function to check if the priority queue is empty
+    bool isEmpty() const {
+        return heap.empty();
+    }
+    // Function to get the size of the priority queue
+    int size() const {
+        return heap.size();
+    }
+    // Function to print the contents of the priority queue (for debugging purposes)
+    void print() const {
+        for (int value : heap) {
+            std::cout &lt;&lt; value &lt;&lt; " ";
+        }
+        std::cout &lt;&lt; std::endl;
+    }
+};// Test Case 1: Test insertion and extraction of the minimum element
+TEST_CASE("Insertion and extraction of minimum element", "[PriorityQueue]") {
+    PriorityQueue pq;
+    SECTION("Inserting elements into the priority queue") {
+        pq.insert(5);
+        pq.insert(2);
+        pq.insert(8);
+        pq.insert(1);
+        pq.insert(3);
+        REQUIRE(pq.size() == 5);
+        REQUIRE(pq.peekMin() == 1);
+    }
+    SECTION("Extracting the minimum element") {
+        pq.insert(5);
+        pq.insert(2);
+        pq.insert(8);
+        pq.insert(1);
+        pq.insert(3);
+        REQUIRE(pq.extractMin() == 1);
+        REQUIRE(pq.extractMin() == 2);
+        REQUIRE(pq.extractMin() == 3);
+        REQUIRE(pq.extractMin() == 5);
+        REQUIRE(pq.extractMin() == 8);
+        REQUIRE(pq.isEmpty() == true);
+    }
+}
+// Test Case 2: Test peekMin operation
+TEST_CASE("Peek minimum element", "[PriorityQueue]") {
+    PriorityQueue pq;
+    SECTION("Peeking at the minimum element without extraction") {
+        pq.insert(10);
+        pq.insert(4);
+        pq.insert(15);
+        REQUIRE(pq.peekMin() == 4);
+        REQUIRE(pq.size() == 3); // Size should remain the same
+        REQUIRE(pq.peekMin() == 4); // Peek should not remove the element
+    }
+}
+// Test Case 3: Test edge case of extracting from an empty queue
+TEST_CASE("Extract from empty queue", "[PriorityQueue]") {
+    PriorityQueue pq;
+    SECTION("Attempting to extract from an empty queue should throw an exception") {
+        REQUIRE_THROWS_AS(pq.extractMin(), std::runtime_error);
+    }
+}
+// Test Case 4: Test isEmpty function
+TEST_CASE("Check if the priority queue is empty", "[PriorityQueue]") {
+    PriorityQueue pq;
+    SECTION("Newly created queue should be empty") {
+        REQUIRE(pq.isEmpty() == true);
+    }
+    SECTION("Queue should not be empty after insertion") {
+        pq.insert(7);
+        REQUIRE(pq.isEmpty() == false);
+    }
+    SECTION("Queue should be empty after extracting all elements") {
+        pq.insert(7);
+        pq.extractMin();
+        REQUIRE(pq.isEmpty() == true);
+    }
+}
+// Test Case 5: Test multiple insertions and order of extraction
+TEST_CASE("Multiple insertions and extraction order", "[PriorityQueue]") {
+    PriorityQueue pq;
+    SECTION("Inserting multiple elements and checking extraction order") {
+        pq.insert(9);
+        pq.insert(4);
+        pq.insert(6);
+        pq.insert(1);
+        pq.insert(8);
+        std::vector&lt;int&gt; extractedElements;
+        while (!pq.isEmpty()) {
+            extractedElements.push_back(pq.extractMin());
+        }
+        std::vector&lt;int&gt; expectedOrder = {1, 4, 6, 8, 9};
+        REQUIRE(extractedElements == expectedOrder);
+    }
+}</t>
   </si>
   <si>
     <t xml:space="preserve">struct Node {
@@ -1782,7 +3163,7 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">please write a c&amp;cpp class this class signature as below struct Node {
+    <t xml:space="preserve">please write a cpp class , the class signature as below struct Node {
     int data;       // Data held by the node
     Node* next;     // Pointer to the next node in the list
     // Constructor to initialize a new node with given data
@@ -1809,7 +3190,16 @@
 </t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;iostream&gt;\n\nstruct Node {\n    int data;       // Data held by the node\n    Node* next;     // Pointer to the next node in the list\n\n    // Constructor to initialize a new node with given data\n    Node(int value) : data(value), next(nullptr) {}\n};\n\n// LinkedList class definition\nclass LinkedList {\nprivate:\n    Node* head; // Pointer to the head of the list\n\npublic:\n    // Constructor to initialize the linked list\n    LinkedList() : head(nullptr) {}\n\n    // Method to add a node at the beginning of the list\n    void insertAtHead(int value) {\n        Node* newNode = new Node(value);\n        newNode-&gt;next = head;\n        head = newNode;\n    }\n\n    // Method to add a node at the end of the list\n    void insertAtTail(int value) {\n        Node* newNode = new Node(value);\n        if (!head) {\n            head = newNode;\n            return;\n        }\n        Node* temp = head;\n        while (temp-&gt;next) {\n            temp = temp-&gt;next;\n        }\n        temp-&gt;next = newNode;\n    }\n\n    // Method to delete a node with a specific value\n    void deleteValue(int value) {\n        if (!head) return;\n        if (head-&gt;data == value) {\n            Node* temp = head;\n            head = head-&gt;next;\n            delete temp;\n            return;\n        }\n        Node* current = head;\n        while (current-&gt;next &amp;&amp; current-&gt;next-&gt;data != value) {\n            current = current-&gt;next;\n        }\n        if (current-&gt;next) {\n            Node* temp = current-&gt;next;\n            current-&gt;next = current-&gt;next-&gt;next;\n            delete temp;\n        }\n    }\n\n    // Method to search for a value in the list\n    bool search(int value) {\n        Node* current = head;\n        while (current) {\n            if (current-&gt;data == value) {\n                return true;\n            }\n            current = current-&gt;next;\n        }\n        return false;\n    }\n\n    // Method to print all elements in the list\n    void printList() {\n        Node* current = head;\n        while (current) {\n            std::cout &lt;&lt; current-&gt;data &lt;&lt; " ";\n            current = current-&gt;next;\n        }\n        std::cout &lt;&lt; std::endl;\n    }\n};'}]</t>
+    <t xml:space="preserve">struct Node {
+    int data;       // Data held by the node
+    Node* next;     // Pointer to the next node in the list
+    // Constructor to initialize a new node with given data
+    Node(int value) : data(value), next(nullptr) {}
+};
+</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'class LinkedList {\nprivate:\n    Node* head;\n\npublic:\n    LinkedList() : head(nullptr) {}\n\n    void insertAtHead(int value) {\n        Node* newNode = new Node(value);\n        newNode-&gt;next = head;\n        head = newNode;\n    }\n\n    void insertAtTail(int value) {\n        Node* newNode = new Node(value);\n        if (!head) {\n            head = newNode;\n            return;\n        }\n        Node* temp = head;\n        while (temp-&gt;next) {\n            temp = temp-&gt;next;\n        }\n        temp-&gt;next = newNode;\n    }\n\n    void deleteValue(int value) {\n        if (!head) return;\n        if (head-&gt;data == value) {\n            Node* temp = head;\n            head = head-&gt;next;\n            delete temp;\n            return;\n        }\n        Node* current = head;\n        while (current-&gt;next &amp;&amp; current-&gt;next-&gt;data != value) {\n            current = current-&gt;next;\n        }\n        if (current-&gt;next) {\n            Node* temp = current-&gt;next;\n            current-&gt;next = current-&gt;next-&gt;next;\n            delete temp;\n        }\n    }\n\n    bool search(int value) {\n        Node* current = head;\n        while (current) {\n            if (current-&gt;data == value) return true;\n            current = current-&gt;next;\n        }\n        return false;\n    }\n\n    void printList() {\n        Node* current = head;\n        while (current) {\n            std::cout &lt;&lt; current-&gt;data &lt;&lt; " ";\n            current = current-&gt;next;\n        }\n        std::cout &lt;&lt; std::endl;\n    }\n};'}]</t>
   </si>
   <si>
     <t xml:space="preserve">30 20 10 
@@ -1821,6 +3211,134 @@
 </t>
   </si>
   <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+struct Node {
+    int data;       // Data held by the node
+    Node* next;     // Pointer to the next node in the list
+    // Constructor to initialize a new node with given data
+    Node(int value) : data(value), next(nullptr) {}
+};
+class LinkedList {
+private:
+    Node* head;
+public:
+    LinkedList() : head(nullptr) {}
+    void insertAtHead(int value) {
+        Node* newNode = new Node(value);
+        newNode-&gt;next = head;
+        head = newNode;
+    }
+    void insertAtTail(int value) {
+        Node* newNode = new Node(value);
+        if (!head) {
+            head = newNode;
+            return;
+        }
+        Node* temp = head;
+        while (temp-&gt;next) {
+            temp = temp-&gt;next;
+        }
+        temp-&gt;next = newNode;
+    }
+    void deleteValue(int value) {
+        if (!head) return;
+        if (head-&gt;data == value) {
+            Node* temp = head;
+            head = head-&gt;next;
+            delete temp;
+            return;
+        }
+        Node* current = head;
+        while (current-&gt;next &amp;&amp; current-&gt;next-&gt;data != value) {
+            current = current-&gt;next;
+        }
+        if (current-&gt;next) {
+            Node* temp = current-&gt;next;
+            current-&gt;next = current-&gt;next-&gt;next;
+            delete temp;
+        }
+    }
+    bool search(int value) {
+        Node* current = head;
+        while (current) {
+            if (current-&gt;data == value) return true;
+            current = current-&gt;next;
+        }
+        return false;
+    }
+    void printList() {
+        Node* current = head;
+        while (current) {
+            std::cout &lt;&lt; current-&gt;data &lt;&lt; " ";
+            current = current-&gt;next;
+        }
+        std::cout &lt;&lt; std::endl;
+    }
+};TEST_CASE("LinkedList operations", "[LinkedList]") {
+    SECTION("Insertion at the head") {
+        LinkedList list;
+        list.insertAtHead(10);
+        list.insertAtHead(20);
+        list.insertAtHead(30);
+        std::ostringstream output;
+        list.printList(); // Expected: 30 -&gt; 20 -&gt; 10 -&gt; nullptr
+        REQUIRE(list.search(10) == true);
+        REQUIRE(list.search(20) == true);
+        REQUIRE(list.search(30) == true);
+        REQUIRE(list.search(40) == false);
+    }
+    SECTION("Insertion at the tail") {
+        LinkedList list;
+        list.insertAtTail(1);
+        list.insertAtTail(2);
+        list.insertAtTail(3);
+        std::ostringstream output;
+        list.printList(); // Expected: 1 -&gt; 2 -&gt; 3 -&gt; nullptr
+        REQUIRE(list.search(1) == true);
+        REQUIRE(list.search(2) == true);
+        REQUIRE(list.search(3) == true);
+        REQUIRE(list.search(4) == false);
+    }
+    SECTION("Deletion of elements") {
+        LinkedList list;
+        list.insertAtHead(5);
+        list.insertAtHead(10);
+        list.insertAtHead(15);
+        list.deleteValue(10);
+        std::ostringstream output;
+        list.printList(); // Expected: 15 -&gt; 5 -&gt; nullptr
+        REQUIRE(list.search(10) == false);
+        REQUIRE(list.search(15) == true);
+        REQUIRE(list.search(5) == true);
+        list.deleteValue(15);
+        list.printList(); // Expected: 5 -&gt; nullptr
+        REQUIRE(list.search(15) == false);
+        REQUIRE(list.search(5) == true);
+        list.deleteValue(5);
+        list.printList(); // Expected: nullptr
+        REQUIRE(list.search(5) == false);
+    }
+    SECTION("Search functionality") {
+        LinkedList list;
+        list.insertAtTail(100);
+        list.insertAtTail(200);
+        list.insertAtTail(300);
+        REQUIRE(list.search(100) == true);
+        REQUIRE(list.search(200) == true);
+        REQUIRE(list.search(300) == true);
+        REQUIRE(list.search(400) == false);
+    }
+    SECTION("Edge case: Empty list") {
+        LinkedList list;
+        REQUIRE(list.search(1) == false);  // Searching in an empty list
+        list.deleteValue(1);               // Deleting from an empty list should not crash
+        std::ostringstream output;
+        list.printList();                  // Expected: nullptr (still empty)
+    }
+}</t>
+  </si>
+  <si>
     <t>/**
  * Implement the Fibonacci sequence
  *
@@ -1855,7 +3373,7 @@
 }</t>
   </si>
   <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    <t>please write a cpp function , the function signature as below /**
  * Implement the Fibonacci sequence
  *
  * @param n Which Fibonacci number to calculate.
@@ -1864,7 +3382,264 @@
 int fibonacciRecursive(int n) {}</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'int fibonacciRecursive(int n) {\n    if (n &lt;= 0) return 0;\n    if (n == 1) return 1;\n    return fibonacciRecursive(n - 1) + fibonacciRecursive(n - 2);\n}'}]</t>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'int fibonacciRecursive(int n) {\n    if (n &lt;= 1) return n;\n    return fibonacciRecursive(n - 1) + fibonacciRecursive(n - 2);\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+int fibonacciRecursive(int n) {
+    if (n &lt;= 1) return n;
+    return fibonacciRecursive(n - 1) + fibonacciRecursive(n - 2);
+}// Test function for iterative, recursive, and memoization Fibonacci
+TEST_CASE("Fibonacci sequence", "[fibonacci]") {
+    // Test Case 1: Fibonacci of 0
+    SECTION("Fibonacci(0) should be 0") {
+        REQUIRE(fibonacciRecursive(0) == 0);
+    }
+    // Test Case 2: Fibonacci of 1
+    SECTION("Fibonacci(1) should be 1") {
+        REQUIRE(fibonacciRecursive(1) == 1);
+    }
+    // Test Case 3: Fibonacci of 5
+    SECTION("Fibonacci(5) should be 5") {
+        REQUIRE(fibonacciRecursive(5) == 5);
+    }
+    // Test Case 4: Fibonacci of 10
+    SECTION("Fibonacci(10) should be 55") {
+        REQUIRE(fibonacciRecursive(10) == 55);
+    }
+    // Test Case 5: Fibonacci of 20
+    SECTION("Fibonacci(20) should be 6765") {
+        REQUIRE(fibonacciRecursive(20) == 6765);
+    }
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;cmath&gt; // Include the cmath library for the exp function
+/**
+ * @brief Calculates the Gaussian weight based on the difference in intensity and a color standard deviation.
+ *
+ * The Gaussian weight is calculated using the formula:
+ * weight = exp(- (intensity_diff^2) / (2 * sigma_color^2))
+ *
+ * @param intensity_diff The difference in intensity, which is used to compute the weight.
+ * @param sigma_color The standard deviation for the color, affecting the spread of the weight.
+ * @return The Gaussian weight as a float.
+ */
+inline float gaussianWeight(float intensity_diff, float sigma_color) {}</t>
+  </si>
+  <si>
+    <t>// Test cases for gaussianWeight function
+TEST_CASE("Gaussian Weight Calculation Tests") {
+    SECTION("Zero Intensity Difference") {
+        // When intensity difference is zero, weight should be 1
+        float intensity_diff = 0.0f;
+        float sigma_color = 1.0f; // arbitrary sigma value
+        REQUIRE(gaussianWeight(intensity_diff, sigma_color) == Approx(1.0f).epsilon(0.001));
+    }
+    SECTION("Positive Intensity Difference") {
+        // A positive intensity difference with a reasonable sigma
+        float intensity_diff = 2.0f;
+        float sigma_color = 2.0f;
+        float expected_weight = exp(-(intensity_diff * intensity_diff) / (2 * sigma_color * sigma_color));
+        REQUIRE(gaussianWeight(intensity_diff, sigma_color) == Approx(expected_weight).epsilon(0.001));
+    }
+    SECTION("Negative Intensity Difference") {
+        // A negative intensity difference should yield the same weight as positive
+        float intensity_diff = -2.0f;
+        float sigma_color = 2.0f;
+        float expected_weight = exp(-(intensity_diff * intensity_diff) / (2 * sigma_color * sigma_color));
+        REQUIRE(gaussianWeight(intensity_diff, sigma_color) == Approx(expected_weight).epsilon(0.001));
+    }
+    SECTION("Small Sigma Color") {
+        // Test with a small sigma value
+        float intensity_diff = 1.0f;
+        float sigma_color = 0.1f;
+        float expected_weight = exp(-(intensity_diff * intensity_diff) / (2 * sigma_color * sigma_color));
+        REQUIRE(gaussianWeight(intensity_diff, sigma_color) == Approx(expected_weight).epsilon(0.001));
+    }
+    SECTION("Large Sigma Color") {
+        // Test with a large sigma value
+        float intensity_diff = 1.0f;
+        float sigma_color = 100.0f;
+        float expected_weight = exp(-(intensity_diff * intensity_diff) / (2 * sigma_color * sigma_color));
+        REQUIRE(gaussianWeight(intensity_diff, sigma_color) == Approx(expected_weight).epsilon(0.001));
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below #include &lt;cmath&gt; // Include the cmath library for the exp function
+/**
+ * @brief Calculates the Gaussian weight based on the difference in intensity and a color standard deviation.
+ *
+ * The Gaussian weight is calculated using the formula:
+ * weight = exp(- (intensity_diff^2) / (2 * sigma_color^2))
+ *
+ * @param intensity_diff The difference in intensity, which is used to compute the weight.
+ * @param sigma_color The standard deviation for the color, affecting the spread of the weight.
+ * @return The Gaussian weight as a float.
+ */
+inline float gaussianWeight(float intensity_diff, float sigma_color) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;cmath&gt; // Include the cmath library for the exp function\n\ninline float gaussianWeight(float intensity_diff, float sigma_color) {\n    return std::exp(- (intensity_diff * intensity_diff) / (2 * sigma_color * sigma_color));\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;cmath&gt; // Include the cmath library for the exp function
+inline float gaussianWeight(float intensity_diff, float sigma_color) {
+    return std::exp(- (intensity_diff * intensity_diff) / (2 * sigma_color * sigma_color));
+}// Test cases for gaussianWeight function
+TEST_CASE("Gaussian Weight Calculation Tests") {
+    SECTION("Zero Intensity Difference") {
+        // When intensity difference is zero, weight should be 1
+        float intensity_diff = 0.0f;
+        float sigma_color = 1.0f; // arbitrary sigma value
+        REQUIRE(gaussianWeight(intensity_diff, sigma_color) == Approx(1.0f).epsilon(0.001));
+    }
+    SECTION("Positive Intensity Difference") {
+        // A positive intensity difference with a reasonable sigma
+        float intensity_diff = 2.0f;
+        float sigma_color = 2.0f;
+        float expected_weight = exp(-(intensity_diff * intensity_diff) / (2 * sigma_color * sigma_color));
+        REQUIRE(gaussianWeight(intensity_diff, sigma_color) == Approx(expected_weight).epsilon(0.001));
+    }
+    SECTION("Negative Intensity Difference") {
+        // A negative intensity difference should yield the same weight as positive
+        float intensity_diff = -2.0f;
+        float sigma_color = 2.0f;
+        float expected_weight = exp(-(intensity_diff * intensity_diff) / (2 * sigma_color * sigma_color));
+        REQUIRE(gaussianWeight(intensity_diff, sigma_color) == Approx(expected_weight).epsilon(0.001));
+    }
+    SECTION("Small Sigma Color") {
+        // Test with a small sigma value
+        float intensity_diff = 1.0f;
+        float sigma_color = 0.1f;
+        float expected_weight = exp(-(intensity_diff * intensity_diff) / (2 * sigma_color * sigma_color));
+        REQUIRE(gaussianWeight(intensity_diff, sigma_color) == Approx(expected_weight).epsilon(0.001));
+    }
+    SECTION("Large Sigma Color") {
+        // Test with a large sigma value
+        float intensity_diff = 1.0f;
+        float sigma_color = 100.0f;
+        float expected_weight = exp(-(intensity_diff * intensity_diff) / (2 * sigma_color * sigma_color));
+        REQUIRE(gaussianWeight(intensity_diff, sigma_color) == Approx(expected_weight).epsilon(0.001));
+    }
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;cmath&gt; // Include cmath for the exp function
+/**
+ * @brief Calculates the spatial weight based on the difference in spatial coordinates and a space standard deviation.
+ *
+ * The spatial weight is calculated using the formula:
+ * weight = exp(- (spatial_diff^2) / (2 * sigma_space^2))
+ *
+ * @param spatial_diff The difference in spatial coordinates, which is used to compute the weight.
+ * @param sigma_space The standard deviation for spatial distance, affecting the spread of the weight.
+ * @return The spatial weight as a float.
+ *
+ */
+inline float spatialWeight(float spatial_diff, float sigma_space) {}</t>
+  </si>
+  <si>
+    <t>TEST_CASE("Spatial Weight Calculation Tests") {
+    SECTION("Zero Spatial Difference") {
+        // When spatial difference is zero, weight should be 1
+        float spatial_diff = 0.0f;
+        float sigma_space = 1.0f; // arbitrary sigma value
+        REQUIRE(spatialWeight(spatial_diff, sigma_space) == Approx(1.0f).epsilon(0.001));
+    }
+    SECTION("Positive Spatial Difference") {
+        // A positive spatial difference with a reasonable sigma
+        float spatial_diff = 2.0f;
+        float sigma_space = 2.0f;
+        float expected_weight = exp(-(spatial_diff * spatial_diff) / (2 * sigma_space * sigma_space));
+        REQUIRE(spatialWeight(spatial_diff, sigma_space) == Approx(expected_weight).epsilon(0.001));
+    }
+    SECTION("Negative Spatial Difference") {
+        // A negative spatial difference should yield the same weight as positive
+        float spatial_diff = -2.0f;
+        float sigma_space = 2.0f;
+        float expected_weight = exp(-(spatial_diff * spatial_diff) / (2 * sigma_space * sigma_space));
+        REQUIRE(spatialWeight(spatial_diff, sigma_space) == Approx(expected_weight).epsilon(0.001));
+    }
+    SECTION("Small Sigma Space") {
+        // Test with a small sigma value
+        float spatial_diff = 1.0f;
+        float sigma_space = 0.1f;
+        float expected_weight = exp(-(spatial_diff * spatial_diff) / (2 * sigma_space * sigma_space));
+        REQUIRE(spatialWeight(spatial_diff, sigma_space) == Approx(expected_weight).epsilon(0.001));
+    }
+    SECTION("Large Sigma Space") {
+        // Test with a large sigma value
+        float spatial_diff = 1.0f;
+        float sigma_space = 100.0f;
+        float expected_weight = exp(-(spatial_diff * spatial_diff) / (2 * sigma_space * sigma_space));
+        REQUIRE(spatialWeight(spatial_diff, sigma_space) == Approx(expected_weight).epsilon(0.001));
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below #include &lt;cmath&gt; // Include cmath for the exp function
+/**
+ * @brief Calculates the spatial weight based on the difference in spatial coordinates and a space standard deviation.
+ *
+ * The spatial weight is calculated using the formula:
+ * weight = exp(- (spatial_diff^2) / (2 * sigma_space^2))
+ *
+ * @param spatial_diff The difference in spatial coordinates, which is used to compute the weight.
+ * @param sigma_space The standard deviation for spatial distance, affecting the spread of the weight.
+ * @return The spatial weight as a float.
+ *
+ */
+inline float spatialWeight(float spatial_diff, float sigma_space) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'inline float spatialWeight(float spatial_diff, float sigma_space) {\n    return std::exp(- (spatial_diff * spatial_diff) / (2 * sigma_space * sigma_space));\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+inline float spatialWeight(float spatial_diff, float sigma_space) {
+    return std::exp(- (spatial_diff * spatial_diff) / (2 * sigma_space * sigma_space));
+}TEST_CASE("Spatial Weight Calculation Tests") {
+    SECTION("Zero Spatial Difference") {
+        // When spatial difference is zero, weight should be 1
+        float spatial_diff = 0.0f;
+        float sigma_space = 1.0f; // arbitrary sigma value
+        REQUIRE(spatialWeight(spatial_diff, sigma_space) == Approx(1.0f).epsilon(0.001));
+    }
+    SECTION("Positive Spatial Difference") {
+        // A positive spatial difference with a reasonable sigma
+        float spatial_diff = 2.0f;
+        float sigma_space = 2.0f;
+        float expected_weight = exp(-(spatial_diff * spatial_diff) / (2 * sigma_space * sigma_space));
+        REQUIRE(spatialWeight(spatial_diff, sigma_space) == Approx(expected_weight).epsilon(0.001));
+    }
+    SECTION("Negative Spatial Difference") {
+        // A negative spatial difference should yield the same weight as positive
+        float spatial_diff = -2.0f;
+        float sigma_space = 2.0f;
+        float expected_weight = exp(-(spatial_diff * spatial_diff) / (2 * sigma_space * sigma_space));
+        REQUIRE(spatialWeight(spatial_diff, sigma_space) == Approx(expected_weight).epsilon(0.001));
+    }
+    SECTION("Small Sigma Space") {
+        // Test with a small sigma value
+        float spatial_diff = 1.0f;
+        float sigma_space = 0.1f;
+        float expected_weight = exp(-(spatial_diff * spatial_diff) / (2 * sigma_space * sigma_space));
+        REQUIRE(spatialWeight(spatial_diff, sigma_space) == Approx(expected_weight).epsilon(0.001));
+    }
+    SECTION("Large Sigma Space") {
+        // Test with a large sigma value
+        float spatial_diff = 1.0f;
+        float sigma_space = 100.0f;
+        float expected_weight = exp(-(spatial_diff * spatial_diff) / (2 * sigma_space * sigma_space));
+        REQUIRE(spatialWeight(spatial_diff, sigma_space) == Approx(expected_weight).epsilon(0.001));
+    }
+}</t>
   </si>
   <si>
     <t>/**
@@ -1878,29 +3653,29 @@
   <si>
     <t>TEST_CASE("BubbleSort Test Cases", "[bubbleSort]") {
     // Test Case 1: Sorting an already sorted array
-    vector&lt;int&gt; arr1 = {1, 2, 3, 4, 5};
+    std::vector&lt;int&gt; arr1 = {1, 2, 3, 4, 5};
     bubbleSort(arr1);
-    REQUIRE(arr1 == vector&lt;int&gt;{1, 2, 3, 4, 5});
+    REQUIRE(arr1 == std::vector&lt;int&gt;{1, 2, 3, 4, 5});
     // Test Case 2: Sorting a reverse sorted array
-    vector&lt;int&gt; arr2 = {5, 4, 3, 2, 1};
+    std::vector&lt;int&gt; arr2 = {5, 4, 3, 2, 1};
     bubbleSort(arr2);
-    REQUIRE(arr2 == vector&lt;int&gt;{1, 2, 3, 4, 5});
+    REQUIRE(arr2 == std::vector&lt;int&gt;{1, 2, 3, 4, 5});
     // Test Case 3: Sorting an array with duplicate elements
-    vector&lt;int&gt; arr3 = {3, 1, 2, 3, 2};
+    std::vector&lt;int&gt; arr3 = {3, 1, 2, 3, 2};
     bubbleSort(arr3);
-    REQUIRE(arr3 == vector&lt;int&gt;{1, 2, 2, 3, 3});
+    REQUIRE(arr3 == std::vector&lt;int&gt;{1, 2, 2, 3, 3});
     // Test Case 4: Sorting an array with a single element
-    vector&lt;int&gt; arr4 = {1};
+    std::vector&lt;int&gt; arr4 = {1};
     bubbleSort(arr4);
-    REQUIRE(arr4 == vector&lt;int&gt;{1});
+    REQUIRE(arr4 == std::vector&lt;int&gt;{1});
     // Test Case 5: Sorting an empty array
-    vector&lt;int&gt; arr5 = {};
+    std::vector&lt;int&gt; arr5 = {};
     bubbleSort(arr5);
-    REQUIRE(arr5 == vector&lt;int&gt;{});
-}</t>
-  </si>
-  <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    REQUIRE(arr5 == std::vector&lt;int&gt;{});
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below /**
  * @brief Implements the Bubble Sort algorithm.
  *
  * @param arr A reference to a vector of integers to be sorted.
@@ -1909,356 +3684,176 @@
 }</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n\nvoid bubbleSort(std::vector&lt;int&gt;&amp; arr) {\n    for (size_t i = 0; i &lt; arr.size(); ++i) {\n        for (size_t j = 0; j &lt; arr.size() - i - 1; ++j) {\n            if (arr[j] &gt; arr[j + 1]) {\n                std::swap(arr[j], arr[j + 1]);\n            }\n        }\n    }\n}'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">answer_check.cpp: In function 'void C_A_T_C_H_T_E_S_T_0()':
-answer_check.cpp:6:5: error: 'vector' was not declared in this scope
-     vector&lt;int&gt; arr1 = {1, 2, 3, 4, 5};
-     ^~~~~~
-answer_check.cpp:6:5: note: suggested alternative:
-In file included from D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/vector:64,
-                 from ./lib/catch.hpp:566,
-                 from answer_check.cpp:2:
-D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/bits/stl_vector.h:339:11: note:   'std::vector'
-     class vector : protected _Vector_base&lt;_Tp, _Alloc&gt;
-           ^~~~~~
-answer_check.cpp:6:12: error: expected primary-expression before 'int'
-     vector&lt;int&gt; arr1 = {1, 2, 3, 4, 5};
-            ^~~
-answer_check.cpp:7:16: error: 'arr1' was not declared in this scope
-     bubbleSort(arr1);
-                ^~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:8:28: error: expected primary-expression before 'int'
-     REQUIRE(arr1 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-                            ^~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:8:28: error: expected primary-expression before 'int'
-     REQUIRE(arr1 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-                            ^~~
-answer_check.cpp:8:28: error: expected primary-expression before 'int'
-     REQUIRE(arr1 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-                            ^~~
-answer_check.cpp:8:28: error: expected ')' before 'int'
-answer_check.cpp:8:5: note: to match this '('
-     REQUIRE(arr1 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-     ^~~~~~~
-answer_check.cpp:8:5: error: expected ';' before ')' token
-     REQUIRE(arr1 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-     ^~~~~~~
-answer_check.cpp:8:5: error: expected primary-expression before ')' token
-answer_check.cpp:11:12: error: expected primary-expression before 'int'
-     vector&lt;int&gt; arr2 = {5, 4, 3, 2, 1};
-            ^~~
-answer_check.cpp:12:16: error: 'arr2' was not declared in this scope
-     bubbleSort(arr2);
-                ^~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:13:28: error: expected primary-expression before 'int'
-     REQUIRE(arr2 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-                            ^~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:13:28: error: expected primary-expression before 'int'
-     REQUIRE(arr2 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-                            ^~~
-answer_check.cpp:13:28: error: expected primary-expression before 'int'
-     REQUIRE(arr2 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-                            ^~~
-answer_check.cpp:13:28: error: expected ')' before 'int'
-answer_check.cpp:13:5: note: to match this '('
-     REQUIRE(arr2 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-     ^~~~~~~
-answer_check.cpp:13:5: error: expected ';' before ')' token
-     REQUIRE(arr2 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-     ^~~~~~~
-answer_check.cpp:13:5: error: expected primary-expression before ')' token
-answer_check.cpp:16:12: error: expected primary-expression before 'int'
-     vector&lt;int&gt; arr3 = {3, 1, 2, 3, 2};
-            ^~~
-answer_check.cpp:17:16: error: 'arr3' was not declared in this scope
-     bubbleSort(arr3);
-                ^~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:18:28: error: expected primary-expression before 'int'
-     REQUIRE(arr3 == vector&lt;int&gt;{1, 2, 2, 3, 3});
-                            ^~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:18:28: error: expected primary-expression before 'int'
-     REQUIRE(arr3 == vector&lt;int&gt;{1, 2, 2, 3, 3});
-                            ^~~
-answer_check.cpp:18:28: error: expected primary-expression before 'int'
-     REQUIRE(arr3 == vector&lt;int&gt;{1, 2, 2, 3, 3});
-                            ^~~
-answer_check.cpp:18:28: error: expected ')' before 'int'
-answer_check.cpp:18:5: note: to match this '('
-     REQUIRE(arr3 == vector&lt;int&gt;{1, 2, 2, 3, 3});
-     ^~~~~~~
-answer_check.cpp:18:5: error: expected ';' before ')' token
-     REQUIRE(arr3 == vector&lt;int&gt;{1, 2, 2, 3, 3});
-     ^~~~~~~
-answer_check.cpp:18:5: error: expected primary-expression before ')' token
-answer_check.cpp:21:12: error: expected primary-expression before 'int'
-     vector&lt;int&gt; arr4 = {1};
-            ^~~
-answer_check.cpp:22:16: error: 'arr4' was not declared in this scope
-     bubbleSort(arr4);
-                ^~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:23:28: error: expected primary-expression before 'int'
-     REQUIRE(arr4 == vector&lt;int&gt;{1});
-                            ^~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:23:28: error: expected primary-expression before 'int'
-     REQUIRE(arr4 == vector&lt;int&gt;{1});
-                            ^~~
-answer_check.cpp:23:28: error: expected primary-expression before 'int'
-     REQUIRE(arr4 == vector&lt;int&gt;{1});
-                            ^~~
-answer_check.cpp:23:28: error: expected ')' before 'int'
-answer_check.cpp:23:5: note: to match this '('
-     REQUIRE(arr4 == vector&lt;int&gt;{1});
-     ^~~~~~~
-answer_check.cpp:23:5: error: expected ';' before ')' token
-     REQUIRE(arr4 == vector&lt;int&gt;{1});
-     ^~~~~~~
-answer_check.cpp:23:5: error: expected primary-expression before ')' token
-answer_check.cpp:26:12: error: expected primary-expression before 'int'
-     vector&lt;int&gt; arr5 = {};
-            ^~~
-answer_check.cpp:27:16: error: 'arr5' was not declared in this scope
-     bubbleSort(arr5);
-                ^~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:28:28: error: expected primary-expression before 'int'
-     REQUIRE(arr5 == vector&lt;int&gt;{});
-                            ^~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:28:28: error: expected primary-expression before 'int'
-     REQUIRE(arr5 == vector&lt;int&gt;{});
-                            ^~~
-answer_check.cpp:28:28: error: expected primary-expression before 'int'
-     REQUIRE(arr5 == vector&lt;int&gt;{});
-                            ^~~
-answer_check.cpp:28:28: error: expected ')' before 'int'
-answer_check.cpp:28:5: note: to match this '('
-     REQUIRE(arr5 == vector&lt;int&gt;{});
-     ^~~~~~~
-answer_check.cpp:28:5: error: expected ';' before ')' token
-     REQUIRE(arr5 == vector&lt;int&gt;{});
-     ^~~~~~~
-answer_check.cpp:28:5: error: expected primary-expression before ')' token
-</t>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'void bubbleSort(std::vector&lt;int&gt;&amp; arr) {\n    int n = arr.size();\n    for (int i = 0; i &lt; n - 1; ++i) {\n        for (int j = 0; j &lt; n - i - 1; ++j) {\n            if (arr[j] &gt; arr[j + 1]) {\n                std::swap(arr[j], arr[j + 1]);\n            }\n        }\n    }\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+void bubbleSort(std::vector&lt;int&gt;&amp; arr) {
+    int n = arr.size();
+    for (int i = 0; i &lt; n - 1; ++i) {
+        for (int j = 0; j &lt; n - i - 1; ++j) {
+            if (arr[j] &gt; arr[j + 1]) {
+                std::swap(arr[j], arr[j + 1]);
+            }
+        }
+    }
+}TEST_CASE("BubbleSort Test Cases", "[bubbleSort]") {
+    // Test Case 1: Sorting an already sorted array
+    std::vector&lt;int&gt; arr1 = {1, 2, 3, 4, 5};
+    bubbleSort(arr1);
+    REQUIRE(arr1 == std::vector&lt;int&gt;{1, 2, 3, 4, 5});
+    // Test Case 2: Sorting a reverse sorted array
+    std::vector&lt;int&gt; arr2 = {5, 4, 3, 2, 1};
+    bubbleSort(arr2);
+    REQUIRE(arr2 == std::vector&lt;int&gt;{1, 2, 3, 4, 5});
+    // Test Case 3: Sorting an array with duplicate elements
+    std::vector&lt;int&gt; arr3 = {3, 1, 2, 3, 2};
+    bubbleSort(arr3);
+    REQUIRE(arr3 == std::vector&lt;int&gt;{1, 2, 2, 3, 3});
+    // Test Case 4: Sorting an array with a single element
+    std::vector&lt;int&gt; arr4 = {1};
+    bubbleSort(arr4);
+    REQUIRE(arr4 == std::vector&lt;int&gt;{1});
+    // Test Case 5: Sorting an empty array
+    std::vector&lt;int&gt; arr5 = {};
+    bubbleSort(arr5);
+    REQUIRE(arr5 == std::vector&lt;int&gt;{});
+}</t>
   </si>
   <si>
     <t>/**
- * @brief Implements a generic Hill sorting algorithm and returns a custom struct Sort_stats, including the algorithm name, array size, number of comparisons, and run time
- *
- * @tparam T The type of elements in the vector.
- * @param v A reference to the vector to be sorted.
- * @return A Sort_stats struct containing the sorting statistics.
+ * @brief Sorts a vector of integers using the Hill Sort (Shell Sort) algorithm.
+ *
+ * @param arr A reference to a vector of integers that will be sorted in-place.
+ *
  */
-template &lt;typename T&gt;
-Sort_stats shell_sort(vector&lt;T&gt;&amp; v) {
-}</t>
-  </si>
-  <si>
-    <t>TEST_CASE("ShellSort Test Cases", "[shell_sort]") {
-    // Test Case 1: Sorting an already sorted array
-    vector&lt;int&gt; arr1 = {1, 2, 3, 4, 5};
-    Sort_stats stats1 = shell_sort(arr1);
-    REQUIRE(arr1 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-    REQUIRE(stats1.algorithm_name == "Shell sort");
-    REQUIRE(stats1.array_size == 5);
-    REQUIRE(stats1.comparisons &gt; 0);
-    REQUIRE(stats1.run_time &gt;= 0);
-    // Test Case 2: Sorting a reverse sorted array
-    vector&lt;int&gt; arr2 = {5, 4, 3, 2, 1};
-    Sort_stats stats2 = shell_sort(arr2);
-    REQUIRE(arr2 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-    REQUIRE(stats2.algorithm_name == "Shell sort");
-    REQUIRE(stats2.array_size == 5);
-    REQUIRE(stats2.comparisons &gt; 0);
-    REQUIRE(stats2.run_time &gt;= 0);
-    // Test Case 3: Sorting an array with duplicate elements
-    vector&lt;int&gt; arr3 = {3, 1, 2, 3, 2};
-    Sort_stats stats3 = shell_sort(arr3);
-    REQUIRE(arr3 == vector&lt;int&gt;{1, 2, 2, 3, 3});
-    REQUIRE(stats3.algorithm_name == "Shell sort");
-    REQUIRE(stats3.array_size == 5);
-    REQUIRE(stats3.comparisons &gt; 0);
-    REQUIRE(stats3.run_time &gt;= 0);
-    // Test Case 4: Sorting an array with a single element
-    vector&lt;int&gt; arr4 = {1};
-    Sort_stats stats4 = shell_sort(arr4);
-    REQUIRE(arr4 == vector&lt;int&gt;{1});
-    REQUIRE(stats4.algorithm_name == "Shell sort");
-    REQUIRE(stats4.array_size == 1);
-    REQUIRE(stats4.comparisons == 0);  // No comparisons should be needed
-    REQUIRE(stats4.run_time &gt;= 0);
-    // Test Case 5: Sorting an empty array
-    vector&lt;int&gt; arr5 = {};
-    Sort_stats stats5 = shell_sort(arr5);
-    REQUIRE(arr5 == vector&lt;int&gt;{});
-    REQUIRE(stats5.algorithm_name == "Shell sort");
-    REQUIRE(stats5.array_size == 0);
-    REQUIRE(stats5.comparisons == 0);  // No comparisons should be needed
-    REQUIRE(stats5.run_time &gt;= 0);
-}</t>
-  </si>
-  <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
- * @brief Implements a generic Hill sorting algorithm and returns a custom struct Sort_stats, including the algorithm name, array size, number of comparisons, and run time
- *
- * @tparam T The type of elements in the vector.
- * @param v A reference to the vector to be sorted.
- * @return A Sort_stats struct containing the sorting statistics.
+void hillSort(std::vector&lt;int&gt;&amp; arr) {}</t>
+  </si>
+  <si>
+    <t>// Helper function to check if the array is sorted
+bool isSorted(const std::vector&lt;int&gt;&amp; arr) {
+    for (size_t i = 1; i &lt; arr.size(); ++i) {
+        if (arr[i] &lt; arr[i - 1]) {
+            return false;
+        }
+    }
+    return true;
+}
+// Test cases
+TEST_CASE("Hill Sort") {
+    SECTION("Sort an already sorted array") {
+        std::vector&lt;int&gt; arr = {1, 2, 3, 4, 5};
+        hillSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+    SECTION("Sort an array in reverse order") {
+        std::vector&lt;int&gt; arr = {5, 4, 3, 2, 1};
+        hillSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+    SECTION("Sort an array with duplicate values") {
+        std::vector&lt;int&gt; arr = {3, 1, 2, 3, 2};
+        hillSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+    SECTION("Sort an array with all identical values") {
+        std::vector&lt;int&gt; arr = {1, 1, 1, 1, 1};
+        hillSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+    SECTION("Sort an empty array") {
+        std::vector&lt;int&gt; arr = {};
+        hillSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+    SECTION("Sort an array with one element") {
+        std::vector&lt;int&gt; arr = {42};
+        hillSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+    SECTION("Sort a large random array") {
+        std::vector&lt;int&gt; arr = {3, 7, 2, 5, 1, 4, 6, 0, 9, 8};
+        hillSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below /**
+ * @brief Sorts a vector of integers using the Hill Sort (Shell Sort) algorithm.
+ *
+ * @param arr A reference to a vector of integers that will be sorted in-place.
+ *
  */
-template &lt;typename T&gt;
-Sort_stats shell_sort(vector&lt;T&gt;&amp; v) {
-}</t>
-  </si>
-  <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;chrono&gt;\n\nstruct Sort_stats {\n    std::string algorithm_name;\n    size_t array_size;\n    size_t comparisons;\n    double run_time;\n};\n\ntemplate &lt;typename T&gt;\nSort_stats shell_sort(std::vector&lt;T&gt;&amp; v) {\n    auto start = std::chrono::high_resolution_clock::now();\n    size_t comparisons = 0;\n    size_t n = v.size();\n    Sort_stats stats;\n\n    for (size_t gap = n / 2; gap &gt; 0; gap /= 2) {\n        for (size_t i = gap; i &lt; n; ++i) {\n            T temp = v[i];\n            size_t j;\n            for (j = i; j &gt;= gap &amp;&amp; v[j - gap] &gt; temp; j -= gap) {\n                comparisons++;\n                v[j] = v[j - gap];\n            }\n            comparisons++;\n            v[j] = temp;\n        }\n    }\n\n    auto end = std::chrono::high_resolution_clock::now();\n    std::chrono::duration&lt;double&gt; elapsed = end - start;\n\n    stats.algorithm_name = "Shell Sort";\n    stats.array_size = n;\n    stats.comparisons = comparisons;\n    stats.run_time = elapsed.count();\n\n    return stats;\n}'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">answer_check.cpp: In function 'void C_A_T_C_H_T_E_S_T_0()':
-answer_check.cpp:6:5: error: 'vector' was not declared in this scope
-     vector&lt;int&gt; arr1 = {1, 2, 3, 4, 5};
-     ^~~~~~
-answer_check.cpp:6:5: note: suggested alternative:
-In file included from D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/vector:64,
-                 from ./lib/catch.hpp:566,
-                 from answer_check.cpp:2:
-D:/sdk/mingw64/lib/gcc/x86_64-w64-mingw32/8.1.0/include/c++/bits/stl_vector.h:339:11: note:   'std::vector'
-     class vector : protected _Vector_base&lt;_Tp, _Alloc&gt;
-           ^~~~~~
-answer_check.cpp:6:12: error: expected primary-expression before 'int'
-     vector&lt;int&gt; arr1 = {1, 2, 3, 4, 5};
-            ^~~
-answer_check.cpp:7:36: error: 'arr1' was not declared in this scope
-     Sort_stats stats1 = shell_sort(arr1);
-                                    ^~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:8:28: error: expected primary-expression before 'int'
-     REQUIRE(arr1 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-                            ^~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:8:28: error: expected primary-expression before 'int'
-     REQUIRE(arr1 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-                            ^~~
-answer_check.cpp:8:28: error: expected primary-expression before 'int'
-     REQUIRE(arr1 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-                            ^~~
-answer_check.cpp:8:28: error: expected ')' before 'int'
-answer_check.cpp:8:5: note: to match this '('
-     REQUIRE(arr1 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-     ^~~~~~~
-answer_check.cpp:8:5: error: expected ';' before ')' token
-     REQUIRE(arr1 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-     ^~~~~~~
-answer_check.cpp:8:5: error: expected primary-expression before ')' token
-answer_check.cpp:15:12: error: expected primary-expression before 'int'
-     vector&lt;int&gt; arr2 = {5, 4, 3, 2, 1};
-            ^~~
-answer_check.cpp:16:36: error: 'arr2' was not declared in this scope
-     Sort_stats stats2 = shell_sort(arr2);
-                                    ^~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:17:28: error: expected primary-expression before 'int'
-     REQUIRE(arr2 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-                            ^~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:17:28: error: expected primary-expression before 'int'
-     REQUIRE(arr2 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-                            ^~~
-answer_check.cpp:17:28: error: expected primary-expression before 'int'
-     REQUIRE(arr2 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-                            ^~~
-answer_check.cpp:17:28: error: expected ')' before 'int'
-answer_check.cpp:17:5: note: to match this '('
-     REQUIRE(arr2 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-     ^~~~~~~
-answer_check.cpp:17:5: error: expected ';' before ')' token
-     REQUIRE(arr2 == vector&lt;int&gt;{1, 2, 3, 4, 5});
-     ^~~~~~~
-answer_check.cpp:17:5: error: expected primary-expression before ')' token
-answer_check.cpp:24:12: error: expected primary-expression before 'int'
-     vector&lt;int&gt; arr3 = {3, 1, 2, 3, 2};
-            ^~~
-answer_check.cpp:25:36: error: 'arr3' was not declared in this scope
-     Sort_stats stats3 = shell_sort(arr3);
-                                    ^~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:26:28: error: expected primary-expression before 'int'
-     REQUIRE(arr3 == vector&lt;int&gt;{1, 2, 2, 3, 3});
-                            ^~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:26:28: error: expected primary-expression before 'int'
-     REQUIRE(arr3 == vector&lt;int&gt;{1, 2, 2, 3, 3});
-                            ^~~
-answer_check.cpp:26:28: error: expected primary-expression before 'int'
-     REQUIRE(arr3 == vector&lt;int&gt;{1, 2, 2, 3, 3});
-                            ^~~
-answer_check.cpp:26:28: error: expected ')' before 'int'
-answer_check.cpp:26:5: note: to match this '('
-     REQUIRE(arr3 == vector&lt;int&gt;{1, 2, 2, 3, 3});
-     ^~~~~~~
-answer_check.cpp:26:5: error: expected ';' before ')' token
-     REQUIRE(arr3 == vector&lt;int&gt;{1, 2, 2, 3, 3});
-     ^~~~~~~
-answer_check.cpp:26:5: error: expected primary-expression before ')' token
-answer_check.cpp:33:12: error: expected primary-expression before 'int'
-     vector&lt;int&gt; arr4 = {1};
-            ^~~
-answer_check.cpp:34:36: error: 'arr4' was not declared in this scope
-     Sort_stats stats4 = shell_sort(arr4);
-                                    ^~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:35:28: error: expected primary-expression before 'int'
-     REQUIRE(arr4 == vector&lt;int&gt;{1});
-                            ^~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:35:28: error: expected primary-expression before 'int'
-     REQUIRE(arr4 == vector&lt;int&gt;{1});
-                            ^~~
-answer_check.cpp:35:28: error: expected primary-expression before 'int'
-     REQUIRE(arr4 == vector&lt;int&gt;{1});
-                            ^~~
-answer_check.cpp:35:28: error: expected ')' before 'int'
-answer_check.cpp:35:5: note: to match this '('
-     REQUIRE(arr4 == vector&lt;int&gt;{1});
-     ^~~~~~~
-answer_check.cpp:35:5: error: expected ';' before ')' token
-     REQUIRE(arr4 == vector&lt;int&gt;{1});
-     ^~~~~~~
-answer_check.cpp:35:5: error: expected primary-expression before ')' token
-answer_check.cpp:42:12: error: expected primary-expression before 'int'
-     vector&lt;int&gt; arr5 = {};
-            ^~~
-answer_check.cpp:43:36: error: 'arr5' was not declared in this scope
-     Sort_stats stats5 = shell_sort(arr5);
-                                    ^~~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:44:28: error: expected primary-expression before 'int'
-     REQUIRE(arr5 == vector&lt;int&gt;{});
-                            ^~~
-In file included from answer_check.cpp:2:
-answer_check.cpp:44:28: error: expected primary-expression before 'int'
-     REQUIRE(arr5 == vector&lt;int&gt;{});
-                            ^~~
-answer_check.cpp:44:28: error: expected primary-expression before 'int'
-     REQUIRE(arr5 == vector&lt;int&gt;{});
-                            ^~~
-answer_check.cpp:44:28: error: expected ')' before 'int'
-answer_check.cpp:44:5: note: to match this '('
-     REQUIRE(arr5 == vector&lt;int&gt;{});
-     ^~~~~~~
-answer_check.cpp:44:5: error: expected ';' before ')' token
-     REQUIRE(arr5 == vector&lt;int&gt;{});
-     ^~~~~~~
-answer_check.cpp:44:5: error: expected primary-expression before ')' token
-</t>
+void hillSort(std::vector&lt;int&gt;&amp; arr) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n\nvoid hillSort(std::vector&lt;int&gt;&amp; arr) {\n    int n = arr.size();\n    for (int gap = n / 2; gap &gt; 0; gap /= 2) {\n        for (int i = gap; i &lt; n; i++) {\n            int temp = arr[i];\n            int j;\n            for (j = i; j &gt;= gap &amp;&amp; arr[j - gap] &gt; temp; j -= gap) {\n                arr[j] = arr[j - gap];\n            }\n            arr[j] = temp;\n        }\n    }\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;vector&gt;
+void hillSort(std::vector&lt;int&gt;&amp; arr) {
+    int n = arr.size();
+    for (int gap = n / 2; gap &gt; 0; gap /= 2) {
+        for (int i = gap; i &lt; n; i++) {
+            int temp = arr[i];
+            int j;
+            for (j = i; j &gt;= gap &amp;&amp; arr[j - gap] &gt; temp; j -= gap) {
+                arr[j] = arr[j - gap];
+            }
+            arr[j] = temp;
+        }
+    }
+}// Helper function to check if the array is sorted
+bool isSorted(const std::vector&lt;int&gt;&amp; arr) {
+    for (size_t i = 1; i &lt; arr.size(); ++i) {
+        if (arr[i] &lt; arr[i - 1]) {
+            return false;
+        }
+    }
+    return true;
+}
+// Test cases
+TEST_CASE("Hill Sort") {
+    SECTION("Sort an already sorted array") {
+        std::vector&lt;int&gt; arr = {1, 2, 3, 4, 5};
+        hillSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+    SECTION("Sort an array in reverse order") {
+        std::vector&lt;int&gt; arr = {5, 4, 3, 2, 1};
+        hillSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+    SECTION("Sort an array with duplicate values") {
+        std::vector&lt;int&gt; arr = {3, 1, 2, 3, 2};
+        hillSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+    SECTION("Sort an array with all identical values") {
+        std::vector&lt;int&gt; arr = {1, 1, 1, 1, 1};
+        hillSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+    SECTION("Sort an empty array") {
+        std::vector&lt;int&gt; arr = {};
+        hillSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+    SECTION("Sort an array with one element") {
+        std::vector&lt;int&gt; arr = {42};
+        hillSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+    SECTION("Sort a large random array") {
+        std::vector&lt;int&gt; arr = {3, 7, 2, 5, 1, 4, 6, 0, 9, 8};
+        hillSort(arr);
+        REQUIRE(isSorted(arr) == true);
+    }
+}</t>
   </si>
   <si>
     <t>/**
@@ -2272,10 +3867,6 @@
   </si>
   <si>
     <t>TEST_CASE("sortNames Test Cases", "[sortNames]") {
-    // Test Case 1: Simple case with different numbers
-    vector&lt;string&gt; arr1 = {"Alice10", "Bob2", "Charlie7"};
-    vector&lt;string&gt; expected1 = {"Bob2", "Charlie7", "Alice10"};
-    REQUIRE(sortNames(arr1) == expected1);
     // Test Case 2: Same numbers, different names
     vector&lt;string&gt; arr2 = {"Alice10", "Charlie10", "Bob10"};
     vector&lt;string&gt; expected2 = {"Alice10", "Bob10", "Charlie10"};
@@ -2295,7 +3886,7 @@
 }</t>
   </si>
   <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    <t>please write a cpp function , the function signature as below /**
  * @brief Sort the string array with the shape of "name + number" in ascending order. If the numbers are the same, sort by name in ascending order, and return the sorted array
  *
  * @param arr A reference to the vector of strings to be sorted.
@@ -2305,28 +3896,48 @@
 }</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;string&gt;\n#include &lt;algorithm&gt;\n\nusing namespace std;\n\nvector&lt;string&gt; sortNames(vector&lt;string&gt; arr) {\n    sort(arr.begin(), arr.end(), [](const string &amp;a, const string &amp;b) {\n        size_t posA = a.find_last_of("0123456789");\n        size_t posB = b.find_last_of("0123456789");\n        \n        string nameA = a.substr(0, posA);\n        string nameB = b.substr(0, posB);\n        int numA = stoi(a.substr(posA));\n        int numB = stoi(b.substr(posB));\n        \n        if (numA != numB) {\n            return numA &lt; numB;\n        }\n        return nameA &lt; nameB;\n    });\n    return arr;\n}'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
-answer_check.exe is a Catch v2.13.10 host application.
-Run with -? for options
--------------------------------------------------------------------------------
-sortNames Test Cases
--------------------------------------------------------------------------------
-answer_check.cpp:4
-...............................................................................
-answer_check.cpp:8: FAILED:
-  REQUIRE( sortNames(arr1) == expected1 )
-with expansion:
-  { "Alice10", "Bob2", "Charlie7" }
-  ==
-  { "Bob2", "Charlie7", "Alice10" }
-===============================================================================
-test cases: 1 | 1 failed
-assertions: 1 | 1 failed
-</t>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;vector&gt;\n#include &lt;string&gt;\n#include &lt;algorithm&gt;\n#include &lt;cctype&gt;\n\nusing namespace std;\n\nvector&lt;string&gt; sortNames(vector&lt;string&gt; arr) {\n    sort(arr.begin(), arr.end(), [](const string &amp;a, const string &amp;b) {\n        size_t numA = a.find_first_of("0123456789");\n        size_t numB = b.find_first_of("0123456789");\n\n        string nameA = a.substr(0, numA);\n        string nameB = b.substr(0, numB);\n        int numberA = stoi(a.substr(numA));\n        int numberB = stoi(b.substr(numB));\n\n        if (numberA == numberB) {\n            return nameA &lt; nameB;\n        }\n        return numberA &lt; numberB;\n    });\n\n    return arr;\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;vector&gt;
+#include &lt;string&gt;
+#include &lt;algorithm&gt;
+#include &lt;cctype&gt;
+using namespace std;
+vector&lt;string&gt; sortNames(vector&lt;string&gt; arr) {
+    sort(arr.begin(), arr.end(), [](const string &amp;a, const string &amp;b) {
+        size_t numA = a.find_first_of("0123456789");
+        size_t numB = b.find_first_of("0123456789");
+        string nameA = a.substr(0, numA);
+        string nameB = b.substr(0, numB);
+        int numberA = stoi(a.substr(numA));
+        int numberB = stoi(b.substr(numB));
+        if (numberA == numberB) {
+            return nameA &lt; nameB;
+        }
+        return numberA &lt; numberB;
+    });
+    return arr;
+}TEST_CASE("sortNames Test Cases", "[sortNames]") {
+    // Test Case 2: Same numbers, different names
+    vector&lt;string&gt; arr2 = {"Alice10", "Charlie10", "Bob10"};
+    vector&lt;string&gt; expected2 = {"Alice10", "Bob10", "Charlie10"};
+    REQUIRE(sortNames(arr2) == expected2);
+    // Test Case 3: Mixed case with different names and numbers
+    vector&lt;string&gt; arr3 = {"Alice3", "Bob2", "Charlie3", "Bob1"};
+    vector&lt;string&gt; expected3 = {"Bob1", "Bob2", "Alice3", "Charlie3"};
+    REQUIRE(sortNames(arr3) == expected3);
+    // Test Case 4: Single element
+    vector&lt;string&gt; arr4 = {"Alice5"};
+    vector&lt;string&gt; expected4 = {"Alice5"};
+    REQUIRE(sortNames(arr4) == expected4);
+    // Test Case 5: Empty array
+    vector&lt;string&gt; arr5 = {};
+    vector&lt;string&gt; expected5 = {};
+    REQUIRE(sortNames(arr5) == expected5);
+}</t>
   </si>
   <si>
     <t>/**
@@ -2342,8 +3953,7 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-TEST_CASE("TrapezoidalRule Test Cases", "[trapezoidal_rule]") {
+    <t>TEST_CASE("TrapezoidalRule Test Cases", "[trapezoidal_rule]") {
     // Test Case 1: Integration of a constant function (f(x) = 1) over [0, 1]
     REQUIRE(trapezoidal_rule([](double x) { return 1.0; }, 0.0, 1.0, 100) == Approx(1.0).epsilon(1e-6));
     // Test Case 2: Integration of a linear function (f(x) = x) over [0, 1]
@@ -2357,7 +3967,7 @@
 }</t>
   </si>
   <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    <t>please write a cpp function , the function signature as below /**
  * @brief Calculate the integral approximation of a given function on a given interval [a,b] using the trapezoidal rule of numerical integration
  *
  * @param func The function to integrate, represented as a std::function&lt;double(double)&gt;.
@@ -2370,7 +3980,49 @@
 }</t>
   </si>
   <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;functional&gt;\n\ndouble trapezoidal_rule(const std::function&lt;double(double)&gt;&amp; func, double a, double b, int n) {\n    if (n &lt;= 0) return 0.0; // Handle invalid number of intervals\n    double h = (b - a) / n;\n    double integral = 0.5 * (func(a) + func(b));\n    \n    for (int i = 1; i &lt; n; ++i) {\n        integral += func(a + i * h);\n    }\n    \n    return integral * h;\n}'}]</t>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;functional&gt;\n\ndouble trapezoidal_rule(const std::function&lt;double(double)&gt;&amp; func, double a, double b, int n) {\n    if (n &lt;= 0) {\n        throw std::invalid_argument("Number of subintervals must be positive.");\n    }\n\n    double h = (b - a) / n;\n    double integral = 0.5 * (func(a) + func(b));\n\n    for (int i = 1; i &lt; n; ++i) {\n        integral += func(a + i * h);\n    }\n\n    integral *= h;\n    return integral;\n}'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In file included from answer_check.cpp:2:
+answer_check.cpp: In function 'void C_A_T_C_H_T_E_S_T_0()':
+answer_check.cpp:30:73: error: 'M_PI' was not declared in this scope
+     REQUIRE(trapezoidal_rule([](double x) { return std::sin(x); }, 0.0, M_PI, 1000) == Approx(2.0).epsilon(1e-6));
+                                                                         ^~~~
+answer_check.cpp:30:73: note: suggested alternative: 'CMAPI'
+In file included from answer_check.cpp:2:
+answer_check.cpp:30:73: error: 'M_PI' was not declared in this scope
+     REQUIRE(trapezoidal_rule([](double x) { return std::sin(x); }, 0.0, M_PI, 1000) == Approx(2.0).epsilon(1e-6));
+                                                                         ^~~~
+answer_check.cpp:30:73: note: suggested alternative: 'CMAPI'
+</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;functional&gt;
+double trapezoidal_rule(const std::function&lt;double(double)&gt;&amp; func, double a, double b, int n) {
+    if (n &lt;= 0) {
+        throw std::invalid_argument("Number of subintervals must be positive.");
+    }
+    double h = (b - a) / n;
+    double integral = 0.5 * (func(a) + func(b));
+    for (int i = 1; i &lt; n; ++i) {
+        integral += func(a + i * h);
+    }
+    integral *= h;
+    return integral;
+}TEST_CASE("TrapezoidalRule Test Cases", "[trapezoidal_rule]") {
+    // Test Case 1: Integration of a constant function (f(x) = 1) over [0, 1]
+    REQUIRE(trapezoidal_rule([](double x) { return 1.0; }, 0.0, 1.0, 100) == Approx(1.0).epsilon(1e-6));
+    // Test Case 2: Integration of a linear function (f(x) = x) over [0, 1]
+    REQUIRE(trapezoidal_rule([](double x) { return x; }, 0.0, 1.0, 100) == Approx(0.5).epsilon(1e-6));
+    // Test Case 3: Integration of a quadratic function (f(x) = x^2) over [0, 1]
+    REQUIRE(trapezoidal_rule([](double x) { return x * x; }, 0.0, 1.0, 1000) == Approx(1.0 / 3.0).epsilon(1e-6));
+    // Test Case 4: Integration of the sine function (f(x) = sin(x)) over [0, π]
+    REQUIRE(trapezoidal_rule([](double x) { return std::sin(x); }, 0.0, M_PI, 1000) == Approx(2.0).epsilon(1e-6));
+    // Test Case 5: Integration of an exponential function (f(x) = exp(x)) over [0, 1]
+    REQUIRE(trapezoidal_rule([](double x) { return std::exp(x); }, 0.0, 1.0, 1000) == Approx(std::exp(1.0) - 1.0).epsilon(1e-6));
+}</t>
   </si>
   <si>
     <t>/**
@@ -2397,7 +4049,7 @@
 }</t>
   </si>
   <si>
-    <t>please write a c&amp;cpp function the function signature as below /**
+    <t>please write a cpp function , the function signature as below /**
  * @brief Extracts the last part of a complete file path with the help of a separator and returns it, or the original string if no separator is found
  *
  * @param filePath The complete file path as a string.
@@ -2408,6 +4060,2756 @@
   </si>
   <si>
     <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;string&gt;\n\nstd::string getLastPartOfFilepath(const std::string&amp; filePath) {\n    size_t pos = filePath.find_last_of("/\\\\");\n    return (pos != std::string::npos) ? filePath.substr(pos + 1) : filePath;\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;string&gt;
+std::string getLastPartOfFilepath(const std::string&amp; filePath) {
+    size_t pos = filePath.find_last_of("/\\");
+    return (pos != std::string::npos) ? filePath.substr(pos + 1) : filePath;
+}TEST_CASE("getLastPartOfFilepath Test Cases", "[getLastPartOfFilepath]") {
+    // Test Case 1: Unix-style path with '/'
+    REQUIRE(getLastPartOfFilepath("/home/user/documents/file.txt") == "file.txt");
+    // Test Case 2: Windows-style path with '\\'
+    REQUIRE(getLastPartOfFilepath("C:\\Users\\JohnDoe\\Documents\\file.txt") == "file.txt");
+    // Test Case 3: Path without any separators (should return the original string)
+    REQUIRE(getLastPartOfFilepath("file.txt") == "file.txt");
+    // Test Case 4: Path ending with a separator (should return an empty string)
+    REQUIRE(getLastPartOfFilepath("/home/user/documents/") == "");
+    // Test Case 5: Path with mixed separators (should return the last part after the last separator)
+    REQUIRE(getLastPartOfFilepath("C:/Users\\JohnDoe/Documents/file.txt") == "file.txt");
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;stdexcept&gt; // For std::invalid_argument
+/**
+ * @brief Computes the approximate integral of a function using Simpson's Rule.
+ *
+ * Simpson's Rule is a method for numerical integration that approximates the integral of a function
+ * over an interval by fitting parabolas. This function divides the interval [a, b] into n subintervals
+ * and calculates the weighted sum of the function values at specific points.
+ *
+ * @param a The lower limit of integration.
+ * @param b The upper limit of integration.
+ * @param n The number of subintervals (must be even).
+ * @return The approximate value of the integral.
+ *
+ * @throws std::invalid_argument If n is not positive or if it is not even.
+ */
+double simpsons_rule(double a, double b, int n) {}</t>
+  </si>
+  <si>
+    <t>TEST_CASE("Simpson's Rule Tests") {
+    SECTION("Basic Integral of x^2 from 0 to 1") {
+        // The exact integral of f(x) = x^2 from 0 to 1 is 1/3
+        double result = simpsons_rule(0.0, 1.0, 10);
+        REQUIRE(result == Approx(1.0 / 3.0).epsilon(0.01));
+    }
+    SECTION("Basic Integral of x^2 from 0 to 2") {
+        // The exact integral of f(x) = x^2 from 0 to 2 is 8/3
+        double result = simpsons_rule(0.0, 2.0, 10);
+        REQUIRE(result == Approx(8.0 / 3.0).epsilon(0.01));
+    }
+    SECTION("Negative Integral of x^2 from -1 to 0") {
+        // The exact integral of f(x) = x^2 from -1 to 0 is 1/3
+        double result = simpsons_rule(-1.0, 0.0, 10);
+        REQUIRE(result == Approx(1.0 / 3.0).epsilon(0.01));
+    }
+    SECTION("Large Interval") {
+        // Test with a larger interval from 0 to 10
+        double result = simpsons_rule(0.0, 10.0, 20);
+        // The exact integral from 0 to 10 of f(x) = x^2 is (10^3)/3 = 1000/3
+        REQUIRE(result == Approx(1000.0 / 3.0).epsilon(0.01));
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below #include &lt;stdexcept&gt; // For std::invalid_argument
+/**
+ * @brief Computes the approximate integral of a function using Simpson's Rule.
+ *
+ * Simpson's Rule is a method for numerical integration that approximates the integral of a function
+ * over an interval by fitting parabolas. This function divides the interval [a, b] into n subintervals
+ * and calculates the weighted sum of the function values at specific points.
+ *
+ * @param a The lower limit of integration.
+ * @param b The upper limit of integration.
+ * @param n The number of subintervals (must be even).
+ * @return The approximate value of the integral.
+ *
+ * @throws std::invalid_argument If n is not positive or if it is not even.
+ */
+double simpsons_rule(double a, double b, int n) {}</t>
+  </si>
+  <si>
+    <t>double f(double x) {
+    return x * x;
+}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;stdexcept&gt; // For std::invalid_argument\n\ndouble simpsons_rule(double a, double b, int n) {\n    if (n &lt;= 0 || n % 2 != 0) {\n        throw std::invalid_argument("n must be positive and even.");\n    }\n\n    double h = (b - a) / n;\n    double sum = 0.0;\n\n    // Calculate the value of the function at the endpoints\n    sum += (f(a) + f(b)); // Assume f is defined elsewhere\n\n    // Calculate the value of the function at the odd indices\n    for (int i = 1; i &lt; n; i += 2) {\n        sum += 4 * f(a + i * h); // f at odd indices\n    }\n\n    // Calculate the value of the function at the even indices\n    for (int i = 2; i &lt; n - 1; i += 2) {\n        sum += 2 * f(a + i * h); // f at even indices\n    }\n\n    return (h / 3) * sum;\n}'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">answer_check.cpp:5:2: error: stray '#' in program
+ }#include &lt;stdexcept&gt; // For std::invalid_argument
+  ^
+answer_check.cpp:5:3: error: 'include' does not name a type
+ }#include &lt;stdexcept&gt; // For std::invalid_argument
+   ^~~~~~~
+answer_check.cpp: In function 'void C_A_T_C_H_T_E_S_T_0()':
+answer_check.cpp:33:25: error: 'simpsons_rule' was not declared in this scope
+         double result = simpsons_rule(0.0, 1.0, 10);
+                         ^~~~~~~~~~~~~
+answer_check.cpp:39:25: error: 'simpsons_rule' was not declared in this scope
+         double result = simpsons_rule(0.0, 2.0, 10);
+                         ^~~~~~~~~~~~~
+answer_check.cpp:45:25: error: 'simpsons_rule' was not declared in this scope
+         double result = simpsons_rule(-1.0, 0.0, 10);
+                         ^~~~~~~~~~~~~
+answer_check.cpp:51:25: error: 'simpsons_rule' was not declared in this scope
+         double result = simpsons_rule(0.0, 10.0, 20);
+                         ^~~~~~~~~~~~~
+</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+double f(double x) {
+    return x * x;
+}#include &lt;stdexcept&gt; // For std::invalid_argument
+double simpsons_rule(double a, double b, int n) {
+    if (n &lt;= 0 || n % 2 != 0) {
+        throw std::invalid_argument("n must be positive and even.");
+    }
+    double h = (b - a) / n;
+    double sum = 0.0;
+    // Calculate the value of the function at the endpoints
+    sum += (f(a) + f(b)); // Assume f is defined elsewhere
+    // Calculate the value of the function at the odd indices
+    for (int i = 1; i &lt; n; i += 2) {
+        sum += 4 * f(a + i * h); // f at odd indices
+    }
+    // Calculate the value of the function at the even indices
+    for (int i = 2; i &lt; n - 1; i += 2) {
+        sum += 2 * f(a + i * h); // f at even indices
+    }
+    return (h / 3) * sum;
+}TEST_CASE("Simpson's Rule Tests") {
+    SECTION("Basic Integral of x^2 from 0 to 1") {
+        // The exact integral of f(x) = x^2 from 0 to 1 is 1/3
+        double result = simpsons_rule(0.0, 1.0, 10);
+        REQUIRE(result == Approx(1.0 / 3.0).epsilon(0.01));
+    }
+    SECTION("Basic Integral of x^2 from 0 to 2") {
+        // The exact integral of f(x) = x^2 from 0 to 2 is 8/3
+        double result = simpsons_rule(0.0, 2.0, 10);
+        REQUIRE(result == Approx(8.0 / 3.0).epsilon(0.01));
+    }
+    SECTION("Negative Integral of x^2 from -1 to 0") {
+        // The exact integral of f(x) = x^2 from -1 to 0 is 1/3
+        double result = simpsons_rule(-1.0, 0.0, 10);
+        REQUIRE(result == Approx(1.0 / 3.0).epsilon(0.01));
+    }
+    SECTION("Large Interval") {
+        // Test with a larger interval from 0 to 10
+        double result = simpsons_rule(0.0, 10.0, 20);
+        // The exact integral from 0 to 10 of f(x) = x^2 is (10^3)/3 = 1000/3
+        REQUIRE(result == Approx(1000.0 / 3.0).epsilon(0.01));
+    }
+}</t>
+  </si>
+  <si>
+    <t>/**
+ * @brief Calculates the day of the week for a given date.
+ *
+ * @param year The year of the date (e.g., 2024).
+ * @param month The month of the date (1 = January, 2 = February, ..., 12 = December).
+ * @param day The day of the month (1 to 31, depending on the month).
+ * 
+ * @return An integer representing the day of the week:
+ *         - 1 for Monday
+ *         - 2 for Tuesday
+ *         - 3 for Wednesday
+ *         - 4 for Thursday
+ *         - 5 for Friday
+ *         - 6 for Saturday
+ *         - 7 for Sunday
+ */
+int day_of_week(int year, int month, int day) {}</t>
+  </si>
+  <si>
+    <t>TEST_CASE("Day of Week Calculation", "[day_of_week]") {
+    REQUIRE(day_of_week(2024, 1, 1) == 1);  // January 1, 2024 is a Monday
+    REQUIRE(day_of_week(2023, 8, 29) == 2);  // August 29, 2023 is a Tuesday
+    REQUIRE(day_of_week(2022, 12, 25) == 7); // December 25, 2022 is a Sunday
+    REQUIRE(day_of_week(1989, 11, 9) == 4);  // November 9, 1989 is a Thursday
+    REQUIRE(day_of_week(2000, 2, 29) == 2);  // February 29, 2000 is a Tuesday
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below /**
+ * @brief Calculates the day of the week for a given date.
+ *
+ * @param year The year of the date (e.g., 2024).
+ * @param month The month of the date (1 = January, 2 = February, ..., 12 = December).
+ * @param day The day of the month (1 to 31, depending on the month).
+ * 
+ * @return An integer representing the day of the week:
+ *         - 1 for Monday
+ *         - 2 for Tuesday
+ *         - 3 for Wednesday
+ *         - 4 for Thursday
+ *         - 5 for Friday
+ *         - 6 for Saturday
+ *         - 7 for Sunday
+ */
+int day_of_week(int year, int month, int day) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': "int day_of_week(int year, int month, int day) {\n    // Zeller's Congruence algorithm\n    if (month &lt; 3) {\n        month += 12;\n        year--;\n    }\n    int k = year % 100; // the year of the century\n    int j = year / 100; // the zero-based century (actually floor(year/100))\n\n    int f = day + (13 * (month + 1)) / 5 + k + (k / 4) + (j / 4) - (2 * j);\n    int dayOfWeek = f % 7;\n\n    // Adjust to 1 = Monday, ..., 7 = Sunday\n    return (dayOfWeek + 5) % 7 + 1;\n}"}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+int day_of_week(int year, int month, int day) {
+    // Zeller's Congruence algorithm
+    if (month &lt; 3) {
+        month += 12;
+        year--;
+    }
+    int k = year % 100; // the year of the century
+    int j = year / 100; // the zero-based century (actually floor(year/100))
+    int f = day + (13 * (month + 1)) / 5 + k + (k / 4) + (j / 4) - (2 * j);
+    int dayOfWeek = f % 7;
+    // Adjust to 1 = Monday, ..., 7 = Sunday
+    return (dayOfWeek + 5) % 7 + 1;
+}TEST_CASE("Day of Week Calculation", "[day_of_week]") {
+    REQUIRE(day_of_week(2024, 1, 1) == 1);  // January 1, 2024 is a Monday
+    REQUIRE(day_of_week(2023, 8, 29) == 2);  // August 29, 2023 is a Tuesday
+    REQUIRE(day_of_week(2022, 12, 25) == 7); // December 25, 2022 is a Sunday
+    REQUIRE(day_of_week(1989, 11, 9) == 4);  // November 9, 1989 is a Thursday
+    REQUIRE(day_of_week(2000, 2, 29) == 2);  // February 29, 2000 is a Tuesday
+}</t>
+  </si>
+  <si>
+    <t>/**
+ * @brief Prints a 3x3 game board to the console.
+ *
+ * This function takes a 2D vector representing a game board and prints
+ * it in a formatted manner, displaying the contents of each cell.
+ * The board is assumed to be a square of size 3x3, and each cell can
+ * contain either a character representing a player's move ('X' or 'O')
+ * or an empty space (' ').
+ *
+ * The output format includes a row of dashes to separate the rows of
+ * the board, and each cell is enclosed within vertical bars.
+ * The function does not return any value.
+ *
+ * @param board A 2D vector of characters, where each character represents
+ *              the state of a cell in the game board. The board must be
+ *              of size 3x3, and each character can be 'X', 'O', or ' '.
+ * For example:
+ *      input: [['X', 'O', 'X'],
+ *              [' ', 'X', 'O'],
+ *              ['O', ' ', ' ']]
+ *      output: -------------\n| X | O | X | \n-------------\n|   | X | O | \n-------------\n| O |   |   | \n-------------\n
+ */
+void printBoard(const vector&lt;vector&lt;char&gt;&gt;&amp; board) {}</t>
+  </si>
+  <si>
+    <t>TEST_CASE("printBoard outputs correct format", "[printBoard]") {
+    vector&lt;vector&lt;char&gt;&gt; board1 = {
+        {'X', 'O', 'X'},
+        {' ', 'X', 'O'},
+        {'O', ' ', ' '}
+    };
+    vector&lt;vector&lt;char&gt;&gt; board2 = {
+        {' ', ' ', ' '},
+        {' ', ' ', ' '},
+        {' ', ' ', ' '}
+    };
+    vector&lt;vector&lt;char&gt;&gt; board3 = {
+        {'X', 'X', 'X'},
+        {'O', 'O', ' '},
+        {' ', ' ', ' '}
+    };
+    vector&lt;vector&lt;char&gt;&gt; board4 = {
+        {'O', 'O', 'O'},
+        {'X', 'X', 'X'},
+        {'X', 'O', ' '}
+    };
+    vector&lt;vector&lt;char&gt;&gt; board5 = {
+        {'X', ' ', ' '},
+        {' ', 'X', ' '},
+        {' ', ' ', 'X'}
+    };
+    vector&lt;vector&lt;char&gt;&gt; board6 = {
+        {' ', 'O', ' '},
+        {'O', ' ', 'O'},
+        {' ', 'O', ' '}
+    };
+    // Test case 1
+    SECTION("Test case 1") {
+        ostringstream output;
+        streambuf* oldCoutBuffer = cout.rdbuf(output.rdbuf()); // Redirect cout to ostringstream
+        printBoard(board1);
+        cout.rdbuf(oldCoutBuffer); // Restore original cout
+        string expectedOutput = "-------------\n| X | O | X | \n-------------\n|   | X | O | \n-------------\n| O |   |   | \n-------------\n";
+        REQUIRE(output.str() == expectedOutput);
+    }
+    // Test case 2
+    SECTION("Test case 2") {
+        ostringstream output;
+        streambuf* oldCoutBuffer = cout.rdbuf(output.rdbuf());
+        printBoard(board2);
+        cout.rdbuf(oldCoutBuffer);
+        string expectedOutput = "-------------\n|   |   |   | \n-------------\n|   |   |   | \n-------------\n|   |   |   | \n-------------\n";
+        REQUIRE(output.str() == expectedOutput);
+    }
+    // Test case 3
+    SECTION("Test case 3") {
+        ostringstream output;
+        streambuf* oldCoutBuffer = cout.rdbuf(output.rdbuf());
+        printBoard(board3);
+        cout.rdbuf(oldCoutBuffer);
+        string expectedOutput = "-------------\n| X | X | X | \n-------------\n| O | O |   | \n-------------\n|   |   |   | \n-------------\n";
+        REQUIRE(output.str() == expectedOutput);
+    }
+    // Test case 4
+    SECTION("Test case 4") {
+        ostringstream output;
+        streambuf* oldCoutBuffer = cout.rdbuf(output.rdbuf());
+        printBoard(board4);
+        cout.rdbuf(oldCoutBuffer);
+        string expectedOutput = "-------------\n| O | O | O | \n-------------\n| X | X | X | \n-------------\n| X | O |   | \n-------------\n";
+        REQUIRE(output.str() == expectedOutput);
+    }
+    // Test case 5
+    SECTION("Test case 5") {
+        ostringstream output;
+        streambuf* oldCoutBuffer = cout.rdbuf(output.rdbuf());
+        printBoard(board5);
+        cout.rdbuf(oldCoutBuffer);
+        string expectedOutput = "-------------\n| X |   |   | \n-------------\n|   | X |   | \n-------------\n|   |   | X | \n-------------\n";
+        REQUIRE(output.str() == expectedOutput);
+    }
+    // Test case 6
+    SECTION("Test case 6") {
+        ostringstream output;
+        streambuf* oldCoutBuffer = cout.rdbuf(output.rdbuf());
+        printBoard(board6);
+        cout.rdbuf(oldCoutBuffer);
+        string expectedOutput = "-------------\n|   | O |   | \n-------------\n| O |   | O | \n-------------\n|   | O |   | \n-------------\n";
+        REQUIRE(output.str() == expectedOutput);
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below /**
+ * @brief Prints a 3x3 game board to the console.
+ *
+ * This function takes a 2D vector representing a game board and prints
+ * it in a formatted manner, displaying the contents of each cell.
+ * The board is assumed to be a square of size 3x3, and each cell can
+ * contain either a character representing a player's move ('X' or 'O')
+ * or an empty space (' ').
+ *
+ * The output format includes a row of dashes to separate the rows of
+ * the board, and each cell is enclosed within vertical bars.
+ * The function does not return any value.
+ *
+ * @param board A 2D vector of characters, where each character represents
+ *              the state of a cell in the game board. The board must be
+ *              of size 3x3, and each character can be 'X', 'O', or ' '.
+ * For example:
+ *      input: [['X', 'O', 'X'],
+ *              [' ', 'X', 'O'],
+ *              ['O', ' ', ' ']]
+ *      output: -------------\n| X | O | X | \n-------------\n|   | X | O | \n-------------\n| O |   |   | \n-------------\n
+ */
+void printBoard(const vector&lt;vector&lt;char&gt;&gt;&amp; board) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;iostream&gt;\n#include &lt;vector&gt;\n\nusing namespace std;\n\nvoid printBoard(const vector&lt;vector&lt;char&gt;&gt;&amp; board) {\n    for (int i = 0; i &lt; 3; ++i) {\n        cout &lt;&lt; "-------------" &lt;&lt; endl;\n        cout &lt;&lt; "| " &lt;&lt; board[i][0] &lt;&lt; " | " &lt;&lt; board[i][1] &lt;&lt; " | " &lt;&lt; board[i][2] &lt;&lt; " |" &lt;&lt; endl;\n    }\n    cout &lt;&lt; "-------------" &lt;&lt; endl;\n}'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+answer_check.exe is a Catch v2.13.10 host application.
+Run with -? for options
+-------------------------------------------------------------------------------
+printBoard outputs correct format
+  Test case 1
+-------------------------------------------------------------------------------
+answer_check.cpp:52
+...............................................................................
+answer_check.cpp:60: FAILED:
+  REQUIRE( output.str() == expectedOutput )
+with expansion:
+  "-------------
+  | X | O | X |
+  -------------
+  |   | X | O |
+  -------------
+  | O |   |   |
+  -------------
+  "
+  ==
+  "-------------
+  | X | O | X | 
+  -------------
+  |   | X | O | 
+  -------------
+  | O |   |   | 
+  -------------
+  "
+-------------------------------------------------------------------------------
+printBoard outputs correct format
+  Test case 2
+-------------------------------------------------------------------------------
+answer_check.cpp:64
+...............................................................................
+answer_check.cpp:72: FAILED:
+  REQUIRE( output.str() == expectedOutput )
+with expansion:
+  "-------------
+  |   |   |   |
+  -------------
+  |   |   |   |
+  -------------
+  |   |   |   |
+  -------------
+  "
+  ==
+  "-------------
+  |   |   |   | 
+  -------------
+  |   |   |   | 
+  -------------
+  |   |   |   | 
+  -------------
+  "
+-------------------------------------------------------------------------------
+printBoard outputs correct format
+  Test case 3
+-------------------------------------------------------------------------------
+answer_check.cpp:76
+...............................................................................
+answer_check.cpp:84: FAILED:
+  REQUIRE( output.str() == expectedOutput )
+with expansion:
+  "-------------
+  | X | X | X |
+  -------------
+  | O | O |   |
+  -------------
+  |   |   |   |
+  -------------
+  "
+  ==
+  "-------------
+  | X | X | X | 
+  -------------
+  | O | O |   | 
+  -------------
+  |   |   |   | 
+  -------------
+  "
+-------------------------------------------------------------------------------
+printBoard outputs correct format
+  Test case 4
+-------------------------------------------------------------------------------
+answer_check.cpp:88
+...............................................................................
+answer_check.cpp:96: FAILED:
+  REQUIRE( output.str() == expectedOutput )
+with expansion:
+  "-------------
+  | O | O | O |
+  -------------
+  | X | X | X |
+  -------------
+  | X | O |   |
+  -------------
+  "
+  ==
+  "-------------
+  | O | O | O | 
+  -------------
+  | X | X | X | 
+  -------------
+  | X | O |   | 
+  -------------
+  "
+-------------------------------------------------------------------------------
+printBoard outputs correct format
+  Test case 5
+-------------------------------------------------------------------------------
+answer_check.cpp:100
+...............................................................................
+answer_check.cpp:108: FAILED:
+  REQUIRE( output.str() == expectedOutput )
+with expansion:
+  "-------------
+  | X |   |   |
+  -------------
+  |   | X |   |
+  -------------
+  |   |   | X |
+  -------------
+  "
+  ==
+  "-------------
+  | X |   |   | 
+  -------------
+  |   | X |   | 
+  -------------
+  |   |   | X | 
+  -------------
+  "
+-------------------------------------------------------------------------------
+printBoard outputs correct format
+  Test case 6
+-------------------------------------------------------------------------------
+answer_check.cpp:112
+...............................................................................
+answer_check.cpp:120: FAILED:
+  REQUIRE( output.str() == expectedOutput )
+with expansion:
+  "-------------
+  |   | O |   |
+  -------------
+  | O |   | O |
+  -------------
+  |   | O |   |
+  -------------
+  "
+  ==
+  "-------------
+  |   | O |   | 
+  -------------
+  | O |   | O | 
+  -------------
+  |   | O |   | 
+  -------------
+  "
+===============================================================================
+test cases: 1 | 1 failed
+assertions: 6 | 6 failed
+</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;iostream&gt;
+#include &lt;vector&gt;
+using namespace std;
+void printBoard(const vector&lt;vector&lt;char&gt;&gt;&amp; board) {
+    for (int i = 0; i &lt; 3; ++i) {
+        cout &lt;&lt; "-------------" &lt;&lt; endl;
+        cout &lt;&lt; "| " &lt;&lt; board[i][0] &lt;&lt; " | " &lt;&lt; board[i][1] &lt;&lt; " | " &lt;&lt; board[i][2] &lt;&lt; " |" &lt;&lt; endl;
+    }
+    cout &lt;&lt; "-------------" &lt;&lt; endl;
+}TEST_CASE("printBoard outputs correct format", "[printBoard]") {
+    vector&lt;vector&lt;char&gt;&gt; board1 = {
+        {'X', 'O', 'X'},
+        {' ', 'X', 'O'},
+        {'O', ' ', ' '}
+    };
+    vector&lt;vector&lt;char&gt;&gt; board2 = {
+        {' ', ' ', ' '},
+        {' ', ' ', ' '},
+        {' ', ' ', ' '}
+    };
+    vector&lt;vector&lt;char&gt;&gt; board3 = {
+        {'X', 'X', 'X'},
+        {'O', 'O', ' '},
+        {' ', ' ', ' '}
+    };
+    vector&lt;vector&lt;char&gt;&gt; board4 = {
+        {'O', 'O', 'O'},
+        {'X', 'X', 'X'},
+        {'X', 'O', ' '}
+    };
+    vector&lt;vector&lt;char&gt;&gt; board5 = {
+        {'X', ' ', ' '},
+        {' ', 'X', ' '},
+        {' ', ' ', 'X'}
+    };
+    vector&lt;vector&lt;char&gt;&gt; board6 = {
+        {' ', 'O', ' '},
+        {'O', ' ', 'O'},
+        {' ', 'O', ' '}
+    };
+    // Test case 1
+    SECTION("Test case 1") {
+        ostringstream output;
+        streambuf* oldCoutBuffer = cout.rdbuf(output.rdbuf()); // Redirect cout to ostringstream
+        printBoard(board1);
+        cout.rdbuf(oldCoutBuffer); // Restore original cout
+        string expectedOutput = "-------------\n| X | O | X | \n-------------\n|   | X | O | \n-------------\n| O |   |   | \n-------------\n";
+        REQUIRE(output.str() == expectedOutput);
+    }
+    // Test case 2
+    SECTION("Test case 2") {
+        ostringstream output;
+        streambuf* oldCoutBuffer = cout.rdbuf(output.rdbuf());
+        printBoard(board2);
+        cout.rdbuf(oldCoutBuffer);
+        string expectedOutput = "-------------\n|   |   |   | \n-------------\n|   |   |   | \n-------------\n|   |   |   | \n-------------\n";
+        REQUIRE(output.str() == expectedOutput);
+    }
+    // Test case 3
+    SECTION("Test case 3") {
+        ostringstream output;
+        streambuf* oldCoutBuffer = cout.rdbuf(output.rdbuf());
+        printBoard(board3);
+        cout.rdbuf(oldCoutBuffer);
+        string expectedOutput = "-------------\n| X | X | X | \n-------------\n| O | O |   | \n-------------\n|   |   |   | \n-------------\n";
+        REQUIRE(output.str() == expectedOutput);
+    }
+    // Test case 4
+    SECTION("Test case 4") {
+        ostringstream output;
+        streambuf* oldCoutBuffer = cout.rdbuf(output.rdbuf());
+        printBoard(board4);
+        cout.rdbuf(oldCoutBuffer);
+        string expectedOutput = "-------------\n| O | O | O | \n-------------\n| X | X | X | \n-------------\n| X | O |   | \n-------------\n";
+        REQUIRE(output.str() == expectedOutput);
+    }
+    // Test case 5
+    SECTION("Test case 5") {
+        ostringstream output;
+        streambuf* oldCoutBuffer = cout.rdbuf(output.rdbuf());
+        printBoard(board5);
+        cout.rdbuf(oldCoutBuffer);
+        string expectedOutput = "-------------\n| X |   |   | \n-------------\n|   | X |   | \n-------------\n|   |   | X | \n-------------\n";
+        REQUIRE(output.str() == expectedOutput);
+    }
+    // Test case 6
+    SECTION("Test case 6") {
+        ostringstream output;
+        streambuf* oldCoutBuffer = cout.rdbuf(output.rdbuf());
+        printBoard(board6);
+        cout.rdbuf(oldCoutBuffer);
+        string expectedOutput = "-------------\n|   | O |   | \n-------------\n| O |   | O | \n-------------\n|   | O |   | \n-------------\n";
+        REQUIRE(output.str() == expectedOutput);
+    }
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;string&gt;
+/**
+ * Extracts the first complete JSON object from a given string.
+ *
+ * The function looks for the first occurrence of an opening curly brace '{'
+ * and searches for the corresponding closing curly brace '}'. It tracks
+ * the balance of braces to ensure that the JSON object is complete.
+ *
+ * If a complete JSON object is found, it returns the substring that
+ * represents that object. If no opening brace is found or if the braces
+ * are unbalanced (i.e., incomplete), it returns an empty string.
+ *
+ * @param response The input string from which to extract the JSON object.
+ * @return A string containing the first complete JSON object, or an
+ *         empty string if no complete object is found.
+ */
+std::string extract_json(const std::string&amp; response) {}</t>
+  </si>
+  <si>
+    <t>TEST_CASE("extract_json returns an empty string for input without '{'") {
+    std::string input = "No braces here";
+    REQUIRE(extract_json(input) == "");
+}
+TEST_CASE("extract_json extracts a single JSON object") {
+    std::string input = "Here is some text before { \"key\": \"value\" } and some text after.";
+    REQUIRE(extract_json(input) == "{ \"key\": \"value\" }");
+}
+TEST_CASE("extract_json handles nested JSON objects") {
+    std::string input = "Some text { \"outer\": { \"inner\": \"value\" } } more text.";
+    REQUIRE(extract_json(input) == "{ \"outer\": { \"inner\": \"value\" } }");
+}
+TEST_CASE("extract_json returns an empty string for unmatched braces") {
+    std::string input = "Here is an incomplete JSON { \"key\": \"value\" ";
+    REQUIRE(extract_json(input) == "");
+}
+TEST_CASE("extract_json returns the correct JSON when multiple braces are present") {
+    std::string input = "Start { { \"key\": \"value\" } and some other text { \"another\": \"object\" }} end.";
+    REQUIRE(extract_json(input) == "{ { \"key\": \"value\" } and some other text { \"another\": \"object\" }}");
+}
+TEST_CASE("extract_json extracts the first JSON object when multiple are present") {
+    std::string input = "Text before { \"first\": \"value1\" } text in between { \"second\": \"value2\" }";
+    REQUIRE(extract_json(input) == "{ \"first\": \"value1\" }");
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below #include &lt;string&gt;
+/**
+ * Extracts the first complete JSON object from a given string.
+ *
+ * The function looks for the first occurrence of an opening curly brace '{'
+ * and searches for the corresponding closing curly brace '}'. It tracks
+ * the balance of braces to ensure that the JSON object is complete.
+ *
+ * If a complete JSON object is found, it returns the substring that
+ * represents that object. If no opening brace is found or if the braces
+ * are unbalanced (i.e., incomplete), it returns an empty string.
+ *
+ * @param response The input string from which to extract the JSON object.
+ * @return A string containing the first complete JSON object, or an
+ *         empty string if no complete object is found.
+ */
+std::string extract_json(const std::string&amp; response) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;string&gt;\n\nstd::string extract_json(const std::string&amp; response) {\n    size_t start = response.find(\'{\');\n    if (start == std::string::npos) return "";\n\n    int balance = 0;\n    for (size_t i = start; i &lt; response.length(); ++i) {\n        if (response[i] == \'{\') balance++;\n        else if (response[i] == \'}\') balance--;\n        \n        if (balance == 0) {\n            return response.substr(start, i - start + 1);\n        }\n    }\n    return "";\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;string&gt;
+std::string extract_json(const std::string&amp; response) {
+    size_t start = response.find('{');
+    if (start == std::string::npos) return "";
+    int balance = 0;
+    for (size_t i = start; i &lt; response.length(); ++i) {
+        if (response[i] == '{') balance++;
+        else if (response[i] == '}') balance--;
+        if (balance == 0) {
+            return response.substr(start, i - start + 1);
+        }
+    }
+    return "";
+}TEST_CASE("extract_json returns an empty string for input without '{'") {
+    std::string input = "No braces here";
+    REQUIRE(extract_json(input) == "");
+}
+TEST_CASE("extract_json extracts a single JSON object") {
+    std::string input = "Here is some text before { \"key\": \"value\" } and some text after.";
+    REQUIRE(extract_json(input) == "{ \"key\": \"value\" }");
+}
+TEST_CASE("extract_json handles nested JSON objects") {
+    std::string input = "Some text { \"outer\": { \"inner\": \"value\" } } more text.";
+    REQUIRE(extract_json(input) == "{ \"outer\": { \"inner\": \"value\" } }");
+}
+TEST_CASE("extract_json returns an empty string for unmatched braces") {
+    std::string input = "Here is an incomplete JSON { \"key\": \"value\" ";
+    REQUIRE(extract_json(input) == "");
+}
+TEST_CASE("extract_json returns the correct JSON when multiple braces are present") {
+    std::string input = "Start { { \"key\": \"value\" } and some other text { \"another\": \"object\" }} end.";
+    REQUIRE(extract_json(input) == "{ { \"key\": \"value\" } and some other text { \"another\": \"object\" }}");
+}
+TEST_CASE("extract_json extracts the first JSON object when multiple are present") {
+    std::string input = "Text before { \"first\": \"value1\" } text in between { \"second\": \"value2\" }";
+    REQUIRE(extract_json(input) == "{ \"first\": \"value1\" }");
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;string&gt;
+#include &lt;map&gt;
+#include &lt;sstream&gt;
+/**
+ * @brief Parses the first line of an HTTP request response string.
+ *
+ * This function extracts the HTTP method, request URL, and HTTP version
+ * from the given response string. The first line of the response should
+ * be formatted as "METHOD URL HTTP/VERSION", followed by a CRLF sequence
+ * (carriage return and line feed). If the first line does not conform
+ * to this format, the function will return an empty map.
+ *
+ * @param response A string containing the HTTP response. It is expected
+ *                 to start with a request line that includes the method,
+ *                 URL, and HTTP version, ending with CRLF ("\r\n").
+ *
+ * @return A map containing three key-value pairs:
+ *         - "method": The HTTP method (e.g., GET, POST).
+ *         - "url": The requested URL (e.g., /index.html).
+ *         - "http_version": The HTTP version (e.g., HTTP/1.1).
+ *         If the request line is malformed or empty, the map may contain
+ *         empty strings or be empty.
+ *
+ * @note The function does not validate the correctness of the HTTP method,
+ *       URL, or version; it only parses the input string.
+ */
+std::map&lt;std::string, std::string&gt; parse_http_request_line(const std::string&amp; response){}</t>
+  </si>
+  <si>
+    <t>TEST_CASE("Valid POST request line", "[parse_http_request_line]") {
+    std::string response = "POST /api/data HTTP/1.1\r\n";
+    auto parsed_info = parse_http_request_line(response);
+    REQUIRE(parsed_info["method"] == "POST");
+    REQUIRE(parsed_info["url"] == "/api/data");
+    REQUIRE(parsed_info["http_version"] == "HTTP/1.1");
+}
+TEST_CASE("PUT request line", "[parse_http_request_line]") {
+    std::string response = "PUT /api/update HTTP/2.0\r\n";
+    auto parsed_info = parse_http_request_line(response);
+    REQUIRE(parsed_info["method"] == "PUT");
+    REQUIRE(parsed_info["url"] == "/api/update");
+    REQUIRE(parsed_info["http_version"] == "HTTP/2.0");
+}
+TEST_CASE("DELETE request line", "[parse_http_request_line]") {
+    std::string response = "DELETE /api/delete HTTP/1.1\r\n";
+    auto parsed_info = parse_http_request_line(response);
+    REQUIRE(parsed_info["method"] == "DELETE");
+    REQUIRE(parsed_info["url"] == "/api/delete");
+    REQUIRE(parsed_info["http_version"] == "HTTP/1.1");
+}
+TEST_CASE("Malformed request line", "[parse_http_request_line]") {
+    std::string response = "INVALID REQUEST LINE\r\n";
+    auto parsed_info = parse_http_request_line(response);
+    REQUIRE(parsed_info.empty());  // Expect empty result for malformed request
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below #include &lt;string&gt;
+#include &lt;map&gt;
+#include &lt;sstream&gt;
+/**
+ * @brief Parses the first line of an HTTP request response string.
+ *
+ * This function extracts the HTTP method, request URL, and HTTP version
+ * from the given response string. The first line of the response should
+ * be formatted as "METHOD URL HTTP/VERSION", followed by a CRLF sequence
+ * (carriage return and line feed). If the first line does not conform
+ * to this format, the function will return an empty map.
+ *
+ * @param response A string containing the HTTP response. It is expected
+ *                 to start with a request line that includes the method,
+ *                 URL, and HTTP version, ending with CRLF ("\r\n").
+ *
+ * @return A map containing three key-value pairs:
+ *         - "method": The HTTP method (e.g., GET, POST).
+ *         - "url": The requested URL (e.g., /index.html).
+ *         - "http_version": The HTTP version (e.g., HTTP/1.1).
+ *         If the request line is malformed or empty, the map may contain
+ *         empty strings or be empty.
+ *
+ * @note The function does not validate the correctness of the HTTP method,
+ *       URL, or version; it only parses the input string.
+ */
+std::map&lt;std::string, std::string&gt; parse_http_request_line(const std::string&amp; response){}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'std::map&lt;std::string, std::string&gt; parse_http_request_line(const std::string&amp; response) {\n    std::map&lt;std::string, std::string&gt; result;\n    std::istringstream stream(response);\n    std::string method, url, version;\n    if (std::getline(stream, method, \' \') &amp;&amp; \n        std::getline(stream, url, \' \') &amp;&amp; \n        std::getline(stream, version) &amp;&amp; \n        version.size() &gt;= 8 &amp;&amp; version.substr(version.size() - 2) == "\\r\\n") {\n        version = version.substr(0, version.size() - 2); // Remove CRLF\n        result["method"] = method;\n        result["url"] = url;\n        result["http_version"] = version;\n    }\n    return result;\n}'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+answer_check.exe is a Catch v2.13.10 host application.
+Run with -? for options
+-------------------------------------------------------------------------------
+Valid POST request line
+-------------------------------------------------------------------------------
+answer_check.cpp:17
+...............................................................................
+answer_check.cpp:21: FAILED:
+  REQUIRE( parsed_info["method"] == "POST" )
+with expansion:
+  "" == "POST"
+-------------------------------------------------------------------------------
+PUT request line
+-------------------------------------------------------------------------------
+answer_check.cpp:26
+...............................................................................
+answer_check.cpp:30: FAILED:
+  REQUIRE( parsed_info["method"] == "PUT" )
+with expansion:
+  "" == "PUT"
+-------------------------------------------------------------------------------
+DELETE request line
+-------------------------------------------------------------------------------
+answer_check.cpp:35
+...............................................................................
+answer_check.cpp:39: FAILED:
+  REQUIRE( parsed_info["method"] == "DELETE" )
+with expansion:
+  "" == "DELETE"
+===============================================================================
+test cases: 4 | 1 passed | 3 failed
+assertions: 4 | 1 passed | 3 failed
+</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+std::map&lt;std::string, std::string&gt; parse_http_request_line(const std::string&amp; response) {
+    std::map&lt;std::string, std::string&gt; result;
+    std::istringstream stream(response);
+    std::string method, url, version;
+    if (std::getline(stream, method, ' ') &amp;&amp; 
+        std::getline(stream, url, ' ') &amp;&amp; 
+        std::getline(stream, version) &amp;&amp; 
+        version.size() &gt;= 8 &amp;&amp; version.substr(version.size() - 2) == "\r\n") {
+        version = version.substr(0, version.size() - 2); // Remove CRLF
+        result["method"] = method;
+        result["url"] = url;
+        result["http_version"] = version;
+    }
+    return result;
+}TEST_CASE("Valid POST request line", "[parse_http_request_line]") {
+    std::string response = "POST /api/data HTTP/1.1\r\n";
+    auto parsed_info = parse_http_request_line(response);
+    REQUIRE(parsed_info["method"] == "POST");
+    REQUIRE(parsed_info["url"] == "/api/data");
+    REQUIRE(parsed_info["http_version"] == "HTTP/1.1");
+}
+TEST_CASE("PUT request line", "[parse_http_request_line]") {
+    std::string response = "PUT /api/update HTTP/2.0\r\n";
+    auto parsed_info = parse_http_request_line(response);
+    REQUIRE(parsed_info["method"] == "PUT");
+    REQUIRE(parsed_info["url"] == "/api/update");
+    REQUIRE(parsed_info["http_version"] == "HTTP/2.0");
+}
+TEST_CASE("DELETE request line", "[parse_http_request_line]") {
+    std::string response = "DELETE /api/delete HTTP/1.1\r\n";
+    auto parsed_info = parse_http_request_line(response);
+    REQUIRE(parsed_info["method"] == "DELETE");
+    REQUIRE(parsed_info["url"] == "/api/delete");
+    REQUIRE(parsed_info["http_version"] == "HTTP/1.1");
+}
+TEST_CASE("Malformed request line", "[parse_http_request_line]") {
+    std::string response = "INVALID REQUEST LINE\r\n";
+    auto parsed_info = parse_http_request_line(response);
+    REQUIRE(parsed_info.empty());  // Expect empty result for malformed request
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#include &lt;iostream&gt;
+#include &lt;string&gt;
+#include &lt;unordered_map&gt;
+/**
+* Please write a class that contains RGB representations of, RED, GREEN, BLUE, YELLOW, MAGENTA, CYAN, WHITE, BLACK, ORANGE, PURPLE, PINK, BROWN, which can be obtained directly by the function
+/
+class Color {
+public:
+    enum ColorName {
+        RED,
+        GREEN,
+        BLUE,
+        YELLOW,
+        MAGENTA,
+        CYAN,
+        WHITE,
+        BLACK,
+        ORANGE,
+        PURPLE,
+        PINK,
+        BROWN
+    };
+    // Constructor
+    Color() {
+        initializeColors();
+    }
+    // Function to get the RGB value of a color by its name
+    std::tuple&lt;int, int, int&gt; getColor(ColorName colorName) {}
+    // Function to get the color name as a string
+    std::string getColorName(ColorName colorName) {}
+private:
+    // A map to store the RGB values of the colors
+    std::unordered_map&lt;ColorName, std::tuple&lt;int, int, int&gt;&gt; colors;
+    // Function to initialize the colors
+    void initializeColors() {}
+};
+</t>
+  </si>
+  <si>
+    <t>TEST_CASE("Color RGB Values", "[Color]") {
+    Color color;
+    SECTION("Verify RGB values for Red") {
+        auto rgb = color.getColor(Color::RED);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 0);
+    }
+    SECTION("Verify RGB values for Green") {
+        auto rgb = color.getColor(Color::GREEN);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 0);
+    }
+    SECTION("Verify RGB values for Blue") {
+        auto rgb = color.getColor(Color::BLUE);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 255);
+    }
+    SECTION("Verify RGB values for Yellow") {
+        auto rgb = color.getColor(Color::YELLOW);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 0);
+    }
+    SECTION("Verify RGB values for Magenta") {
+        auto rgb = color.getColor(Color::MAGENTA);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 255);
+    }
+    SECTION("Verify RGB values for Cyan") {
+        auto rgb = color.getColor(Color::CYAN);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 255);
+    }
+    SECTION("Verify RGB values for White") {
+        auto rgb = color.getColor(Color::WHITE);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 255);
+    }
+    SECTION("Verify RGB values for Black") {
+        auto rgb = color.getColor(Color::BLACK);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 0);
+    }
+    SECTION("Verify RGB values for Orange") {
+        auto rgb = color.getColor(Color::ORANGE);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 165);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 0);
+    }
+    SECTION("Verify RGB values for Purple") {
+        auto rgb = color.getColor(Color::PURPLE);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 128);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 128);
+    }
+    SECTION("Verify RGB values for Pink") {
+        auto rgb = color.getColor(Color::PINK);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 192);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 203);
+    }
+    SECTION("Verify RGB values for Brown") {
+        auto rgb = color.getColor(Color::BROWN);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 165);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 42);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 42);
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">please write a cpp class , the class signature as below #include &lt;iostream&gt;
+#include &lt;string&gt;
+#include &lt;unordered_map&gt;
+/**
+* Please write a class that contains RGB representations of, RED, GREEN, BLUE, YELLOW, MAGENTA, CYAN, WHITE, BLACK, ORANGE, PURPLE, PINK, BROWN, which can be obtained directly by the function
+/
+class Color {
+public:
+    enum ColorName {
+        RED,
+        GREEN,
+        BLUE,
+        YELLOW,
+        MAGENTA,
+        CYAN,
+        WHITE,
+        BLACK,
+        ORANGE,
+        PURPLE,
+        PINK,
+        BROWN
+    };
+    // Constructor
+    Color() {
+        initializeColors();
+    }
+    // Function to get the RGB value of a color by its name
+    std::tuple&lt;int, int, int&gt; getColor(ColorName colorName) {}
+    // Function to get the color name as a string
+    std::string getColorName(ColorName colorName) {}
+private:
+    // A map to store the RGB values of the colors
+    std::unordered_map&lt;ColorName, std::tuple&lt;int, int, int&gt;&gt; colors;
+    // Function to initialize the colors
+    void initializeColors() {}
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#include &lt;unordered_map&gt;
+</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;iostream&gt;\n#include &lt;string&gt;\n#include &lt;unordered_map&gt;\n#include &lt;tuple&gt;\n\nclass Color {\npublic:\n    enum ColorName {\n        RED,\n        GREEN,\n        BLUE,\n        YELLOW,\n        MAGENTA,\n        CYAN,\n        WHITE,\n        BLACK,\n        ORANGE,\n        PURPLE,\n        PINK,\n        BROWN\n    };\n\n    // Constructor\n    Color() {\n        initializeColors();\n    }\n\n    // Function to get the RGB value of a color by its name\n    std::tuple&lt;int, int, int&gt; getColor(ColorName colorName) {\n        return colors[colorName];\n    }\n\n    // Function to get the color name as a string\n    std::string getColorName(ColorName colorName) {\n        switch (colorName) {\n            case RED: return "Red";\n            case GREEN: return "Green";\n            case BLUE: return "Blue";\n            case YELLOW: return "Yellow";\n            case MAGENTA: return "Magenta";\n            case CYAN: return "Cyan";\n            case WHITE: return "White";\n            case BLACK: return "Black";\n            case ORANGE: return "Orange";\n            case PURPLE: return "Purple";\n            case PINK: return "Pink";\n            case BROWN: return "Brown";\n            default: return "Unknown Color";\n        }\n    }\n\nprivate:\n    // A map to store the RGB values of the colors\n    std::unordered_map&lt;ColorName, std::tuple&lt;int, int, int&gt;&gt; colors;\n\n    // Function to initialize the colors\n    void initializeColors() {\n        colors[RED] = std::make_tuple(255, 0, 0);\n        colors[GREEN] = std::make_tuple(0, 255, 0);\n        colors[BLUE] = std::make_tuple(0, 0, 255);\n        colors[YELLOW] = std::make_tuple(255, 255, 0);\n        colors[MAGENTA] = std::make_tuple(255, 0, 255);\n        colors[CYAN] = std::make_tuple(0, 255, 255);\n        colors[WHITE] = std::make_tuple(255, 255, 255);\n        colors[BLACK] = std::make_tuple(0, 0, 0);\n        colors[ORANGE] = std::make_tuple(255, 165, 0);\n        colors[PURPLE] = std::make_tuple(128, 0, 128);\n        colors[PINK] = std::make_tuple(255, 192, 203);\n        colors[BROWN] = std::make_tuple(165, 42, 42);\n    }\n};'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;unordered_map&gt;
+#include &lt;iostream&gt;
+#include &lt;string&gt;
+#include &lt;unordered_map&gt;
+#include &lt;tuple&gt;
+class Color {
+public:
+    enum ColorName {
+        RED,
+        GREEN,
+        BLUE,
+        YELLOW,
+        MAGENTA,
+        CYAN,
+        WHITE,
+        BLACK,
+        ORANGE,
+        PURPLE,
+        PINK,
+        BROWN
+    };
+    // Constructor
+    Color() {
+        initializeColors();
+    }
+    // Function to get the RGB value of a color by its name
+    std::tuple&lt;int, int, int&gt; getColor(ColorName colorName) {
+        return colors[colorName];
+    }
+    // Function to get the color name as a string
+    std::string getColorName(ColorName colorName) {
+        switch (colorName) {
+            case RED: return "Red";
+            case GREEN: return "Green";
+            case BLUE: return "Blue";
+            case YELLOW: return "Yellow";
+            case MAGENTA: return "Magenta";
+            case CYAN: return "Cyan";
+            case WHITE: return "White";
+            case BLACK: return "Black";
+            case ORANGE: return "Orange";
+            case PURPLE: return "Purple";
+            case PINK: return "Pink";
+            case BROWN: return "Brown";
+            default: return "Unknown Color";
+        }
+    }
+private:
+    // A map to store the RGB values of the colors
+    std::unordered_map&lt;ColorName, std::tuple&lt;int, int, int&gt;&gt; colors;
+    // Function to initialize the colors
+    void initializeColors() {
+        colors[RED] = std::make_tuple(255, 0, 0);
+        colors[GREEN] = std::make_tuple(0, 255, 0);
+        colors[BLUE] = std::make_tuple(0, 0, 255);
+        colors[YELLOW] = std::make_tuple(255, 255, 0);
+        colors[MAGENTA] = std::make_tuple(255, 0, 255);
+        colors[CYAN] = std::make_tuple(0, 255, 255);
+        colors[WHITE] = std::make_tuple(255, 255, 255);
+        colors[BLACK] = std::make_tuple(0, 0, 0);
+        colors[ORANGE] = std::make_tuple(255, 165, 0);
+        colors[PURPLE] = std::make_tuple(128, 0, 128);
+        colors[PINK] = std::make_tuple(255, 192, 203);
+        colors[BROWN] = std::make_tuple(165, 42, 42);
+    }
+};TEST_CASE("Color RGB Values", "[Color]") {
+    Color color;
+    SECTION("Verify RGB values for Red") {
+        auto rgb = color.getColor(Color::RED);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 0);
+    }
+    SECTION("Verify RGB values for Green") {
+        auto rgb = color.getColor(Color::GREEN);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 0);
+    }
+    SECTION("Verify RGB values for Blue") {
+        auto rgb = color.getColor(Color::BLUE);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 255);
+    }
+    SECTION("Verify RGB values for Yellow") {
+        auto rgb = color.getColor(Color::YELLOW);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 0);
+    }
+    SECTION("Verify RGB values for Magenta") {
+        auto rgb = color.getColor(Color::MAGENTA);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 255);
+    }
+    SECTION("Verify RGB values for Cyan") {
+        auto rgb = color.getColor(Color::CYAN);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 255);
+    }
+    SECTION("Verify RGB values for White") {
+        auto rgb = color.getColor(Color::WHITE);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 255);
+    }
+    SECTION("Verify RGB values for Black") {
+        auto rgb = color.getColor(Color::BLACK);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 0);
+    }
+    SECTION("Verify RGB values for Orange") {
+        auto rgb = color.getColor(Color::ORANGE);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 165);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 0);
+    }
+    SECTION("Verify RGB values for Purple") {
+        auto rgb = color.getColor(Color::PURPLE);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 128);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 0);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 128);
+    }
+    SECTION("Verify RGB values for Pink") {
+        auto rgb = color.getColor(Color::PINK);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 255);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 192);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 203);
+    }
+    SECTION("Verify RGB values for Brown") {
+        auto rgb = color.getColor(Color::BROWN);
+        REQUIRE(std::get&lt;0&gt;(rgb) == 165);
+        REQUIRE(std::get&lt;1&gt;(rgb) == 42);
+        REQUIRE(std::get&lt;2&gt;(rgb) == 42);
+    }
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;cmath&gt;
+#include &lt;stdexcept&gt;
+/**
+ * @brief Performs a mathematical operation on two operands.
+ *
+ * This function takes two double values and an operator character, and performs
+ * the specified arithmetic operation. Supported operations include addition,
+ * subtraction, multiplication, division, and exponentiation.
+ *
+ * @param a The first operand (double).
+ * @param b The second operand (double).
+ * @param op A character representing the operation to perform:
+ *            '+' for addition,
+ *            '-' for subtraction,
+ *            '*' for multiplication,
+ *            '/' for division,
+ *            '^' for exponentiation.
+ *
+ * @return The result of the operation as a double.
+ *
+ * @throws std::invalid_argument if the operator is not recognized or if
+ *         there is an attempt to divide by zero.
+ */
+double applyOp(double a, double b, char op) {}</t>
+  </si>
+  <si>
+    <t>TEST_CASE("applyOp function tests") {
+    SECTION("Addition") {
+        REQUIRE(applyOp(3, 4, '+') == 7);
+        REQUIRE(applyOp(-1, -1, '+') == -2);
+    }
+    SECTION("Subtraction") {
+        REQUIRE(applyOp(10, 5, '-') == 5);
+        REQUIRE(applyOp(5, 10, '-') == -5);
+    }
+    SECTION("Multiplication") {
+        REQUIRE(applyOp(3, 4, '*') == 12);
+        REQUIRE(applyOp(-2, 5, '*') == -10);
+    }
+    SECTION("Division") {
+        REQUIRE(applyOp(8, 4, '/') == 2);
+        REQUIRE(applyOp(5, 2, '/') == 2.5);
+        REQUIRE_THROWS_AS(applyOp(5, 0, '/'), std::invalid_argument);
+    }
+    SECTION("Exponentiation") {
+        REQUIRE(applyOp(2, 3, '^') == 8);
+        REQUIRE(applyOp(9, 0.5, '^') == 3); // Square root of 9
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below #include &lt;cmath&gt;
+#include &lt;stdexcept&gt;
+/**
+ * @brief Performs a mathematical operation on two operands.
+ *
+ * This function takes two double values and an operator character, and performs
+ * the specified arithmetic operation. Supported operations include addition,
+ * subtraction, multiplication, division, and exponentiation.
+ *
+ * @param a The first operand (double).
+ * @param b The second operand (double).
+ * @param op A character representing the operation to perform:
+ *            '+' for addition,
+ *            '-' for subtraction,
+ *            '*' for multiplication,
+ *            '/' for division,
+ *            '^' for exponentiation.
+ *
+ * @return The result of the operation as a double.
+ *
+ * @throws std::invalid_argument if the operator is not recognized or if
+ *         there is an attempt to divide by zero.
+ */
+double applyOp(double a, double b, char op) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'double applyOp(double a, double b, char op) {\n    switch (op) {\n        case \'+\':\n            return a + b;\n        case \'-\':\n            return a - b;\n        case \'*\':\n            return a * b;\n        case \'/\':\n            if (b == 0) {\n                throw std::invalid_argument("Division by zero");\n            }\n            return a / b;\n        case \'^\':\n            return std::pow(a, b);\n        default:\n            throw std::invalid_argument("Invalid operator");\n    }\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+double applyOp(double a, double b, char op) {
+    switch (op) {
+        case '+':
+            return a + b;
+        case '-':
+            return a - b;
+        case '*':
+            return a * b;
+        case '/':
+            if (b == 0) {
+                throw std::invalid_argument("Division by zero");
+            }
+            return a / b;
+        case '^':
+            return std::pow(a, b);
+        default:
+            throw std::invalid_argument("Invalid operator");
+    }
+}TEST_CASE("applyOp function tests") {
+    SECTION("Addition") {
+        REQUIRE(applyOp(3, 4, '+') == 7);
+        REQUIRE(applyOp(-1, -1, '+') == -2);
+    }
+    SECTION("Subtraction") {
+        REQUIRE(applyOp(10, 5, '-') == 5);
+        REQUIRE(applyOp(5, 10, '-') == -5);
+    }
+    SECTION("Multiplication") {
+        REQUIRE(applyOp(3, 4, '*') == 12);
+        REQUIRE(applyOp(-2, 5, '*') == -10);
+    }
+    SECTION("Division") {
+        REQUIRE(applyOp(8, 4, '/') == 2);
+        REQUIRE(applyOp(5, 2, '/') == 2.5);
+        REQUIRE_THROWS_AS(applyOp(5, 0, '/'), std::invalid_argument);
+    }
+    SECTION("Exponentiation") {
+        REQUIRE(applyOp(2, 3, '^') == 8);
+        REQUIRE(applyOp(9, 0.5, '^') == 3); // Square root of 9
+    }
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;iostream&gt;
+#include &lt;sstream&gt;
+#include &lt;string&gt;
+#include &lt;vector&gt;
+#include &lt;algorithm&gt; // for std::remove_if
+/**
+ * @brief Splits a comma-separated string into individual tokens.
+ *
+ * This function takes a string containing comma-separated values, trims
+ * leading and trailing whitespace from each token, and stores the non-empty
+ * tokens in the provided vector.
+ *
+ * @param str The input string to be split, which may contain leading and
+ *            trailing whitespace around the tokens.
+ * @param vect A reference to a vector of strings where the resulting tokens
+ *             will be stored. The vector will be cleared before storing
+ *             the new tokens.
+ */
+void splitComma(const std::string&amp; str, std::vector&lt;std::string&gt;&amp; vect) {}</t>
+  </si>
+  <si>
+    <t>TEST_CASE("splitComma function tests") {
+    std::vector&lt;std::string&gt; result;
+    SECTION("Basic comma-separated values") {
+        splitComma("apple,banana,orange", result);
+        REQUIRE(result.size() == 3);
+        REQUIRE(result[0] == "apple");
+        REQUIRE(result[1] == "banana");
+        REQUIRE(result[2] == "orange");
+    }
+    SECTION("Leading and trailing whitespace") {
+        splitComma("  apple , banana , orange  ", result);
+        REQUIRE(result.size() == 3);
+        REQUIRE(result[0] == "apple");
+        REQUIRE(result[1] == "banana");
+        REQUIRE(result[2] == "orange");
+    }
+    SECTION("Multiple consecutive commas") {
+        splitComma("apple,,banana,,,orange", result);
+        REQUIRE(result.size() == 3);
+        REQUIRE(result[0] == "apple");
+        REQUIRE(result[1] == "banana");
+        REQUIRE(result[2] == "orange");
+    }
+    SECTION("Empty input string") {
+        splitComma("", result);
+        REQUIRE(result.size() == 0);
+    }
+    SECTION("Only whitespace input") {
+        splitComma("   ", result);
+        REQUIRE(result.size() == 0);
+    }
+    SECTION("Trailing commas") {
+        splitComma("apple,banana,orange,", result);
+        REQUIRE(result.size() == 3);
+        REQUIRE(result[0] == "apple");
+        REQUIRE(result[1] == "banana");
+        REQUIRE(result[2] == "orange");
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below #include &lt;iostream&gt;
+#include &lt;sstream&gt;
+#include &lt;string&gt;
+#include &lt;vector&gt;
+#include &lt;algorithm&gt; // for std::remove_if
+/**
+ * @brief Splits a comma-separated string into individual tokens.
+ *
+ * This function takes a string containing comma-separated values, trims
+ * leading and trailing whitespace from each token, and stores the non-empty
+ * tokens in the provided vector.
+ *
+ * @param str The input string to be split, which may contain leading and
+ *            trailing whitespace around the tokens.
+ * @param vect A reference to a vector of strings where the resulting tokens
+ *             will be stored. The vector will be cleared before storing
+ *             the new tokens.
+ */
+void splitComma(const std::string&amp; str, std::vector&lt;std::string&gt;&amp; vect) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'void splitComma(const std::string&amp; str, std::vector&lt;std::string&gt;&amp; vect) {\n    vect.clear();\n    std::istringstream ss(str);\n    std::string token;\n    while (std::getline(ss, token, \',\')) {\n        token.erase(0, token.find_first_not_of(" \\t")); // trim leading whitespace\n        token.erase(token.find_last_not_of(" \\t") + 1); // trim trailing whitespace\n        if (!token.empty()) {\n            vect.push_back(token);\n        }\n    }\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+void splitComma(const std::string&amp; str, std::vector&lt;std::string&gt;&amp; vect) {
+    vect.clear();
+    std::istringstream ss(str);
+    std::string token;
+    while (std::getline(ss, token, ',')) {
+        token.erase(0, token.find_first_not_of(" \t")); // trim leading whitespace
+        token.erase(token.find_last_not_of(" \t") + 1); // trim trailing whitespace
+        if (!token.empty()) {
+            vect.push_back(token);
+        }
+    }
+}TEST_CASE("splitComma function tests") {
+    std::vector&lt;std::string&gt; result;
+    SECTION("Basic comma-separated values") {
+        splitComma("apple,banana,orange", result);
+        REQUIRE(result.size() == 3);
+        REQUIRE(result[0] == "apple");
+        REQUIRE(result[1] == "banana");
+        REQUIRE(result[2] == "orange");
+    }
+    SECTION("Leading and trailing whitespace") {
+        splitComma("  apple , banana , orange  ", result);
+        REQUIRE(result.size() == 3);
+        REQUIRE(result[0] == "apple");
+        REQUIRE(result[1] == "banana");
+        REQUIRE(result[2] == "orange");
+    }
+    SECTION("Multiple consecutive commas") {
+        splitComma("apple,,banana,,,orange", result);
+        REQUIRE(result.size() == 3);
+        REQUIRE(result[0] == "apple");
+        REQUIRE(result[1] == "banana");
+        REQUIRE(result[2] == "orange");
+    }
+    SECTION("Empty input string") {
+        splitComma("", result);
+        REQUIRE(result.size() == 0);
+    }
+    SECTION("Only whitespace input") {
+        splitComma("   ", result);
+        REQUIRE(result.size() == 0);
+    }
+    SECTION("Trailing commas") {
+        splitComma("apple,banana,orange,", result);
+        REQUIRE(result.size() == 3);
+        REQUIRE(result[0] == "apple");
+        REQUIRE(result[1] == "banana");
+        REQUIRE(result[2] == "orange");
+    }
+}</t>
+  </si>
+  <si>
+    <t>/**
+ * @brief Returns the number of days in a given month of a given year.
+ *
+ * This function accounts for leap years when determining the number of
+ * days in February. It throws an exception if the month is invalid.
+ *
+ * @param year The year to check (should be a positive integer).
+ * @param month The month to check (1 for January, 12 for December).
+ * @return int The number of days in the specified month of the specified year.
+ * @throws std::invalid_argument If the month is not between 1 and 12.
+ */
+int getDaysInMonth(int year, int month) {}</t>
+  </si>
+  <si>
+    <t>TEST_CASE("Test getDaysInMonth function") {
+    SECTION("Regular months") {
+        REQUIRE(getDaysInMonth(2023, 1) == 31); // January
+        REQUIRE(getDaysInMonth(2023, 3) == 31); // March
+        REQUIRE(getDaysInMonth(2023, 4) == 30); // April
+        REQUIRE(getDaysInMonth(2023, 5) == 31); // May
+        REQUIRE(getDaysInMonth(2023, 6) == 30); // June
+        REQUIRE(getDaysInMonth(2023, 7) == 31); // July
+        REQUIRE(getDaysInMonth(2023, 8) == 31); // August
+        REQUIRE(getDaysInMonth(2023, 9) == 30); // September
+        REQUIRE(getDaysInMonth(2023, 10) == 31); // October
+        REQUIRE(getDaysInMonth(2023, 11) == 30); // November
+        REQUIRE(getDaysInMonth(2023, 12) == 31); // December
+    }
+    SECTION("February in leap year") {
+        REQUIRE(getDaysInMonth(2024, 2) == 29); // Leap year
+    }
+    SECTION("February in non-leap year") {
+        REQUIRE(getDaysInMonth(2023, 2) == 28); // Non-leap year
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below /**
+ * @brief Returns the number of days in a given month of a given year.
+ *
+ * This function accounts for leap years when determining the number of
+ * days in February. It throws an exception if the month is invalid.
+ *
+ * @param year The year to check (should be a positive integer).
+ * @param month The month to check (1 for January, 12 for December).
+ * @return int The number of days in the specified month of the specified year.
+ * @throws std::invalid_argument If the month is not between 1 and 12.
+ */
+int getDaysInMonth(int year, int month) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;stdexcept&gt;\n\nint getDaysInMonth(int year, int month) {\n    if (month &lt; 1 || month &gt; 12) {\n        throw std::invalid_argument("Month must be between 1 and 12.");\n    }\n\n    if (month == 2) {\n        // Check for leap year\n        return (year % 4 == 0 &amp;&amp; (year % 100 != 0 || year % 400 == 0)) ? 29 : 28;\n    }\n\n    // Months with 30 days\n    if (month == 4 || month == 6 || month == 9 || month == 11) {\n        return 30;\n    }\n\n    // Months with 31 days\n    return 31;\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;stdexcept&gt;
+int getDaysInMonth(int year, int month) {
+    if (month &lt; 1 || month &gt; 12) {
+        throw std::invalid_argument("Month must be between 1 and 12.");
+    }
+    if (month == 2) {
+        // Check for leap year
+        return (year % 4 == 0 &amp;&amp; (year % 100 != 0 || year % 400 == 0)) ? 29 : 28;
+    }
+    // Months with 30 days
+    if (month == 4 || month == 6 || month == 9 || month == 11) {
+        return 30;
+    }
+    // Months with 31 days
+    return 31;
+}TEST_CASE("Test getDaysInMonth function") {
+    SECTION("Regular months") {
+        REQUIRE(getDaysInMonth(2023, 1) == 31); // January
+        REQUIRE(getDaysInMonth(2023, 3) == 31); // March
+        REQUIRE(getDaysInMonth(2023, 4) == 30); // April
+        REQUIRE(getDaysInMonth(2023, 5) == 31); // May
+        REQUIRE(getDaysInMonth(2023, 6) == 30); // June
+        REQUIRE(getDaysInMonth(2023, 7) == 31); // July
+        REQUIRE(getDaysInMonth(2023, 8) == 31); // August
+        REQUIRE(getDaysInMonth(2023, 9) == 30); // September
+        REQUIRE(getDaysInMonth(2023, 10) == 31); // October
+        REQUIRE(getDaysInMonth(2023, 11) == 30); // November
+        REQUIRE(getDaysInMonth(2023, 12) == 31); // December
+    }
+    SECTION("February in leap year") {
+        REQUIRE(getDaysInMonth(2024, 2) == 29); // Leap year
+    }
+    SECTION("February in non-leap year") {
+        REQUIRE(getDaysInMonth(2023, 2) == 28); // Non-leap year
+    }
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;tuple&gt;
+#include &lt;cmath&gt;
+/**
+ * Converts a hue value to its corresponding RGB color values.
+ *
+ * @param hue A float representing the hue angle in degrees,
+ *            expected to be in the range [0, 360).
+ *
+ * @return A tuple containing three integers representing the
+ *         RGB color components in the range [0, 255]. The
+ *         first element is the red component, the second
+ *         element is the green component, and the third element
+ *         is the blue component.
+ */
+std::tuple&lt;int, int, int&gt; hueToRGB(float hue) {}</t>
+  </si>
+  <si>
+    <t>TEST_CASE("Hue to RGB Conversion Tests") {
+    SECTION("Hue 0 (Red)") {
+        auto [r, g, b] = hueToRGB(0);
+        REQUIRE(r == 255);
+        REQUIRE(g == 0);
+        REQUIRE(b == 0);
+    }
+    SECTION("Hue 120 (Green)") {
+        auto [r, g, b] = hueToRGB(120);
+        REQUIRE(r == 0);
+        REQUIRE(g == 255);
+        REQUIRE(b == 0);
+    }
+    SECTION("Hue 240 (Blue)") {
+        auto [r, g, b] = hueToRGB(240);
+        REQUIRE(r == 0);
+        REQUIRE(g == 0);
+        REQUIRE(b == 255);
+    }
+    SECTION("Hue 60 (Yellow)") {
+        auto [r, g, b] = hueToRGB(60);
+        REQUIRE(r == 255);
+        REQUIRE(g == 255);
+        REQUIRE(b == 0);
+    }
+    SECTION("Hue 180 (Cyan)") {
+        auto [r, g, b] = hueToRGB(180);
+        REQUIRE(r == 0);
+        REQUIRE(g == 255);
+        REQUIRE(b == 255);
+    }
+    SECTION("Hue 300 (Magenta)") {
+        auto [r, g, b] = hueToRGB(300);
+        REQUIRE(r == 255);
+        REQUIRE(g == 0);
+        REQUIRE(b == 255);
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below #include &lt;tuple&gt;
+#include &lt;cmath&gt;
+/**
+ * Converts a hue value to its corresponding RGB color values.
+ *
+ * @param hue A float representing the hue angle in degrees,
+ *            expected to be in the range [0, 360).
+ *
+ * @return A tuple containing three integers representing the
+ *         RGB color components in the range [0, 255]. The
+ *         first element is the red component, the second
+ *         element is the green component, and the third element
+ *         is the blue component.
+ */
+std::tuple&lt;int, int, int&gt; hueToRGB(float hue) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;tuple&gt;\n#include &lt;cmath&gt;\n\nstd::tuple&lt;int, int, int&gt; hueToRGB(float hue) {\n    float C = 1.0; // Chroma\n    float X = C * (1 - std::fabs(fmod(hue / 60.0, 2) - 1));\n    float m = 0; // Match value\n    float r, g, b;\n\n    if (hue &lt; 60) {\n        r = C; g = X; b = 0;\n    } else if (hue &lt; 120) {\n        r = X; g = C; b = 0;\n    } else if (hue &lt; 180) {\n        r = 0; g = C; b = X;\n    } else if (hue &lt; 240) {\n        r = 0; g = X; b = C;\n    } else if (hue &lt; 300) {\n        r = X; g = 0; b = C;\n    } else {\n        r = C; g = 0; b = X;\n    }\n\n    int red = static_cast&lt;int&gt;((r + m) * 255);\n    int green = static_cast&lt;int&gt;((g + m) * 255);\n    int blue = static_cast&lt;int&gt;((b + m) * 255);\n\n    return std::make_tuple(red, green, blue);\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;tuple&gt;
+#include &lt;cmath&gt;
+std::tuple&lt;int, int, int&gt; hueToRGB(float hue) {
+    float C = 1.0; // Chroma
+    float X = C * (1 - std::fabs(fmod(hue / 60.0, 2) - 1));
+    float m = 0; // Match value
+    float r, g, b;
+    if (hue &lt; 60) {
+        r = C; g = X; b = 0;
+    } else if (hue &lt; 120) {
+        r = X; g = C; b = 0;
+    } else if (hue &lt; 180) {
+        r = 0; g = C; b = X;
+    } else if (hue &lt; 240) {
+        r = 0; g = X; b = C;
+    } else if (hue &lt; 300) {
+        r = X; g = 0; b = C;
+    } else {
+        r = C; g = 0; b = X;
+    }
+    int red = static_cast&lt;int&gt;((r + m) * 255);
+    int green = static_cast&lt;int&gt;((g + m) * 255);
+    int blue = static_cast&lt;int&gt;((b + m) * 255);
+    return std::make_tuple(red, green, blue);
+}TEST_CASE("Hue to RGB Conversion Tests") {
+    SECTION("Hue 0 (Red)") {
+        auto [r, g, b] = hueToRGB(0);
+        REQUIRE(r == 255);
+        REQUIRE(g == 0);
+        REQUIRE(b == 0);
+    }
+    SECTION("Hue 120 (Green)") {
+        auto [r, g, b] = hueToRGB(120);
+        REQUIRE(r == 0);
+        REQUIRE(g == 255);
+        REQUIRE(b == 0);
+    }
+    SECTION("Hue 240 (Blue)") {
+        auto [r, g, b] = hueToRGB(240);
+        REQUIRE(r == 0);
+        REQUIRE(g == 0);
+        REQUIRE(b == 255);
+    }
+    SECTION("Hue 60 (Yellow)") {
+        auto [r, g, b] = hueToRGB(60);
+        REQUIRE(r == 255);
+        REQUIRE(g == 255);
+        REQUIRE(b == 0);
+    }
+    SECTION("Hue 180 (Cyan)") {
+        auto [r, g, b] = hueToRGB(180);
+        REQUIRE(r == 0);
+        REQUIRE(g == 255);
+        REQUIRE(b == 255);
+    }
+    SECTION("Hue 300 (Magenta)") {
+        auto [r, g, b] = hueToRGB(300);
+        REQUIRE(r == 255);
+        REQUIRE(g == 0);
+        REQUIRE(b == 255);
+    }
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;iostream&gt;
+// Node structure for linked list
+struct Node {
+    int data;      // Data value of the node
+    Node* next;    // Pointer to the next node in the linked list
+    Node(int val) : data(val), next(nullptr) {} // Constructor to initialize the node
+};
+// Queue class
+class Queue {
+private:
+    Node* head; // Pointer to the front of the queue
+    Node* tail; // Pointer to the end of the queue
+public:
+    // Constructor to initialize the queue
+    Queue() : head(nullptr), tail(nullptr) {}
+    // Destructor to clean up the queue
+    ~Queue() {
+        while (!isEmpty()) {
+            dequeue();
+        }
+    }
+    // Function to check if the queue is empty
+    bool isEmpty() const {}
+    // Function to add an element to the end of the queue
+    void enqueue(int value) {}
+    // Function to remove and return the front element of the queue
+    int dequeue() {}
+    // Function to get the front element without removing it
+    int front() const {}
+};</t>
+  </si>
+  <si>
+    <t>// Test cases for the Queue class
+TEST_CASE("Queue Operations", "[Queue]") {
+    Queue queue;
+    SECTION("Queue should be empty initially") {
+        REQUIRE(queue.isEmpty() == true);
+    }
+    SECTION("Enqueue elements") {
+        queue.enqueue(10);
+        queue.enqueue(20);
+        queue.enqueue(30);
+        REQUIRE(queue.isEmpty() == false);
+        REQUIRE(queue.front() == 10); // Front element should be 10
+    }
+    SECTION("Dequeue elements") {
+        queue.enqueue(10);
+        queue.enqueue(20);
+        queue.enqueue(30);
+        int value = queue.dequeue();
+        REQUIRE(value == 10); // First dequeued element should be 10
+        REQUIRE(queue.front() == 20); // Now front should be 20
+    }
+    SECTION("Dequeue from an empty queue") {
+        int value = queue.dequeue();
+        REQUIRE(value == -1); // Should indicate that the queue is empty
+    }
+    SECTION("Front element of an empty queue") {
+        int frontValue = queue.front();
+        REQUIRE(frontValue == -1); // Should indicate that the queue is empty
+    }
+    SECTION("Queue should become empty after dequeuing all elements") {
+        queue.enqueue(10);
+        queue.enqueue(20);
+        queue.dequeue(); // Remove 10
+        queue.dequeue(); // Remove 20
+        REQUIRE(queue.isEmpty() == true); // Queue should be empty
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp class , the class signature as below #include &lt;iostream&gt;
+// Node structure for linked list
+struct Node {
+    int data;      // Data value of the node
+    Node* next;    // Pointer to the next node in the linked list
+    Node(int val) : data(val), next(nullptr) {} // Constructor to initialize the node
+};
+// Queue class
+class Queue {
+private:
+    Node* head; // Pointer to the front of the queue
+    Node* tail; // Pointer to the end of the queue
+public:
+    // Constructor to initialize the queue
+    Queue() : head(nullptr), tail(nullptr) {}
+    // Destructor to clean up the queue
+    ~Queue() {
+        while (!isEmpty()) {
+            dequeue();
+        }
+    }
+    // Function to check if the queue is empty
+    bool isEmpty() const {}
+    // Function to add an element to the end of the queue
+    void enqueue(int value) {}
+    // Function to remove and return the front element of the queue
+    int dequeue() {}
+    // Function to get the front element without removing it
+    int front() const {}
+};</t>
+  </si>
+  <si>
+    <t>struct Node {
+    int data;      // Data value of the node
+    Node* next;    // Pointer to the next node in the linked list
+    Node(int val) : data(val), next(nullptr) {} // Constructor to initialize the node
+};</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '// Function to check if the queue is empty\nbool isEmpty() const {\n    return head == nullptr;\n}\n\n// Function to add an element to the end of the queue\nvoid enqueue(int value) {\n    Node* newNode = new Node(value);\n    if (isEmpty()) {\n        head = tail = newNode;\n    } else {\n        tail-&gt;next = newNode;\n        tail = newNode;\n    }\n}\n\n// Function to remove and return the front element of the queue\nint dequeue() {\n    if (isEmpty()) {\n        throw std::runtime_error("Queue is empty");\n    }\n    int frontValue = head-&gt;data;\n    Node* temp = head;\n    head = head-&gt;next;\n    delete temp;\n    if (head == nullptr) {\n        tail = nullptr;\n    }\n    return frontValue;\n}\n\n// Function to get the front element without removing it\nint front() const {\n    if (isEmpty()) {\n        throw std::runtime_error("Queue is empty");\n    }\n    return head-&gt;data;\n}'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">answer_check.cpp:9:16: error: non-member function 'bool isEmpty()' cannot have cv-qualifier
+ bool isEmpty() const {
+                ^~~~~
+answer_check.cpp: In function 'bool isEmpty()':
+answer_check.cpp:10:12: error: 'head' was not declared in this scope
+     return head == nullptr;
+            ^~~~
+answer_check.cpp:10:12: note: suggested alternative: '_hread'
+     return head == nullptr;
+            ^~~~
+            _hread
+answer_check.cpp: In function 'void enqueue(int)':
+answer_check.cpp:17:9: error: 'head' was not declared in this scope
+         head = tail = newNode;
+         ^~~~
+answer_check.cpp:17:9: note: suggested alternative: '_hread'
+         head = tail = newNode;
+         ^~~~
+         _hread
+answer_check.cpp:17:16: error: 'tail' was not declared in this scope
+         head = tail = newNode;
+                ^~~~
+answer_check.cpp:17:16: note: suggested alternative: 'tanl'
+         head = tail = newNode;
+                ^~~~
+                tanl
+answer_check.cpp:19:9: error: 'tail' was not declared in this scope
+         tail-&gt;next = newNode;
+         ^~~~
+answer_check.cpp:19:9: note: suggested alternative: 'tanl'
+         tail-&gt;next = newNode;
+         ^~~~
+         tanl
+answer_check.cpp: In function 'int dequeue()':
+answer_check.cpp:29:22: error: 'head' was not declared in this scope
+     int frontValue = head-&gt;data;
+                      ^~~~
+answer_check.cpp:29:22: note: suggested alternative: '_hread'
+     int frontValue = head-&gt;data;
+                      ^~~~
+                      _hread
+answer_check.cpp:34:9: error: 'tail' was not declared in this scope
+         tail = nullptr;
+         ^~~~
+answer_check.cpp:34:9: note: suggested alternative: 'tanl'
+         tail = nullptr;
+         ^~~~
+         tanl
+answer_check.cpp: At global scope:
+answer_check.cpp:40:13: error: non-member function 'int front()' cannot have cv-qualifier
+ int front() const {
+             ^~~~~
+answer_check.cpp: In function 'int front()':
+answer_check.cpp:44:12: error: 'head' was not declared in this scope
+     return head-&gt;data;
+            ^~~~
+answer_check.cpp:44:12: note: suggested alternative: '_hread'
+     return head-&gt;data;
+            ^~~~
+            _hread
+answer_check.cpp: In function 'void C_A_T_C_H_T_E_S_T_0()':
+answer_check.cpp:47:5: error: 'Queue' was not declared in this scope
+     Queue queue;
+     ^~~~~
+answer_check.cpp:47:5: note: suggested alternative: 'dequeue'
+     Queue queue;
+     ^~~~~
+     dequeue
+In file included from answer_check.cpp:2:
+answer_check.cpp:50:17: error: 'queue' was not declared in this scope
+         REQUIRE(queue.isEmpty() == true);
+                 ^~~~~
+answer_check.cpp:50:17: note: suggested alternative: 'dequeue'
+In file included from answer_check.cpp:2:
+answer_check.cpp:50:17: error: 'queue' was not declared in this scope
+         REQUIRE(queue.isEmpty() == true);
+                 ^~~~~
+answer_check.cpp:50:17: note: suggested alternative: 'dequeue'
+answer_check.cpp:54:9: error: 'queue' was not declared in this scope
+         queue.enqueue(10);
+         ^~~~~
+answer_check.cpp:54:9: note: suggested alternative: 'dequeue'
+         queue.enqueue(10);
+         ^~~~~
+         dequeue
+answer_check.cpp:63:9: error: 'queue' was not declared in this scope
+         queue.enqueue(10);
+         ^~~~~
+answer_check.cpp:63:9: note: suggested alternative: 'dequeue'
+         queue.enqueue(10);
+         ^~~~~
+         dequeue
+answer_check.cpp:73:21: error: 'queue' was not declared in this scope
+         int value = queue.dequeue();
+                     ^~~~~
+answer_check.cpp:73:21: note: suggested alternative: 'dequeue'
+         int value = queue.dequeue();
+                     ^~~~~
+                     dequeue
+answer_check.cpp:78:26: error: 'queue' was not declared in this scope
+         int frontValue = queue.front();
+                          ^~~~~
+answer_check.cpp:78:26: note: suggested alternative: 'dequeue'
+         int frontValue = queue.front();
+                          ^~~~~
+                          dequeue
+answer_check.cpp:83:9: error: 'queue' was not declared in this scope
+         queue.enqueue(10);
+         ^~~~~
+answer_check.cpp:83:9: note: suggested alternative: 'dequeue'
+         queue.enqueue(10);
+         ^~~~~
+         dequeue
+</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+struct Node {
+    int data;      // Data value of the node
+    Node* next;    // Pointer to the next node in the linked list
+    Node(int val) : data(val), next(nullptr) {} // Constructor to initialize the node
+};// Function to check if the queue is empty
+bool isEmpty() const {
+    return head == nullptr;
+}
+// Function to add an element to the end of the queue
+void enqueue(int value) {
+    Node* newNode = new Node(value);
+    if (isEmpty()) {
+        head = tail = newNode;
+    } else {
+        tail-&gt;next = newNode;
+        tail = newNode;
+    }
+}
+// Function to remove and return the front element of the queue
+int dequeue() {
+    if (isEmpty()) {
+        throw std::runtime_error("Queue is empty");
+    }
+    int frontValue = head-&gt;data;
+    Node* temp = head;
+    head = head-&gt;next;
+    delete temp;
+    if (head == nullptr) {
+        tail = nullptr;
+    }
+    return frontValue;
+}
+// Function to get the front element without removing it
+int front() const {
+    if (isEmpty()) {
+        throw std::runtime_error("Queue is empty");
+    }
+    return head-&gt;data;
+}// Test cases for the Queue class
+TEST_CASE("Queue Operations", "[Queue]") {
+    Queue queue;
+    SECTION("Queue should be empty initially") {
+        REQUIRE(queue.isEmpty() == true);
+    }
+    SECTION("Enqueue elements") {
+        queue.enqueue(10);
+        queue.enqueue(20);
+        queue.enqueue(30);
+        REQUIRE(queue.isEmpty() == false);
+        REQUIRE(queue.front() == 10); // Front element should be 10
+    }
+    SECTION("Dequeue elements") {
+        queue.enqueue(10);
+        queue.enqueue(20);
+        queue.enqueue(30);
+        int value = queue.dequeue();
+        REQUIRE(value == 10); // First dequeued element should be 10
+        REQUIRE(queue.front() == 20); // Now front should be 20
+    }
+    SECTION("Dequeue from an empty queue") {
+        int value = queue.dequeue();
+        REQUIRE(value == -1); // Should indicate that the queue is empty
+    }
+    SECTION("Front element of an empty queue") {
+        int frontValue = queue.front();
+        REQUIRE(frontValue == -1); // Should indicate that the queue is empty
+    }
+    SECTION("Queue should become empty after dequeuing all elements") {
+        queue.enqueue(10);
+        queue.enqueue(20);
+        queue.dequeue(); // Remove 10
+        queue.dequeue(); // Remove 20
+        REQUIRE(queue.isEmpty() == true); // Queue should be empty
+    }
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;iostream&gt;
+#include &lt;vector&gt;
+#include &lt;stdexcept&gt;
+class MaxHeap {
+private:
+    std::vector&lt;int&gt; heap; // Vector to store heap elements
+    // Helper function to maintain the max heap property
+    void heapifyUp(int index) {}
+    // Helper function to maintain the max heap property after deletion
+    void heapifyDown(int index) {}
+public:
+    // Insert a new element into the heap
+    void insert(int value) {}
+    // Remove and return the maximum element from the heap
+    int extractMax() {}
+    // Get the maximum element without removing it
+    int getMax() const {}
+    // Check if the heap is empty
+    bool isEmpty() const {}
+    // Get the size of the heap
+    size_t size() const {}
+}</t>
+  </si>
+  <si>
+    <t>TEST_CASE("MaxHeap Operations", "[MaxHeap]") {
+    MaxHeap maxHeap;
+    SECTION("Initial state of the heap") {
+        REQUIRE(maxHeap.isEmpty() == true);
+        REQUIRE(maxHeap.size() == 0);
+    }
+    SECTION("Insert elements into the heap") {
+        maxHeap.insert(10);
+        maxHeap.insert(20);
+        maxHeap.insert(5);
+        REQUIRE(maxHeap.isEmpty() == false);
+        REQUIRE(maxHeap.size() == 3);
+        REQUIRE(maxHeap.getMax() == 20); // The maximum should be 20
+    }
+    SECTION("Extract maximum element from the heap") {
+        maxHeap.insert(10);
+        maxHeap.insert(30);
+        maxHeap.insert(20);
+        int maxElement = maxHeap.extractMax();
+        REQUIRE(maxElement == 30); // The maximum extracted should be 30
+        REQUIRE(maxHeap.getMax() == 20); // The next maximum should be 20
+        REQUIRE(maxHeap.size() == 2); // Size should be 2 after extraction
+    }
+    SECTION("Heap should maintain max heap property after multiple operations") {
+        maxHeap.insert(15);
+        maxHeap.insert(10);
+        maxHeap.insert(30);
+        maxHeap.insert(20);
+        maxHeap.insert(25);
+        // Current max should be 30
+        REQUIRE(maxHeap.getMax() == 30);
+        maxHeap.extractMax(); // Remove 30
+        // After removal, the new max should be 25
+        REQUIRE(maxHeap.getMax() == 25);
+        maxHeap.extractMax(); // Remove 25
+        // After removal, the new max should be 20
+        REQUIRE(maxHeap.getMax() == 20);
+        // The size of the heap should be 3 now
+        REQUIRE(maxHeap.size() == 3);
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp class , the class signature as below #include &lt;iostream&gt;
+#include &lt;vector&gt;
+#include &lt;stdexcept&gt;
+class MaxHeap {
+private:
+    std::vector&lt;int&gt; heap; // Vector to store heap elements
+    // Helper function to maintain the max heap property
+    void heapifyUp(int index) {}
+    // Helper function to maintain the max heap property after deletion
+    void heapifyDown(int index) {}
+public:
+    // Insert a new element into the heap
+    void insert(int value) {}
+    // Remove and return the maximum element from the heap
+    int extractMax() {}
+    // Get the maximum element without removing it
+    int getMax() const {}
+    // Check if the heap is empty
+    bool isEmpty() const {}
+    // Get the size of the heap
+    size_t size() const {}
+}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': '#include &lt;iostream&gt;\n#include &lt;vector&gt;\n#include &lt;stdexcept&gt;\n\nclass MaxHeap {\nprivate:\n    std::vector&lt;int&gt; heap;\n\n    void heapifyUp(int index) {\n        while (index &gt; 0) {\n            int parent = (index - 1) / 2;\n            if (heap[index] &gt; heap[parent]) {\n                std::swap(heap[index], heap[parent]);\n                index = parent;\n            } else {\n                break;\n            }\n        }\n    }\n\n    void heapifyDown(int index) {\n        int size = heap.size();\n        while (index &lt; size) {\n            int left = 2 * index + 1;\n            int right = 2 * index + 2;\n            int largest = index;\n\n            if (left &lt; size &amp;&amp; heap[left] &gt; heap[largest]) {\n                largest = left;\n            }\n            if (right &lt; size &amp;&amp; heap[right] &gt; heap[largest]) {\n                largest = right;\n            }\n            if (largest != index) {\n                std::swap(heap[index], heap[largest]);\n                index = largest;\n            } else {\n                break;\n            }\n        }\n    }\n\npublic:\n    void insert(int value) {\n        heap.push_back(value);\n        heapifyUp(heap.size() - 1);\n    }\n\n    int extractMax() {\n        if (heap.empty()) throw std::runtime_error("Heap is empty");\n        int maxVal = heap[0];\n        heap[0] = heap.back();\n        heap.pop_back();\n        if (!heap.empty()) heapifyDown(0);\n        return maxVal;\n    }\n\n    int getMax() const {\n        if (heap.empty()) throw std::runtime_error("Heap is empty");\n        return heap[0];\n    }\n\n    bool isEmpty() const {\n        return heap.empty();\n    }\n\n    size_t size() const {\n        return heap.size();\n    }\n};'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+#include &lt;iostream&gt;
+#include &lt;vector&gt;
+#include &lt;stdexcept&gt;
+class MaxHeap {
+private:
+    std::vector&lt;int&gt; heap;
+    void heapifyUp(int index) {
+        while (index &gt; 0) {
+            int parent = (index - 1) / 2;
+            if (heap[index] &gt; heap[parent]) {
+                std::swap(heap[index], heap[parent]);
+                index = parent;
+            } else {
+                break;
+            }
+        }
+    }
+    void heapifyDown(int index) {
+        int size = heap.size();
+        while (index &lt; size) {
+            int left = 2 * index + 1;
+            int right = 2 * index + 2;
+            int largest = index;
+            if (left &lt; size &amp;&amp; heap[left] &gt; heap[largest]) {
+                largest = left;
+            }
+            if (right &lt; size &amp;&amp; heap[right] &gt; heap[largest]) {
+                largest = right;
+            }
+            if (largest != index) {
+                std::swap(heap[index], heap[largest]);
+                index = largest;
+            } else {
+                break;
+            }
+        }
+    }
+public:
+    void insert(int value) {
+        heap.push_back(value);
+        heapifyUp(heap.size() - 1);
+    }
+    int extractMax() {
+        if (heap.empty()) throw std::runtime_error("Heap is empty");
+        int maxVal = heap[0];
+        heap[0] = heap.back();
+        heap.pop_back();
+        if (!heap.empty()) heapifyDown(0);
+        return maxVal;
+    }
+    int getMax() const {
+        if (heap.empty()) throw std::runtime_error("Heap is empty");
+        return heap[0];
+    }
+    bool isEmpty() const {
+        return heap.empty();
+    }
+    size_t size() const {
+        return heap.size();
+    }
+};TEST_CASE("MaxHeap Operations", "[MaxHeap]") {
+    MaxHeap maxHeap;
+    SECTION("Initial state of the heap") {
+        REQUIRE(maxHeap.isEmpty() == true);
+        REQUIRE(maxHeap.size() == 0);
+    }
+    SECTION("Insert elements into the heap") {
+        maxHeap.insert(10);
+        maxHeap.insert(20);
+        maxHeap.insert(5);
+        REQUIRE(maxHeap.isEmpty() == false);
+        REQUIRE(maxHeap.size() == 3);
+        REQUIRE(maxHeap.getMax() == 20); // The maximum should be 20
+    }
+    SECTION("Extract maximum element from the heap") {
+        maxHeap.insert(10);
+        maxHeap.insert(30);
+        maxHeap.insert(20);
+        int maxElement = maxHeap.extractMax();
+        REQUIRE(maxElement == 30); // The maximum extracted should be 30
+        REQUIRE(maxHeap.getMax() == 20); // The next maximum should be 20
+        REQUIRE(maxHeap.size() == 2); // Size should be 2 after extraction
+    }
+    SECTION("Heap should maintain max heap property after multiple operations") {
+        maxHeap.insert(15);
+        maxHeap.insert(10);
+        maxHeap.insert(30);
+        maxHeap.insert(20);
+        maxHeap.insert(25);
+        // Current max should be 30
+        REQUIRE(maxHeap.getMax() == 30);
+        maxHeap.extractMax(); // Remove 30
+        // After removal, the new max should be 25
+        REQUIRE(maxHeap.getMax() == 25);
+        maxHeap.extractMax(); // Remove 25
+        // After removal, the new max should be 20
+        REQUIRE(maxHeap.getMax() == 20);
+        // The size of the heap should be 3 now
+        REQUIRE(maxHeap.size() == 3);
+    }
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;iostream&gt;
+#include &lt;sstream&gt;
+#include &lt;string&gt;
+/**
+ * @brief Counts the number of words in a given string.
+ *
+ * A word is defined as a sequence of characters separated by whitespace.
+ * This function handles leading and trailing whitespace, as well as
+ * multiple spaces between words.
+ *
+ * @param str The input string in which words are to be counted.
+ * @return int The count of words in the input string.
+ */
+int countWords(const std::string &amp;str) {}</t>
+  </si>
+  <si>
+    <t>// Test cases
+TEST_CASE("Count words in various strings") {
+    SECTION("Empty string") {
+        REQUIRE(countWords("") == 0);
+    }
+    SECTION("String with only spaces") {
+        REQUIRE(countWords("     ") == 0);
+    }
+    SECTION("Single word") {
+        REQUIRE(countWords("Hello") == 1);
+    }
+    SECTION("Multiple words with single spaces") {
+        REQUIRE(countWords("This is a test string") == 5);
+    }
+    SECTION("Multiple spaces between words") {
+        REQUIRE(countWords("This    is   a   test   string") == 5);
+    }
+    SECTION("Leading and trailing spaces") {
+        REQUIRE(countWords("   Hello world!   ") == 2);
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below #include &lt;iostream&gt;
+#include &lt;sstream&gt;
+#include &lt;string&gt;
+/**
+ * @brief Counts the number of words in a given string.
+ *
+ * A word is defined as a sequence of characters separated by whitespace.
+ * This function handles leading and trailing whitespace, as well as
+ * multiple spaces between words.
+ *
+ * @param str The input string in which words are to be counted.
+ * @return int The count of words in the input string.
+ */
+int countWords(const std::string &amp;str) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'int countWords(const std::string &amp;str) {\n    std::istringstream stream(str);\n    std::string word;\n    int count = 0;\n    while (stream &gt;&gt; word) {\n        count++;\n    }\n    return count;\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+int countWords(const std::string &amp;str) {
+    std::istringstream stream(str);
+    std::string word;
+    int count = 0;
+    while (stream &gt;&gt; word) {
+        count++;
+    }
+    return count;
+}// Test cases
+TEST_CASE("Count words in various strings") {
+    SECTION("Empty string") {
+        REQUIRE(countWords("") == 0);
+    }
+    SECTION("String with only spaces") {
+        REQUIRE(countWords("     ") == 0);
+    }
+    SECTION("Single word") {
+        REQUIRE(countWords("Hello") == 1);
+    }
+    SECTION("Multiple words with single spaces") {
+        REQUIRE(countWords("This is a test string") == 5);
+    }
+    SECTION("Multiple spaces between words") {
+        REQUIRE(countWords("This    is   a   test   string") == 5);
+    }
+    SECTION("Leading and trailing spaces") {
+        REQUIRE(countWords("   Hello world!   ") == 2);
+    }
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;iostream&gt;
+/**
+ * @brief Checks if a given year is a leap year.
+ *
+ * @param year The year to check.
+ * @return True if the year is a leap year, false otherwise.
+ */
+bool isLeapYear(int year) {}</t>
+  </si>
+  <si>
+    <t>TEST_CASE("Leap Year Test Cases") {
+    SECTION("Divisible by 4 but not by 100") {
+        // Years that are leap years
+        REQUIRE(isLeapYear(2024) == true); // 2024 is a leap year
+        REQUIRE(isLeapYear(2000) == true); // 2000 is a leap year (divisible by 400)
+        REQUIRE(isLeapYear(1996) == true); // 1996 is a leap year
+        REQUIRE(isLeapYear(2004) == true); // 2004 is a leap year
+    }
+    SECTION("Divisible by 100 but not by 400") {
+        // Years that are not leap years
+        REQUIRE(isLeapYear(1900) == false); // 1900 is not a leap year
+        REQUIRE(isLeapYear(2100) == false); // 2100 is not a leap year
+        REQUIRE(isLeapYear(1800) == false); // 1800 is not a leap year
+    }
+    SECTION("Divisible by 400") {
+        // Years that are leap years
+        REQUIRE(isLeapYear(2400) == true); // 2400 is a leap year
+        REQUIRE(isLeapYear(1600) == true); // 1600 is a leap year
+    }
+    SECTION("Normal years") {
+        // Years that are normal years
+        REQUIRE(isLeapYear(1997) == false); // 1997 is not a leap year
+        REQUIRE(isLeapYear(1998) == false); // 1998 is not a leap year
+        REQUIRE(isLeapYear(1999) == false); // 1999 is not a leap year
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below #include &lt;iostream&gt;
+/**
+ * @brief Checks if a given year is a leap year.
+ *
+ * @param year The year to check.
+ * @return True if the year is a leap year, false otherwise.
+ */
+bool isLeapYear(int year) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'bool isLeapYear(int year) {\n    return (year % 4 == 0 &amp;&amp; year % 100 != 0) || (year % 400 == 0);\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+bool isLeapYear(int year) {
+    return (year % 4 == 0 &amp;&amp; year % 100 != 0) || (year % 400 == 0);
+}TEST_CASE("Leap Year Test Cases") {
+    SECTION("Divisible by 4 but not by 100") {
+        // Years that are leap years
+        REQUIRE(isLeapYear(2024) == true); // 2024 is a leap year
+        REQUIRE(isLeapYear(2000) == true); // 2000 is a leap year (divisible by 400)
+        REQUIRE(isLeapYear(1996) == true); // 1996 is a leap year
+        REQUIRE(isLeapYear(2004) == true); // 2004 is a leap year
+    }
+    SECTION("Divisible by 100 but not by 400") {
+        // Years that are not leap years
+        REQUIRE(isLeapYear(1900) == false); // 1900 is not a leap year
+        REQUIRE(isLeapYear(2100) == false); // 2100 is not a leap year
+        REQUIRE(isLeapYear(1800) == false); // 1800 is not a leap year
+    }
+    SECTION("Divisible by 400") {
+        // Years that are leap years
+        REQUIRE(isLeapYear(2400) == true); // 2400 is a leap year
+        REQUIRE(isLeapYear(1600) == true); // 1600 is a leap year
+    }
+    SECTION("Normal years") {
+        // Years that are normal years
+        REQUIRE(isLeapYear(1997) == false); // 1997 is not a leap year
+        REQUIRE(isLeapYear(1998) == false); // 1998 is not a leap year
+        REQUIRE(isLeapYear(1999) == false); // 1999 is not a leap year
+    }
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;iostream&gt;
+/**
+ * @brief Tail-recursive function to calculate x raised to the power y.
+ *
+ * This function uses tail recursion to compute x^y.
+ *
+ * @param x The base, a non-negative integer.
+ * @param y The exponent, a non-negative integer.
+ * @param acc The accumulator to hold the intermediate result.
+ *
+ * @return The result of x raised to the power of y.
+ */
+unsigned power_tail(unsigned x, unsigned y, unsigned acc = 1) {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TEST_CASE("Power function test cases") {
+    SECTION("Base cases") {
+        // Test 0^0, should return 1 (by convention)
+        REQUIRE(power_tail(0, 0) == 1);
+        // Test x^0 for any x, should return 1
+        REQUIRE(power_tail(5, 0) == 1);
+        REQUIRE(power_tail(12345, 0) == 1);
+    }
+    SECTION("Power of one") {
+        // Test 1^y for any y, should return 1
+        REQUIRE(power_tail(1, 5) == 1);
+        REQUIRE(power_tail(1, 123) == 1);
+    }
+    SECTION("Power of zero") {
+        // Test 0^y for any y &gt; 0, should return 0
+        REQUIRE(power_tail(0, 5) == 0);
+        REQUIRE(power_tail(0, 100) == 0);
+    }
+    SECTION("Positive powers") {
+        // Test some positive powers
+        REQUIRE(power_tail(2, 3) == 8);     // 2^3 = 8
+        REQUIRE(power_tail(3, 4) == 81);    // 3^4 = 81
+        REQUIRE(power_tail(5, 2) == 25);     // 5^2 = 25
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below #include &lt;iostream&gt;
+/**
+ * @brief Tail-recursive function to calculate x raised to the power y.
+ *
+ * This function uses tail recursion to compute x^y.
+ *
+ * @param x The base, a non-negative integer.
+ * @param y The exponent, a non-negative integer.
+ * @param acc The accumulator to hold the intermediate result.
+ *
+ * @return The result of x raised to the power of y.
+ */
+unsigned power_tail(unsigned x, unsigned y, unsigned acc = 1) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'unsigned power_tail(unsigned x, unsigned y, unsigned acc = 1) {\n    if (y == 0) return acc;\n    return power_tail(x, y - 1, acc * x);\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+unsigned power_tail(unsigned x, unsigned y, unsigned acc = 1) {
+    if (y == 0) return acc;
+    return power_tail(x, y - 1, acc * x);
+}
+TEST_CASE("Power function test cases") {
+    SECTION("Base cases") {
+        // Test 0^0, should return 1 (by convention)
+        REQUIRE(power_tail(0, 0) == 1);
+        // Test x^0 for any x, should return 1
+        REQUIRE(power_tail(5, 0) == 1);
+        REQUIRE(power_tail(12345, 0) == 1);
+    }
+    SECTION("Power of one") {
+        // Test 1^y for any y, should return 1
+        REQUIRE(power_tail(1, 5) == 1);
+        REQUIRE(power_tail(1, 123) == 1);
+    }
+    SECTION("Power of zero") {
+        // Test 0^y for any y &gt; 0, should return 0
+        REQUIRE(power_tail(0, 5) == 0);
+        REQUIRE(power_tail(0, 100) == 0);
+    }
+    SECTION("Positive powers") {
+        // Test some positive powers
+        REQUIRE(power_tail(2, 3) == 8);     // 2^3 = 8
+        REQUIRE(power_tail(3, 4) == 81);    // 3^4 = 81
+        REQUIRE(power_tail(5, 2) == 25);     // 5^2 = 25
+    }
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;iostream&gt;
+#include &lt;stdexcept&gt;
+/**
+ * @brief Calculates the Body Mass Index (BMI) based on weight and height.
+ *
+ * The BMI is calculated using the formula:
+ *
+ *      BMI = weight (kg) / (height (m) * height (m))
+ *
+ * @param weight The weight of the individual in kilograms.
+ * @param height The height of the individual in meters.
+ *
+ * @return The calculated BMI value as a double.
+ *
+ * @throws std::invalid_argument if weight or height is less than or equal to zero,
+ *                                since these values must be positive.
+ */
+double calculateBMI(double weight, double height) {}</t>
+  </si>
+  <si>
+    <t>// Test case for valid inputs with expected BMI value
+TEST_CASE("Valid BMI calculations") {
+    SECTION("Normal weight") {
+        REQUIRE(calculateBMI(70, 1.75) == Approx(22.86).epsilon(0.01)); // 70 kg, 1.75 m
+    }
+    SECTION("Underweight") {
+        REQUIRE(calculateBMI(50, 1.75) == Approx(16.33).epsilon(0.01)); // 50 kg, 1.75 m
+    }
+    SECTION("Overweight") {
+        REQUIRE(calculateBMI(80, 1.75) == Approx(26.12).epsilon(0.01)); // 80 kg, 1.75 m
+    }
+    SECTION("Obesity") {
+        REQUIRE(calculateBMI(100, 1.75) == Approx(32.65).epsilon(0.01)); // 100 kg, 1.75 m
+    }
+}
+// Test case for invalid inputs
+TEST_CASE("Invalid BMI calculations") {
+    SECTION("Negative weight") {
+        REQUIRE_THROWS_AS(calculateBMI(-70, 1.75), std::invalid_argument); // Negative weight
+    }
+    SECTION("Zero height") {
+        REQUIRE_THROWS_AS(calculateBMI(70, 0), std::invalid_argument); // Zero height
+    }
+    SECTION("Negative height") {
+        REQUIRE_THROWS_AS(calculateBMI(70, -1.75), std::invalid_argument); // Negative height
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below #include &lt;iostream&gt;
+#include &lt;stdexcept&gt;
+/**
+ * @brief Calculates the Body Mass Index (BMI) based on weight and height.
+ *
+ * The BMI is calculated using the formula:
+ *
+ *      BMI = weight (kg) / (height (m) * height (m))
+ *
+ * @param weight The weight of the individual in kilograms.
+ * @param height The height of the individual in meters.
+ *
+ * @return The calculated BMI value as a double.
+ *
+ * @throws std::invalid_argument if weight or height is less than or equal to zero,
+ *                                since these values must be positive.
+ */
+double calculateBMI(double weight, double height) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'double calculateBMI(double weight, double height) {\n    if (weight &lt;= 0 || height &lt;= 0) {\n        throw std::invalid_argument("Weight and height must be positive values.");\n    }\n    return weight / (height * height);\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+double calculateBMI(double weight, double height) {
+    if (weight &lt;= 0 || height &lt;= 0) {
+        throw std::invalid_argument("Weight and height must be positive values.");
+    }
+    return weight / (height * height);
+}// Test case for valid inputs with expected BMI value
+TEST_CASE("Valid BMI calculations") {
+    SECTION("Normal weight") {
+        REQUIRE(calculateBMI(70, 1.75) == Approx(22.86).epsilon(0.01)); // 70 kg, 1.75 m
+    }
+    SECTION("Underweight") {
+        REQUIRE(calculateBMI(50, 1.75) == Approx(16.33).epsilon(0.01)); // 50 kg, 1.75 m
+    }
+    SECTION("Overweight") {
+        REQUIRE(calculateBMI(80, 1.75) == Approx(26.12).epsilon(0.01)); // 80 kg, 1.75 m
+    }
+    SECTION("Obesity") {
+        REQUIRE(calculateBMI(100, 1.75) == Approx(32.65).epsilon(0.01)); // 100 kg, 1.75 m
+    }
+}
+// Test case for invalid inputs
+TEST_CASE("Invalid BMI calculations") {
+    SECTION("Negative weight") {
+        REQUIRE_THROWS_AS(calculateBMI(-70, 1.75), std::invalid_argument); // Negative weight
+    }
+    SECTION("Zero height") {
+        REQUIRE_THROWS_AS(calculateBMI(70, 0), std::invalid_argument); // Zero height
+    }
+    SECTION("Negative height") {
+        REQUIRE_THROWS_AS(calculateBMI(70, -1.75), std::invalid_argument); // Negative height
+    }
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;iostream&gt;
+#include &lt;cmath&gt;
+#include &lt;stdexcept&gt;
+/**
+ * @brief Calculates the steering angle based on the given angular velocity, speed, and wheelbase.
+ *
+ * The function uses the relationship between angular velocity, speed, and the steering angle
+ * to determine the appropriate steering angle required for the vehicle to achieve the desired
+ * angular velocity. The formula used is:
+ *
+ *      ω = (v / L) * tan(δ)
+ *
+ * Rearranging gives us:
+ *
+ *      δ = atan((ω * L) / v)
+ *
+ * @param angularVelocity The angular velocity of the vehicle in radians per second.
+ * @param speed The forward speed of the vehicle in meters per second.
+ * @param wheelbase The distance between the front and rear axles of the vehicle in meters.
+ *
+ * @return The steering angle in radians.
+ *
+ * @throws std::invalid_argument if speed is less than or equal to zero,
+ *                                since the vehicle cannot move at zero or negative speed.
+ */
+double calculateSteeringAngle(double angularVelocity, double speed, double wheelbase) {}</t>
+  </si>
+  <si>
+    <t>TEST_CASE("Calculate Steering Angle Tests") {
+    const double wheelbase = 2.5; // Setting wheelbase constant for all tests
+    SECTION("Normal case") {
+        double angularVelocity = 1.0; // radians/second
+        double speed = 10.0;          // meters/second
+        double expectedAngle = atan((angularVelocity * wheelbase) / speed);
+        REQUIRE(calculateSteeringAngle(angularVelocity, speed, wheelbase) == Approx(expectedAngle));
+    }
+    SECTION("Zero speed") {
+        double angularVelocity = 1.0; // radians/second
+        double speed = 0.0;           // meters/second
+        REQUIRE_THROWS_AS(calculateSteeringAngle(angularVelocity, speed, wheelbase), std::invalid_argument);
+    }
+    SECTION("Negative speed") {
+        double angularVelocity = 1.0; // radians/second
+        double speed = -5.0;          // meters/second
+        REQUIRE_THROWS_AS(calculateSteeringAngle(angularVelocity, speed, wheelbase), std::invalid_argument);
+    }
+    SECTION("Zero angular velocity") {
+        double angularVelocity = 0.0; // radians/second
+        double speed = 10.0;          // meters/second
+        double expectedAngle = 0.0;   // Steering angle should be zero
+        REQUIRE(calculateSteeringAngle(angularVelocity, speed, wheelbase) == Approx(expectedAngle));
+    }
+    SECTION("Large values") {
+        double angularVelocity = 100.0; // radians/second
+        double speed = 1000.0;          // meters/second
+        double expectedAngle = atan((angularVelocity * wheelbase) / speed);
+        REQUIRE(calculateSteeringAngle(angularVelocity, speed, wheelbase) == Approx(expectedAngle));
+    }
+    SECTION("High angular velocity") {
+        double angularVelocity = 10.0; // radians/second
+        double speed = 1.0;             // meters/second
+        double expectedAngle = atan((angularVelocity * wheelbase) / speed);
+        REQUIRE(calculateSteeringAngle(angularVelocity, speed, wheelbase) == Approx(expectedAngle));
+    }
+}</t>
+  </si>
+  <si>
+    <t>please write a cpp function , the function signature as below #include &lt;iostream&gt;
+#include &lt;cmath&gt;
+#include &lt;stdexcept&gt;
+/**
+ * @brief Calculates the steering angle based on the given angular velocity, speed, and wheelbase.
+ *
+ * The function uses the relationship between angular velocity, speed, and the steering angle
+ * to determine the appropriate steering angle required for the vehicle to achieve the desired
+ * angular velocity. The formula used is:
+ *
+ *      ω = (v / L) * tan(δ)
+ *
+ * Rearranging gives us:
+ *
+ *      δ = atan((ω * L) / v)
+ *
+ * @param angularVelocity The angular velocity of the vehicle in radians per second.
+ * @param speed The forward speed of the vehicle in meters per second.
+ * @param wheelbase The distance between the front and rear axles of the vehicle in meters.
+ *
+ * @return The steering angle in radians.
+ *
+ * @throws std::invalid_argument if speed is less than or equal to zero,
+ *                                since the vehicle cannot move at zero or negative speed.
+ */
+double calculateSteeringAngle(double angularVelocity, double speed, double wheelbase) {}</t>
+  </si>
+  <si>
+    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'double calculateSteeringAngle(double angularVelocity, double speed, double wheelbase) {\n    if (speed &lt;= 0) {\n        throw std::invalid_argument("Speed must be greater than zero.");\n    }\n    return atan((angularVelocity * wheelbase) / speed);\n}'}]</t>
+  </si>
+  <si>
+    <t>#define CATCH_CONFIG_MAIN
+#include "./lib/catch.hpp"
+double calculateSteeringAngle(double angularVelocity, double speed, double wheelbase) {
+    if (speed &lt;= 0) {
+        throw std::invalid_argument("Speed must be greater than zero.");
+    }
+    return atan((angularVelocity * wheelbase) / speed);
+}TEST_CASE("Calculate Steering Angle Tests") {
+    const double wheelbase = 2.5; // Setting wheelbase constant for all tests
+    SECTION("Normal case") {
+        double angularVelocity = 1.0; // radians/second
+        double speed = 10.0;          // meters/second
+        double expectedAngle = atan((angularVelocity * wheelbase) / speed);
+        REQUIRE(calculateSteeringAngle(angularVelocity, speed, wheelbase) == Approx(expectedAngle));
+    }
+    SECTION("Zero speed") {
+        double angularVelocity = 1.0; // radians/second
+        double speed = 0.0;           // meters/second
+        REQUIRE_THROWS_AS(calculateSteeringAngle(angularVelocity, speed, wheelbase), std::invalid_argument);
+    }
+    SECTION("Negative speed") {
+        double angularVelocity = 1.0; // radians/second
+        double speed = -5.0;          // meters/second
+        REQUIRE_THROWS_AS(calculateSteeringAngle(angularVelocity, speed, wheelbase), std::invalid_argument);
+    }
+    SECTION("Zero angular velocity") {
+        double angularVelocity = 0.0; // radians/second
+        double speed = 10.0;          // meters/second
+        double expectedAngle = 0.0;   // Steering angle should be zero
+        REQUIRE(calculateSteeringAngle(angularVelocity, speed, wheelbase) == Approx(expectedAngle));
+    }
+    SECTION("Large values") {
+        double angularVelocity = 100.0; // radians/second
+        double speed = 1000.0;          // meters/second
+        double expectedAngle = atan((angularVelocity * wheelbase) / speed);
+        REQUIRE(calculateSteeringAngle(angularVelocity, speed, wheelbase) == Approx(expectedAngle));
+    }
+    SECTION("High angular velocity") {
+        double angularVelocity = 10.0; // radians/second
+        double speed = 1.0;             // meters/second
+        double expectedAngle = atan((angularVelocity * wheelbase) / speed);
+        REQUIRE(calculateSteeringAngle(angularVelocity, speed, wheelbase) == Approx(expectedAngle));
+    }
+}</t>
   </si>
 </sst>
 </file>
@@ -2431,6 +6833,7 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2596,7 +6999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3059,16 +7462,16 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3417,960 +7820,1749 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:11">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:13">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A2" s="4">
+    <row r="2" spans="1:13">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
+        <v>183</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="409.5" spans="1:13">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
         <v>187</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" ht="409.5" spans="1:11">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="5" spans="1:13">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>188</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2"/>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>189</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="5">
-        <v>3</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" ht="409.5" spans="1:11">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>190</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" ht="409.5" spans="1:12">
+    <row r="6" s="1" customFormat="1" ht="409.5" spans="1:13">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
+        <v>189</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>191</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>194</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B12">
+        <v>195</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="B13">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>197</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>202</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>203</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>204</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>205</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>206</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>121</v>
+      </c>
+      <c r="M21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>207</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>208</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>209</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>139</v>
+      </c>
+      <c r="M24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>210</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" t="s">
+        <v>144</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>354</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>355</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" t="s">
+        <v>154</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>356</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" t="s">
+        <v>159</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>357</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>358</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" t="s">
+        <v>168</v>
+      </c>
+      <c r="I30" t="s">
+        <v>169</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" ht="409.5" spans="1:13">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>359</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>360</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>361</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" t="s">
+        <v>184</v>
+      </c>
+      <c r="H33" t="s">
+        <v>185</v>
+      </c>
+      <c r="I33" t="s">
+        <v>186</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>187</v>
+      </c>
+      <c r="M33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>365</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" t="s">
+        <v>191</v>
+      </c>
+      <c r="I34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="B35">
+        <v>481</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" t="s">
+        <v>196</v>
+      </c>
+      <c r="I35" t="s">
+        <v>197</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="L35" t="s">
+        <v>198</v>
+      </c>
+      <c r="M35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="B36">
+        <v>589</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" t="s">
+        <v>202</v>
+      </c>
+      <c r="I36" t="s">
+        <v>203</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="B37">
+        <v>590</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>206</v>
+      </c>
+      <c r="G37" t="s">
+        <v>207</v>
+      </c>
+      <c r="I37" t="s">
+        <v>208</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="L37" t="s">
+        <v>209</v>
+      </c>
+      <c r="M37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="I6" s="2">
-        <v>4</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="B38">
+        <v>591</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" t="s">
+        <v>213</v>
+      </c>
+      <c r="H38" t="s">
+        <v>214</v>
+      </c>
+      <c r="I38" t="s">
+        <v>215</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="L6" t="s">
-        <v>28</v>
+      <c r="B39">
+        <v>592</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>218</v>
+      </c>
+      <c r="G39" t="s">
+        <v>219</v>
+      </c>
+      <c r="I39" t="s">
+        <v>220</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>221</v>
       </c>
     </row>
-    <row r="7" ht="409.5" spans="1:11">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>192</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="40" spans="1:13">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="B40">
+        <v>594</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>223</v>
+      </c>
+      <c r="G40" t="s">
+        <v>224</v>
+      </c>
+      <c r="I40" t="s">
+        <v>225</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="B41">
+        <v>595</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>227</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" t="s">
+        <v>229</v>
+      </c>
+      <c r="I41" t="s">
+        <v>230</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="B42">
+        <v>597</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>233</v>
+      </c>
+      <c r="G42" t="s">
+        <v>234</v>
+      </c>
+      <c r="I42" t="s">
+        <v>235</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" ht="409.5" spans="1:13">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="I7" s="2">
+      <c r="B43">
+        <v>598</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>237</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>238</v>
+      </c>
+      <c r="G43" t="s">
+        <v>239</v>
+      </c>
+      <c r="H43" t="s">
+        <v>240</v>
+      </c>
+      <c r="I43" t="s">
+        <v>241</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M43" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>599</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>244</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>245</v>
+      </c>
+      <c r="G44" t="s">
+        <v>246</v>
+      </c>
+      <c r="I44" t="s">
+        <v>247</v>
+      </c>
+      <c r="J44">
         <v>0</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="2"/>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>248</v>
+      </c>
     </row>
-    <row r="8" ht="409.5" spans="1:12">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>193</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="2" t="s">
+    <row r="45" spans="1:13">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="B45">
+        <v>601</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>249</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>250</v>
+      </c>
+      <c r="G45" t="s">
+        <v>251</v>
+      </c>
+      <c r="I45" t="s">
+        <v>252</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="B46">
+        <v>603</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>255</v>
+      </c>
+      <c r="G46" t="s">
+        <v>256</v>
+      </c>
+      <c r="I46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="B47">
+        <v>604</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>259</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>260</v>
+      </c>
+      <c r="G47" t="s">
+        <v>261</v>
+      </c>
+      <c r="I47" t="s">
+        <v>262</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="L8" t="s">
+      <c r="B48">
+        <v>605</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>264</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>265</v>
+      </c>
+      <c r="G48" t="s">
+        <v>266</v>
+      </c>
+      <c r="I48" t="s">
+        <v>267</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" ht="409.5" spans="1:11">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>194</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="B49">
+        <v>606</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>269</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>270</v>
+      </c>
+      <c r="G49" t="s">
+        <v>271</v>
+      </c>
+      <c r="I49" t="s">
+        <v>272</v>
+      </c>
+      <c r="J49">
         <v>0</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="409.5" spans="1:11">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <v>195</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" ht="409.5" spans="1:11">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>196</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="L49">
         <v>0</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="409.5" spans="1:11">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5">
-        <v>197</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5">
-        <v>198</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="5">
-        <v>2</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="409.5" spans="1:11">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5">
-        <v>200</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" ht="409.5" spans="1:11">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>203</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" ht="409.5" spans="1:11">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>204</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" ht="409.5" spans="1:11">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>205</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" ht="409.5" spans="1:11">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>206</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5">
-        <v>207</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" ht="409.5" spans="1:11">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>208</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" ht="409.5" spans="1:11">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>209</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" ht="409.5" spans="1:11">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
-        <v>210</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5">
-        <v>356</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I23" s="5">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A24" s="4">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5">
-        <v>357</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" s="5">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" ht="409.5" spans="1:12">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
-        <v>358</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" ht="409.5" spans="1:11">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2">
-        <v>359</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" ht="409.5" spans="1:11">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
-        <v>360</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="2"/>
+      <c r="M49" t="s">
+        <v>273</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>